--- a/53Week/TestCase_53rdWeek_V1.xlsx
+++ b/53Week/TestCase_53rdWeek_V1.xlsx
@@ -30,13 +30,15 @@
     <sheet name="Test_53week_14" sheetId="23" state="hidden" r:id="rId16"/>
     <sheet name="Test_53week_15" sheetId="24" state="hidden" r:id="rId17"/>
     <sheet name="Test_53week_16" sheetId="25" state="hidden" r:id="rId18"/>
-    <sheet name="Test_53week_17" sheetId="26" state="hidden" r:id="rId19"/>
+    <sheet name="Test_53week_17" sheetId="26" r:id="rId19"/>
     <sheet name="Test_53week_18" sheetId="27" state="hidden" r:id="rId20"/>
     <sheet name="Test_53week_19" sheetId="28" state="hidden" r:id="rId21"/>
-    <sheet name="Test_53week_20" sheetId="29" r:id="rId22"/>
+    <sheet name="Test_53week_20" sheetId="29" state="hidden" r:id="rId22"/>
     <sheet name="Test_53week_21" sheetId="30" r:id="rId23"/>
-    <sheet name="Test Data" sheetId="7" r:id="rId24"/>
-    <sheet name="Analysis" sheetId="18" r:id="rId25"/>
+    <sheet name="Test_53week_22" sheetId="31" r:id="rId24"/>
+    <sheet name="Test_53week_23" sheetId="32" r:id="rId25"/>
+    <sheet name="Test Data" sheetId="7" r:id="rId26"/>
+    <sheet name="Analysis" sheetId="18" r:id="rId27"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -48,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3939" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4281" uniqueCount="314">
   <si>
     <t>ID</t>
   </si>
@@ -1045,6 +1047,44 @@
   <si>
     <t>Test_53week_21</t>
   </si>
+  <si>
+    <t>计算类timeseries</t>
+  </si>
+  <si>
+    <t>C2 - C1</t>
+  </si>
+  <si>
+    <t>C1 - C2</t>
+  </si>
+  <si>
+    <t>2019-51</t>
+  </si>
+  <si>
+    <t>Index 4</t>
+  </si>
+  <si>
+    <t>Indexes…</t>
+  </si>
+  <si>
+    <t>No version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scenario22:
+When the time series is about Column calculation, the real 53rd week will participate in calculation, but the false 53rd week will be skipped.
+</t>
+  </si>
+  <si>
+    <t>Test_53week_22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scenario23:
+When the 1st time series which includes real 53rd week is hidden and the calculation time series which is relative to 1st time series is not hidden,
+the result is that the 53rd week column will be displayed in the grid.
+</t>
+  </si>
+  <si>
+    <t>Test_53week_23</t>
+  </si>
 </sst>
 </file>
 
@@ -1137,7 +1177,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1203,8 +1243,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="20">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -1445,6 +1491,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1453,7 +1525,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1696,6 +1768,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="8" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2055,10 +2148,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet11"/>
-  <dimension ref="A1:I232"/>
+  <dimension ref="A1:I254"/>
   <sheetViews>
-    <sheetView topLeftCell="A209" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D238" sqref="D238"/>
+    <sheetView topLeftCell="A232" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G254" sqref="G254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5694,38 +5787,373 @@
       <c r="H232" s="87"/>
       <c r="I232" s="87"/>
     </row>
+    <row r="233" spans="1:9" ht="15" customHeight="1">
+      <c r="A233" s="88"/>
+      <c r="B233" s="88"/>
+      <c r="C233" s="91" t="s">
+        <v>310</v>
+      </c>
+      <c r="D233" s="87" t="s">
+        <v>8</v>
+      </c>
+      <c r="E233" s="87"/>
+      <c r="F233" s="60"/>
+      <c r="G233" s="87"/>
+      <c r="H233" s="87"/>
+      <c r="I233" s="87"/>
+    </row>
+    <row r="234" spans="1:9">
+      <c r="A234" s="89"/>
+      <c r="B234" s="89"/>
+      <c r="C234" s="92"/>
+      <c r="D234" s="87" t="s">
+        <v>9</v>
+      </c>
+      <c r="E234" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F234" s="68"/>
+      <c r="G234" s="87"/>
+      <c r="H234" s="87"/>
+      <c r="I234" s="87"/>
+    </row>
+    <row r="235" spans="1:9">
+      <c r="A235" s="89"/>
+      <c r="B235" s="89"/>
+      <c r="C235" s="92"/>
+      <c r="D235" s="87" t="s">
+        <v>82</v>
+      </c>
+      <c r="E235" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F235" s="68"/>
+      <c r="G235" s="87"/>
+      <c r="H235" s="87"/>
+      <c r="I235" s="87"/>
+    </row>
+    <row r="236" spans="1:9">
+      <c r="A236" s="89"/>
+      <c r="B236" s="89"/>
+      <c r="C236" s="92"/>
+      <c r="D236" s="87" t="s">
+        <v>11</v>
+      </c>
+      <c r="E236" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="F236" s="68"/>
+      <c r="G236" s="87"/>
+      <c r="H236" s="87"/>
+      <c r="I236" s="87"/>
+    </row>
+    <row r="237" spans="1:9">
+      <c r="A237" s="89"/>
+      <c r="B237" s="89"/>
+      <c r="C237" s="92"/>
+      <c r="D237" s="87" t="s">
+        <v>104</v>
+      </c>
+      <c r="E237" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="F237" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="G237" s="87" t="s">
+        <v>111</v>
+      </c>
+      <c r="H237" s="87"/>
+      <c r="I237" s="87"/>
+    </row>
+    <row r="238" spans="1:9">
+      <c r="A238" s="89"/>
+      <c r="B238" s="89"/>
+      <c r="C238" s="92"/>
+      <c r="D238" s="87" t="s">
+        <v>12</v>
+      </c>
+      <c r="E238" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="F238" s="60"/>
+      <c r="G238" s="87"/>
+      <c r="H238" s="87"/>
+      <c r="I238" s="87"/>
+    </row>
+    <row r="239" spans="1:9">
+      <c r="A239" s="89"/>
+      <c r="B239" s="89"/>
+      <c r="C239" s="92"/>
+      <c r="D239" s="87" t="s">
+        <v>13</v>
+      </c>
+      <c r="E239" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="F239" s="60"/>
+      <c r="G239" s="87"/>
+      <c r="H239" s="87"/>
+      <c r="I239" s="87"/>
+    </row>
+    <row r="240" spans="1:9">
+      <c r="A240" s="89"/>
+      <c r="B240" s="89"/>
+      <c r="C240" s="92"/>
+      <c r="D240" s="87" t="s">
+        <v>113</v>
+      </c>
+      <c r="E240" s="9"/>
+      <c r="F240" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="G240" s="87" t="s">
+        <v>115</v>
+      </c>
+      <c r="H240" s="87"/>
+      <c r="I240" s="87"/>
+    </row>
+    <row r="241" spans="1:9">
+      <c r="A241" s="89"/>
+      <c r="B241" s="89"/>
+      <c r="C241" s="92"/>
+      <c r="D241" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E241" s="9"/>
+      <c r="F241" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="G241" s="87" t="s">
+        <v>116</v>
+      </c>
+      <c r="H241" s="87"/>
+      <c r="I241" s="87"/>
+    </row>
+    <row r="242" spans="1:9">
+      <c r="A242" s="89"/>
+      <c r="B242" s="89"/>
+      <c r="C242" s="92"/>
+      <c r="D242" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E242" s="9"/>
+      <c r="F242" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="G242" s="87" t="s">
+        <v>116</v>
+      </c>
+      <c r="H242" s="87"/>
+      <c r="I242" s="87"/>
+    </row>
+    <row r="243" spans="1:9">
+      <c r="A243" s="90"/>
+      <c r="B243" s="90"/>
+      <c r="C243" s="92"/>
+      <c r="D243" s="87"/>
+      <c r="E243" s="87"/>
+      <c r="F243" s="60"/>
+      <c r="G243" s="87"/>
+      <c r="H243" s="87"/>
+      <c r="I243" s="87"/>
+    </row>
+    <row r="244" spans="1:9" ht="15" customHeight="1">
+      <c r="A244" s="88"/>
+      <c r="B244" s="88"/>
+      <c r="C244" s="91" t="s">
+        <v>312</v>
+      </c>
+      <c r="D244" s="87" t="s">
+        <v>8</v>
+      </c>
+      <c r="E244" s="87"/>
+      <c r="F244" s="60"/>
+      <c r="G244" s="87"/>
+      <c r="H244" s="87"/>
+      <c r="I244" s="87"/>
+    </row>
+    <row r="245" spans="1:9">
+      <c r="A245" s="89"/>
+      <c r="B245" s="89"/>
+      <c r="C245" s="92"/>
+      <c r="D245" s="87" t="s">
+        <v>9</v>
+      </c>
+      <c r="E245" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F245" s="68"/>
+      <c r="G245" s="87"/>
+      <c r="H245" s="87"/>
+      <c r="I245" s="87"/>
+    </row>
+    <row r="246" spans="1:9">
+      <c r="A246" s="89"/>
+      <c r="B246" s="89"/>
+      <c r="C246" s="92"/>
+      <c r="D246" s="87" t="s">
+        <v>82</v>
+      </c>
+      <c r="E246" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F246" s="68"/>
+      <c r="G246" s="87"/>
+      <c r="H246" s="87"/>
+      <c r="I246" s="87"/>
+    </row>
+    <row r="247" spans="1:9">
+      <c r="A247" s="89"/>
+      <c r="B247" s="89"/>
+      <c r="C247" s="92"/>
+      <c r="D247" s="87" t="s">
+        <v>11</v>
+      </c>
+      <c r="E247" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="F247" s="68"/>
+      <c r="G247" s="87"/>
+      <c r="H247" s="87"/>
+      <c r="I247" s="87"/>
+    </row>
+    <row r="248" spans="1:9">
+      <c r="A248" s="89"/>
+      <c r="B248" s="89"/>
+      <c r="C248" s="92"/>
+      <c r="D248" s="87" t="s">
+        <v>104</v>
+      </c>
+      <c r="E248" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="F248" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G248" s="87" t="s">
+        <v>111</v>
+      </c>
+      <c r="H248" s="87"/>
+      <c r="I248" s="87"/>
+    </row>
+    <row r="249" spans="1:9">
+      <c r="A249" s="89"/>
+      <c r="B249" s="89"/>
+      <c r="C249" s="92"/>
+      <c r="D249" s="87" t="s">
+        <v>12</v>
+      </c>
+      <c r="E249" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="F249" s="60"/>
+      <c r="G249" s="87"/>
+      <c r="H249" s="87"/>
+      <c r="I249" s="87"/>
+    </row>
+    <row r="250" spans="1:9">
+      <c r="A250" s="89"/>
+      <c r="B250" s="89"/>
+      <c r="C250" s="92"/>
+      <c r="D250" s="87" t="s">
+        <v>13</v>
+      </c>
+      <c r="E250" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="F250" s="60"/>
+      <c r="G250" s="87"/>
+      <c r="H250" s="87"/>
+      <c r="I250" s="87"/>
+    </row>
+    <row r="251" spans="1:9">
+      <c r="A251" s="89"/>
+      <c r="B251" s="89"/>
+      <c r="C251" s="92"/>
+      <c r="D251" s="87" t="s">
+        <v>113</v>
+      </c>
+      <c r="E251" s="9"/>
+      <c r="F251" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G251" s="87" t="s">
+        <v>115</v>
+      </c>
+      <c r="H251" s="87"/>
+      <c r="I251" s="87"/>
+    </row>
+    <row r="252" spans="1:9">
+      <c r="A252" s="89"/>
+      <c r="B252" s="89"/>
+      <c r="C252" s="92"/>
+      <c r="D252" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E252" s="9"/>
+      <c r="F252" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G252" s="87" t="s">
+        <v>116</v>
+      </c>
+      <c r="H252" s="87"/>
+      <c r="I252" s="87"/>
+    </row>
+    <row r="253" spans="1:9">
+      <c r="A253" s="89"/>
+      <c r="B253" s="89"/>
+      <c r="C253" s="92"/>
+      <c r="D253" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E253" s="9"/>
+      <c r="F253" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G253" s="87" t="s">
+        <v>116</v>
+      </c>
+      <c r="H253" s="87"/>
+      <c r="I253" s="87"/>
+    </row>
+    <row r="254" spans="1:9">
+      <c r="A254" s="90"/>
+      <c r="B254" s="90"/>
+      <c r="C254" s="92"/>
+      <c r="D254" s="87"/>
+      <c r="E254" s="87"/>
+      <c r="F254" s="60"/>
+      <c r="G254" s="87"/>
+      <c r="H254" s="87"/>
+      <c r="I254" s="87"/>
+    </row>
   </sheetData>
-  <mergeCells count="63">
-    <mergeCell ref="A167:A177"/>
-    <mergeCell ref="B167:B177"/>
-    <mergeCell ref="C167:C177"/>
-    <mergeCell ref="A200:A210"/>
-    <mergeCell ref="B200:B210"/>
-    <mergeCell ref="C200:C210"/>
-    <mergeCell ref="A178:A188"/>
-    <mergeCell ref="B178:B188"/>
-    <mergeCell ref="C178:C188"/>
-    <mergeCell ref="A189:A199"/>
-    <mergeCell ref="B189:B199"/>
-    <mergeCell ref="C189:C199"/>
-    <mergeCell ref="A145:A155"/>
-    <mergeCell ref="B145:B155"/>
-    <mergeCell ref="C145:C155"/>
-    <mergeCell ref="A156:A166"/>
-    <mergeCell ref="B156:B166"/>
-    <mergeCell ref="C156:C166"/>
-    <mergeCell ref="A2:A12"/>
-    <mergeCell ref="B2:B12"/>
-    <mergeCell ref="C2:C12"/>
-    <mergeCell ref="A13:A23"/>
-    <mergeCell ref="B13:B23"/>
-    <mergeCell ref="C13:C23"/>
-    <mergeCell ref="A24:A34"/>
-    <mergeCell ref="B24:B34"/>
-    <mergeCell ref="C24:C34"/>
-    <mergeCell ref="A35:A45"/>
-    <mergeCell ref="B35:B45"/>
-    <mergeCell ref="C35:C45"/>
+  <mergeCells count="69">
+    <mergeCell ref="A233:A243"/>
+    <mergeCell ref="B233:B243"/>
+    <mergeCell ref="C233:C243"/>
+    <mergeCell ref="A244:A254"/>
+    <mergeCell ref="B244:B254"/>
+    <mergeCell ref="C244:C254"/>
+    <mergeCell ref="A222:A232"/>
+    <mergeCell ref="B222:B232"/>
+    <mergeCell ref="C222:C232"/>
+    <mergeCell ref="A211:A221"/>
+    <mergeCell ref="B211:B221"/>
+    <mergeCell ref="C211:C221"/>
+    <mergeCell ref="A90:A100"/>
+    <mergeCell ref="B90:B100"/>
+    <mergeCell ref="C90:C100"/>
+    <mergeCell ref="A101:A111"/>
+    <mergeCell ref="B101:B111"/>
+    <mergeCell ref="C101:C111"/>
+    <mergeCell ref="B112:B122"/>
+    <mergeCell ref="C112:C122"/>
+    <mergeCell ref="A123:A133"/>
+    <mergeCell ref="B123:B133"/>
+    <mergeCell ref="C123:C133"/>
     <mergeCell ref="A134:A144"/>
     <mergeCell ref="A79:A89"/>
     <mergeCell ref="B79:B89"/>
@@ -5742,23 +6170,36 @@
     <mergeCell ref="B134:B144"/>
     <mergeCell ref="C134:C144"/>
     <mergeCell ref="A112:A122"/>
-    <mergeCell ref="B112:B122"/>
-    <mergeCell ref="C112:C122"/>
-    <mergeCell ref="A123:A133"/>
-    <mergeCell ref="B123:B133"/>
-    <mergeCell ref="C123:C133"/>
-    <mergeCell ref="A90:A100"/>
-    <mergeCell ref="B90:B100"/>
-    <mergeCell ref="C90:C100"/>
-    <mergeCell ref="A101:A111"/>
-    <mergeCell ref="B101:B111"/>
-    <mergeCell ref="C101:C111"/>
-    <mergeCell ref="A222:A232"/>
-    <mergeCell ref="B222:B232"/>
-    <mergeCell ref="C222:C232"/>
-    <mergeCell ref="A211:A221"/>
-    <mergeCell ref="B211:B221"/>
-    <mergeCell ref="C211:C221"/>
+    <mergeCell ref="A24:A34"/>
+    <mergeCell ref="B24:B34"/>
+    <mergeCell ref="C24:C34"/>
+    <mergeCell ref="A35:A45"/>
+    <mergeCell ref="B35:B45"/>
+    <mergeCell ref="C35:C45"/>
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="B2:B12"/>
+    <mergeCell ref="C2:C12"/>
+    <mergeCell ref="A13:A23"/>
+    <mergeCell ref="B13:B23"/>
+    <mergeCell ref="C13:C23"/>
+    <mergeCell ref="A145:A155"/>
+    <mergeCell ref="B145:B155"/>
+    <mergeCell ref="C145:C155"/>
+    <mergeCell ref="A156:A166"/>
+    <mergeCell ref="B156:B166"/>
+    <mergeCell ref="C156:C166"/>
+    <mergeCell ref="A167:A177"/>
+    <mergeCell ref="B167:B177"/>
+    <mergeCell ref="C167:C177"/>
+    <mergeCell ref="A200:A210"/>
+    <mergeCell ref="B200:B210"/>
+    <mergeCell ref="C200:C210"/>
+    <mergeCell ref="A178:A188"/>
+    <mergeCell ref="B178:B188"/>
+    <mergeCell ref="C178:C188"/>
+    <mergeCell ref="A189:A199"/>
+    <mergeCell ref="B189:B199"/>
+    <mergeCell ref="C189:C199"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F220" location="Test_53week_20!A1" display="Test_53week_20"/>
@@ -5971,6 +6412,26 @@
     <hyperlink ref="F229" location="Test_53week_21!A1" display="Test_53week_21"/>
     <hyperlink ref="F230" location="Test_53week_21!A1" display="Test_53week_21"/>
     <hyperlink ref="F231" location="Test_53week_21!A1" display="Test_53week_21"/>
+    <hyperlink ref="E235" r:id="rId43"/>
+    <hyperlink ref="E234" r:id="rId44"/>
+    <hyperlink ref="E236" location="Test_53week_22!A1" display="Test_53week_22"/>
+    <hyperlink ref="E237" location="Test_53week_22!A1" display="Test_53week_22"/>
+    <hyperlink ref="E238" location="Test_53week_22!A1" display="Test_53week_22"/>
+    <hyperlink ref="E239" location="Test_53week_22!A1" display="Test_53week_22"/>
+    <hyperlink ref="F237" location="Test_53week_22!A1" display="Test_53week_22"/>
+    <hyperlink ref="F241" location="Test_53week_22!A1" display="Test_53week_22"/>
+    <hyperlink ref="F240" location="Test_53week_22!A1" display="Test_53week_22"/>
+    <hyperlink ref="F242" location="Test_53week_22!A1" display="Test_53week_22"/>
+    <hyperlink ref="E246" r:id="rId45"/>
+    <hyperlink ref="E245" r:id="rId46"/>
+    <hyperlink ref="E247" location="Test_53week_23!A1" display="Test_53week_23"/>
+    <hyperlink ref="E248" location="Test_53week_23!A1" display="Test_53week_23"/>
+    <hyperlink ref="E249" location="Test_53week_23!A1" display="Test_53week_23"/>
+    <hyperlink ref="E250" location="Test_53week_23!A1" display="Test_53week_23"/>
+    <hyperlink ref="F248" location="Test_53week_23!A1" display="Test_53week_23"/>
+    <hyperlink ref="F251" location="Test_53week_23!A1" display="Test_53week_23"/>
+    <hyperlink ref="F252" location="Test_53week_23!A1" display="Test_53week_23"/>
+    <hyperlink ref="F253" location="Test_53week_23!A1" display="Test_53week_23"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13836,8 +14297,8 @@
   <sheetPr codeName="Sheet21"/>
   <dimension ref="A1:BJ46"/>
   <sheetViews>
-    <sheetView topLeftCell="D13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G53" sqref="G53"/>
+    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1"/>
@@ -13923,7 +14384,7 @@
         <v>18</v>
       </c>
       <c r="D5" s="36">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E5" s="35"/>
     </row>
@@ -14363,18 +14824,15 @@
         <v>99</v>
       </c>
       <c r="E35" s="45">
-        <v>44188</v>
+        <v>44195</v>
       </c>
       <c r="F35" s="45">
-        <v>44195</v>
+        <v>44202</v>
       </c>
       <c r="G35" s="45">
-        <v>44202</v>
+        <v>44209</v>
       </c>
       <c r="H35" s="45">
-        <v>44209</v>
-      </c>
-      <c r="I35" s="45">
         <v>44216</v>
       </c>
       <c r="J35" s="31"/>
@@ -14441,17 +14899,16 @@
       <c r="D36" s="56">
         <v>0</v>
       </c>
-      <c r="E36" s="46"/>
+      <c r="E36" s="46">
+        <v>202053</v>
+      </c>
       <c r="F36" s="46">
-        <v>202053</v>
+        <v>202101</v>
       </c>
       <c r="G36" s="46">
-        <v>202101</v>
+        <v>202102</v>
       </c>
       <c r="H36" s="46">
-        <v>202102</v>
-      </c>
-      <c r="I36" s="46">
         <v>202103</v>
       </c>
       <c r="J36" s="31"/>
@@ -14519,18 +14976,15 @@
         <v>0</v>
       </c>
       <c r="E37" s="46">
-        <v>202052</v>
+        <v>202053</v>
       </c>
       <c r="F37" s="46">
-        <v>202053</v>
+        <v>202101</v>
       </c>
       <c r="G37" s="46">
-        <v>202101</v>
+        <v>202102</v>
       </c>
       <c r="H37" s="46">
-        <v>202102</v>
-      </c>
-      <c r="I37" s="46">
         <v>202103</v>
       </c>
     </row>
@@ -14611,19 +15065,16 @@
       <c r="C44" s="43" t="s">
         <v>128</v>
       </c>
-      <c r="D44" s="56" t="s">
-        <v>133</v>
+      <c r="D44" s="21" t="s">
+        <v>134</v>
       </c>
       <c r="E44" s="21" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F44" s="21" t="s">
-        <v>135</v>
+        <v>291</v>
       </c>
       <c r="G44" s="21" t="s">
-        <v>291</v>
-      </c>
-      <c r="H44" s="21" t="s">
         <v>292</v>
       </c>
     </row>
@@ -14634,17 +15085,16 @@
       <c r="C45" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="D45" s="46"/>
+      <c r="D45" s="46">
+        <v>202053</v>
+      </c>
       <c r="E45" s="46">
-        <v>202053</v>
+        <v>202101</v>
       </c>
       <c r="F45" s="46">
-        <v>202101</v>
+        <v>202102</v>
       </c>
       <c r="G45" s="46">
-        <v>202102</v>
-      </c>
-      <c r="H45" s="46">
         <v>202103</v>
       </c>
     </row>
@@ -14656,18 +15106,15 @@
         <v>85</v>
       </c>
       <c r="D46" s="46">
-        <v>202052</v>
+        <v>202053</v>
       </c>
       <c r="E46" s="46">
-        <v>202053</v>
+        <v>202101</v>
       </c>
       <c r="F46" s="46">
-        <v>202101</v>
+        <v>202102</v>
       </c>
       <c r="G46" s="46">
-        <v>202102</v>
-      </c>
-      <c r="H46" s="46">
         <v>202103</v>
       </c>
     </row>
@@ -17626,7 +18073,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BJ51"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A23" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
@@ -18510,11 +18957,2122 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BJ54"/>
+  <sheetViews>
+    <sheetView topLeftCell="A29" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="22.7109375" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" style="31" customWidth="1"/>
+    <col min="3" max="3" width="31.28515625" style="31" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" style="31" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" style="31" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" style="31" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" style="31" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="31" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" style="31" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="31" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" style="31" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" style="31" customWidth="1"/>
+    <col min="15" max="17" width="10.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="9.140625" style="31" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="10.28515625" style="31" customWidth="1"/>
+    <col min="22" max="22" width="10.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.140625" style="31"/>
+    <col min="24" max="26" width="10.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.140625" style="31"/>
+    <col min="28" max="30" width="10.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="9.140625" style="31"/>
+    <col min="33" max="35" width="10.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="9.140625" style="31"/>
+    <col min="37" max="39" width="10.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="9.140625" style="31"/>
+    <col min="41" max="45" width="10.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="46" max="48" width="11.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="10.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="50" max="52" width="11.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="10.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="54" max="57" width="11.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="9.140625" style="31"/>
+    <col min="59" max="61" width="10.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="62" max="16384" width="9.140625" style="31"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="34" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" outlineLevel="1">
+      <c r="B2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" outlineLevel="1">
+      <c r="B3" s="35"/>
+      <c r="C3" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+    </row>
+    <row r="4" spans="1:5" outlineLevel="1">
+      <c r="B4" s="35"/>
+      <c r="C4" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="35"/>
+    </row>
+    <row r="5" spans="1:5" outlineLevel="1">
+      <c r="B5" s="35"/>
+      <c r="C5" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="36">
+        <v>5</v>
+      </c>
+      <c r="E5" s="35"/>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" outlineLevel="1">
+      <c r="B6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" outlineLevel="1">
+      <c r="B7" s="35"/>
+      <c r="C7" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="35"/>
+    </row>
+    <row r="8" spans="1:5" outlineLevel="1">
+      <c r="B8" s="35"/>
+      <c r="C8" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="64" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" outlineLevel="1">
+      <c r="B9" s="35"/>
+      <c r="C9" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+    </row>
+    <row r="10" spans="1:5" outlineLevel="1">
+      <c r="B10" s="35"/>
+      <c r="C10" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+    </row>
+    <row r="11" spans="1:5" outlineLevel="1">
+      <c r="B11" s="35"/>
+      <c r="C11" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+    </row>
+    <row r="12" spans="1:5" outlineLevel="1">
+      <c r="B12" s="35"/>
+      <c r="C12" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+    </row>
+    <row r="13" spans="1:5" outlineLevel="1">
+      <c r="B13" s="35"/>
+      <c r="C13" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+    </row>
+    <row r="14" spans="1:5" outlineLevel="1">
+      <c r="B14" s="35"/>
+      <c r="C14" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" outlineLevel="1">
+      <c r="B15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" outlineLevel="1">
+      <c r="B16" s="35"/>
+      <c r="C16" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="35"/>
+    </row>
+    <row r="17" spans="1:21">
+      <c r="A17" s="34" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="30" outlineLevel="1">
+      <c r="B18" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="41" t="s">
+        <v>308</v>
+      </c>
+      <c r="E18" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="G18" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="H18" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="I18" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="J18" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="K18" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="L18" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="M18" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="N18" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="O18" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="P18" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q18" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="R18" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="S18" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="T18" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="U18" s="35" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="30" outlineLevel="1">
+      <c r="B19" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" s="99"/>
+      <c r="E19" s="100"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="87">
+        <v>0</v>
+      </c>
+      <c r="L19" s="87">
+        <v>0</v>
+      </c>
+      <c r="M19" s="35"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="35"/>
+      <c r="P19" s="35"/>
+      <c r="Q19" s="35"/>
+      <c r="R19" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="S19" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="T19" s="35"/>
+      <c r="U19" s="35" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" ht="30" outlineLevel="1">
+      <c r="B20" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" s="100"/>
+      <c r="E20" s="100"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="87">
+        <v>0</v>
+      </c>
+      <c r="L20" s="87">
+        <v>0</v>
+      </c>
+      <c r="M20" s="35"/>
+      <c r="N20" s="35"/>
+      <c r="O20" s="35"/>
+      <c r="P20" s="35"/>
+      <c r="Q20" s="35"/>
+      <c r="R20" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="S20" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="T20" s="35"/>
+      <c r="U20" s="35" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" outlineLevel="1">
+      <c r="B21" s="35" t="s">
+        <v>266</v>
+      </c>
+      <c r="C21" s="98" t="s">
+        <v>304</v>
+      </c>
+      <c r="D21" s="36">
+        <v>1</v>
+      </c>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="98" t="s">
+        <v>304</v>
+      </c>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="87">
+        <v>0</v>
+      </c>
+      <c r="L21" s="87">
+        <v>0</v>
+      </c>
+      <c r="M21" s="35"/>
+      <c r="N21" s="35"/>
+      <c r="O21" s="35"/>
+      <c r="P21" s="35"/>
+      <c r="Q21" s="35"/>
+      <c r="R21" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="S21" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="T21" s="35"/>
+      <c r="U21" s="35" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" outlineLevel="1">
+      <c r="B22" s="35" t="s">
+        <v>307</v>
+      </c>
+      <c r="C22" s="35" t="s">
+        <v>305</v>
+      </c>
+      <c r="D22" s="36">
+        <v>2</v>
+      </c>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35" t="s">
+        <v>305</v>
+      </c>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="87">
+        <v>0</v>
+      </c>
+      <c r="L22" s="87">
+        <v>0</v>
+      </c>
+      <c r="M22" s="35"/>
+      <c r="N22" s="35"/>
+      <c r="O22" s="35"/>
+      <c r="P22" s="35"/>
+      <c r="Q22" s="35"/>
+      <c r="R22" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="S22" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="T22" s="35"/>
+      <c r="U22" s="35" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
+      <c r="A23" s="34" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" ht="15.75" outlineLevel="1">
+      <c r="B24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" outlineLevel="1">
+      <c r="B25" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+    </row>
+    <row r="26" spans="1:21" outlineLevel="1">
+      <c r="B26" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+    </row>
+    <row r="27" spans="1:21" outlineLevel="1">
+      <c r="B27" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+    </row>
+    <row r="28" spans="1:21" outlineLevel="1"/>
+    <row r="29" spans="1:21" ht="22.5" outlineLevel="1">
+      <c r="B29" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="J29" s="10"/>
+    </row>
+    <row r="30" spans="1:21" outlineLevel="1">
+      <c r="B30" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="D30" s="35">
+        <v>1</v>
+      </c>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="J30" s="35"/>
+    </row>
+    <row r="31" spans="1:21" outlineLevel="1">
+      <c r="B31" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="C31" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="D31" s="35">
+        <v>1</v>
+      </c>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="J31" s="35"/>
+    </row>
+    <row r="32" spans="1:21" outlineLevel="1">
+      <c r="B32" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="C32" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="D32" s="35">
+        <v>1</v>
+      </c>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="J32" s="35"/>
+    </row>
+    <row r="33" spans="1:62" outlineLevel="1">
+      <c r="B33" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="C33" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="D33" s="35">
+        <v>1</v>
+      </c>
+      <c r="E33" s="35"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="J33" s="35"/>
+    </row>
+    <row r="34" spans="1:62" outlineLevel="1">
+      <c r="B34" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="C34" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="D34" s="35">
+        <v>1</v>
+      </c>
+      <c r="E34" s="35"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="J34" s="35"/>
+    </row>
+    <row r="35" spans="1:62" outlineLevel="1">
+      <c r="B35" s="49"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="49"/>
+      <c r="I35" s="49"/>
+      <c r="J35" s="49"/>
+    </row>
+    <row r="36" spans="1:62">
+      <c r="A36" s="34" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="37" spans="1:62" s="2" customFormat="1">
+      <c r="B37" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="C37" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="D37" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="E37" s="45">
+        <v>43817</v>
+      </c>
+      <c r="F37" s="45">
+        <v>43824</v>
+      </c>
+      <c r="G37" s="45">
+        <v>43831</v>
+      </c>
+      <c r="H37" s="45">
+        <v>43838</v>
+      </c>
+      <c r="I37" s="45">
+        <v>44181</v>
+      </c>
+      <c r="J37" s="45">
+        <v>44188</v>
+      </c>
+      <c r="K37" s="45">
+        <v>44195</v>
+      </c>
+      <c r="L37" s="45">
+        <v>44202</v>
+      </c>
+      <c r="M37" s="45">
+        <v>44209</v>
+      </c>
+      <c r="N37" s="31"/>
+      <c r="O37" s="31"/>
+      <c r="P37" s="31"/>
+      <c r="Q37" s="31"/>
+      <c r="R37" s="31"/>
+      <c r="S37" s="31"/>
+      <c r="T37" s="31"/>
+      <c r="U37" s="31"/>
+      <c r="V37" s="31"/>
+      <c r="W37" s="31"/>
+      <c r="X37" s="31"/>
+      <c r="Y37" s="31"/>
+      <c r="Z37" s="31"/>
+      <c r="AA37" s="31"/>
+      <c r="AB37" s="31"/>
+      <c r="AC37" s="31"/>
+      <c r="AD37" s="31"/>
+      <c r="AE37" s="31"/>
+      <c r="AF37" s="31"/>
+      <c r="AG37" s="31"/>
+      <c r="AH37" s="31"/>
+      <c r="AI37" s="31"/>
+      <c r="AJ37" s="31"/>
+      <c r="AK37" s="31"/>
+      <c r="AL37" s="31"/>
+      <c r="AM37" s="31"/>
+      <c r="AN37" s="31"/>
+      <c r="AO37" s="31"/>
+      <c r="AP37" s="31"/>
+      <c r="AQ37" s="31"/>
+      <c r="AR37" s="31"/>
+      <c r="AS37" s="31"/>
+      <c r="AT37" s="31"/>
+      <c r="AU37" s="31"/>
+      <c r="AV37" s="31"/>
+      <c r="AW37" s="31"/>
+      <c r="AX37" s="31"/>
+      <c r="AY37" s="31"/>
+      <c r="AZ37" s="31"/>
+      <c r="BA37" s="31"/>
+      <c r="BB37" s="31"/>
+      <c r="BC37" s="31"/>
+      <c r="BD37" s="31"/>
+      <c r="BE37" s="31"/>
+      <c r="BF37" s="31"/>
+      <c r="BG37" s="31"/>
+      <c r="BH37" s="31"/>
+      <c r="BI37" s="31"/>
+      <c r="BJ37" s="31"/>
+    </row>
+    <row r="38" spans="1:62" s="2" customFormat="1">
+      <c r="B38" s="87" t="s">
+        <v>98</v>
+      </c>
+      <c r="C38" s="87" t="s">
+        <v>84</v>
+      </c>
+      <c r="D38" s="87">
+        <v>0</v>
+      </c>
+      <c r="E38" s="46">
+        <v>201951</v>
+      </c>
+      <c r="F38" s="46">
+        <v>201952</v>
+      </c>
+      <c r="G38" s="46">
+        <v>202001</v>
+      </c>
+      <c r="H38" s="46">
+        <v>202002</v>
+      </c>
+      <c r="I38" s="46">
+        <v>202051</v>
+      </c>
+      <c r="J38" s="46">
+        <v>202052</v>
+      </c>
+      <c r="K38" s="46">
+        <v>202053</v>
+      </c>
+      <c r="L38" s="46">
+        <v>202101</v>
+      </c>
+      <c r="M38" s="46">
+        <v>202102</v>
+      </c>
+      <c r="N38" s="31"/>
+      <c r="O38" s="31"/>
+      <c r="P38" s="31"/>
+      <c r="Q38" s="31"/>
+      <c r="R38" s="31"/>
+      <c r="S38" s="31"/>
+      <c r="T38" s="31"/>
+      <c r="U38" s="31"/>
+      <c r="V38" s="31"/>
+      <c r="W38" s="31"/>
+      <c r="X38" s="31"/>
+      <c r="Y38" s="31"/>
+      <c r="Z38" s="31"/>
+      <c r="AA38" s="31"/>
+      <c r="AB38" s="31"/>
+      <c r="AC38" s="31"/>
+      <c r="AD38" s="31"/>
+      <c r="AE38" s="31"/>
+      <c r="AF38" s="31"/>
+      <c r="AG38" s="31"/>
+      <c r="AH38" s="31"/>
+      <c r="AI38" s="31"/>
+      <c r="AJ38" s="31"/>
+      <c r="AK38" s="31"/>
+      <c r="AL38" s="31"/>
+      <c r="AM38" s="31"/>
+      <c r="AN38" s="31"/>
+      <c r="AO38" s="31"/>
+      <c r="AP38" s="31"/>
+      <c r="AQ38" s="31"/>
+      <c r="AR38" s="31"/>
+      <c r="AS38" s="31"/>
+      <c r="AT38" s="31"/>
+      <c r="AU38" s="31"/>
+      <c r="AV38" s="31"/>
+      <c r="AW38" s="31"/>
+      <c r="AX38" s="31"/>
+      <c r="AY38" s="31"/>
+      <c r="AZ38" s="31"/>
+      <c r="BA38" s="31"/>
+      <c r="BB38" s="31"/>
+      <c r="BC38" s="31"/>
+      <c r="BD38" s="31"/>
+      <c r="BE38" s="31"/>
+      <c r="BF38" s="31"/>
+      <c r="BG38" s="31"/>
+      <c r="BH38" s="31"/>
+      <c r="BI38" s="31"/>
+      <c r="BJ38" s="31"/>
+    </row>
+    <row r="39" spans="1:62">
+      <c r="B39" s="87" t="s">
+        <v>98</v>
+      </c>
+      <c r="C39" s="87" t="s">
+        <v>85</v>
+      </c>
+      <c r="D39" s="87">
+        <v>0</v>
+      </c>
+      <c r="E39" s="46">
+        <v>201951</v>
+      </c>
+      <c r="F39" s="46">
+        <v>201952</v>
+      </c>
+      <c r="G39" s="46">
+        <v>202001</v>
+      </c>
+      <c r="H39" s="46">
+        <v>202002</v>
+      </c>
+      <c r="I39" s="46">
+        <v>202051</v>
+      </c>
+      <c r="J39" s="46">
+        <v>202052</v>
+      </c>
+      <c r="K39" s="46">
+        <v>202053</v>
+      </c>
+      <c r="L39" s="46">
+        <v>202101</v>
+      </c>
+      <c r="M39" s="46">
+        <v>202102</v>
+      </c>
+    </row>
+    <row r="41" spans="1:62">
+      <c r="A41" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="P41" s="2"/>
+    </row>
+    <row r="42" spans="1:62">
+      <c r="B42" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="C42" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="E42" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="F42" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="G42" s="43" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:62">
+      <c r="B43" s="87">
+        <v>1</v>
+      </c>
+      <c r="C43" s="64" t="s">
+        <v>290</v>
+      </c>
+      <c r="D43" s="87">
+        <v>0</v>
+      </c>
+      <c r="E43" s="87">
+        <v>0</v>
+      </c>
+      <c r="F43" s="64" t="s">
+        <v>290</v>
+      </c>
+      <c r="G43" s="64">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:62">
+      <c r="B44" s="87">
+        <v>2</v>
+      </c>
+      <c r="C44" s="64" t="s">
+        <v>306</v>
+      </c>
+      <c r="D44" s="64">
+        <v>0</v>
+      </c>
+      <c r="E44" s="64">
+        <v>0</v>
+      </c>
+      <c r="F44" s="64" t="s">
+        <v>306</v>
+      </c>
+      <c r="G44" s="64">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:62">
+      <c r="B45" s="87"/>
+      <c r="C45" s="87"/>
+      <c r="D45" s="87"/>
+      <c r="E45" s="87"/>
+      <c r="F45" s="87"/>
+      <c r="G45" s="87"/>
+    </row>
+    <row r="46" spans="1:62">
+      <c r="B46" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="C46" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="D46" s="87" t="s">
+        <v>200</v>
+      </c>
+      <c r="E46" s="87" t="s">
+        <v>106</v>
+      </c>
+      <c r="F46" s="87" t="s">
+        <v>107</v>
+      </c>
+      <c r="G46" s="87" t="s">
+        <v>108</v>
+      </c>
+      <c r="H46" s="87" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="47" spans="1:62">
+      <c r="B47" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="C47" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="D47" s="46">
+        <v>202051</v>
+      </c>
+      <c r="E47" s="46">
+        <v>202052</v>
+      </c>
+      <c r="F47" s="46">
+        <v>202053</v>
+      </c>
+      <c r="G47" s="46">
+        <v>202101</v>
+      </c>
+      <c r="H47" s="46">
+        <v>202102</v>
+      </c>
+    </row>
+    <row r="48" spans="1:62">
+      <c r="B48" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="C48" s="96" t="s">
+        <v>85</v>
+      </c>
+      <c r="D48" s="97">
+        <v>201951</v>
+      </c>
+      <c r="E48" s="97">
+        <v>201952</v>
+      </c>
+      <c r="F48" s="97"/>
+      <c r="G48" s="97">
+        <v>202001</v>
+      </c>
+      <c r="H48" s="97">
+        <v>202002</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8">
+      <c r="B49" s="95" t="s">
+        <v>98</v>
+      </c>
+      <c r="C49" s="98" t="s">
+        <v>304</v>
+      </c>
+      <c r="D49" s="46"/>
+      <c r="E49" s="46">
+        <f>E47-D47</f>
+        <v>1</v>
+      </c>
+      <c r="F49" s="46">
+        <f t="shared" ref="F49:H49" si="0">F47-E47</f>
+        <v>1</v>
+      </c>
+      <c r="G49" s="46">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="H49" s="46">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8">
+      <c r="B50" s="95" t="s">
+        <v>98</v>
+      </c>
+      <c r="C50" s="35" t="s">
+        <v>305</v>
+      </c>
+      <c r="D50" s="101">
+        <f>D48-E48</f>
+        <v>-1</v>
+      </c>
+      <c r="E50" s="101">
+        <f>E48-G48</f>
+        <v>-49</v>
+      </c>
+      <c r="F50" s="101"/>
+      <c r="G50" s="101">
+        <f t="shared" ref="E50:H50" si="1">G48-H48</f>
+        <v>-1</v>
+      </c>
+      <c r="H50" s="101"/>
+    </row>
+    <row r="54" spans="2:8">
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BJ56"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I51" sqref="I51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="22.7109375" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" style="31" customWidth="1"/>
+    <col min="3" max="3" width="31.28515625" style="31" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" style="31" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" style="31" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" style="31" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" style="31" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="31" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" style="31" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="31" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" style="31" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" style="31" customWidth="1"/>
+    <col min="15" max="17" width="10.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="9.140625" style="31" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="10.28515625" style="31" customWidth="1"/>
+    <col min="22" max="22" width="10.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.140625" style="31"/>
+    <col min="24" max="26" width="10.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.140625" style="31"/>
+    <col min="28" max="30" width="10.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="9.140625" style="31"/>
+    <col min="33" max="35" width="10.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="9.140625" style="31"/>
+    <col min="37" max="39" width="10.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="9.140625" style="31"/>
+    <col min="41" max="45" width="10.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="46" max="48" width="11.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="10.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="50" max="52" width="11.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="10.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="54" max="57" width="11.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="9.140625" style="31"/>
+    <col min="59" max="61" width="10.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="62" max="16384" width="9.140625" style="31"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="34" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" outlineLevel="1">
+      <c r="B2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" outlineLevel="1">
+      <c r="B3" s="35"/>
+      <c r="C3" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+    </row>
+    <row r="4" spans="1:5" outlineLevel="1">
+      <c r="B4" s="35"/>
+      <c r="C4" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="35"/>
+    </row>
+    <row r="5" spans="1:5" outlineLevel="1">
+      <c r="B5" s="35"/>
+      <c r="C5" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="36">
+        <v>5</v>
+      </c>
+      <c r="E5" s="35"/>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" outlineLevel="1">
+      <c r="B6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" outlineLevel="1">
+      <c r="B7" s="35"/>
+      <c r="C7" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="35"/>
+    </row>
+    <row r="8" spans="1:5" outlineLevel="1">
+      <c r="B8" s="35"/>
+      <c r="C8" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="64" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" outlineLevel="1">
+      <c r="B9" s="35"/>
+      <c r="C9" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+    </row>
+    <row r="10" spans="1:5" outlineLevel="1">
+      <c r="B10" s="35"/>
+      <c r="C10" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+    </row>
+    <row r="11" spans="1:5" outlineLevel="1">
+      <c r="B11" s="35"/>
+      <c r="C11" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+    </row>
+    <row r="12" spans="1:5" outlineLevel="1">
+      <c r="B12" s="35"/>
+      <c r="C12" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+    </row>
+    <row r="13" spans="1:5" outlineLevel="1">
+      <c r="B13" s="35"/>
+      <c r="C13" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+    </row>
+    <row r="14" spans="1:5" outlineLevel="1">
+      <c r="B14" s="35"/>
+      <c r="C14" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" outlineLevel="1">
+      <c r="B15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" outlineLevel="1">
+      <c r="B16" s="35"/>
+      <c r="C16" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="35"/>
+    </row>
+    <row r="17" spans="1:21">
+      <c r="A17" s="34" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="30" outlineLevel="1">
+      <c r="B18" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="41" t="s">
+        <v>308</v>
+      </c>
+      <c r="E18" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="G18" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="H18" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="I18" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="J18" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="K18" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="L18" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="M18" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="N18" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="O18" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="P18" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q18" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="R18" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="S18" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="T18" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="U18" s="35" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="30" outlineLevel="1">
+      <c r="B19" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" s="99"/>
+      <c r="E19" s="100"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="87">
+        <v>0</v>
+      </c>
+      <c r="L19" s="87">
+        <v>0</v>
+      </c>
+      <c r="M19" s="35"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="35"/>
+      <c r="P19" s="35"/>
+      <c r="Q19" s="35"/>
+      <c r="R19" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="S19" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="T19" s="35"/>
+      <c r="U19" s="35" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" ht="30" outlineLevel="1">
+      <c r="B20" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" s="100"/>
+      <c r="E20" s="100"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="87">
+        <v>0</v>
+      </c>
+      <c r="L20" s="87">
+        <v>0</v>
+      </c>
+      <c r="M20" s="35"/>
+      <c r="N20" s="35"/>
+      <c r="O20" s="35"/>
+      <c r="P20" s="35"/>
+      <c r="Q20" s="35"/>
+      <c r="R20" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="S20" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="T20" s="35"/>
+      <c r="U20" s="35" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" ht="30" outlineLevel="1">
+      <c r="B21" s="35" t="s">
+        <v>266</v>
+      </c>
+      <c r="C21" s="98" t="s">
+        <v>304</v>
+      </c>
+      <c r="D21" s="36">
+        <v>1</v>
+      </c>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="98" t="s">
+        <v>304</v>
+      </c>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="87">
+        <v>0</v>
+      </c>
+      <c r="L21" s="87">
+        <v>0</v>
+      </c>
+      <c r="M21" s="35"/>
+      <c r="N21" s="35"/>
+      <c r="O21" s="35"/>
+      <c r="P21" s="35"/>
+      <c r="Q21" s="35"/>
+      <c r="R21" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="S21" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="T21" s="35"/>
+      <c r="U21" s="35" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" ht="30" outlineLevel="1">
+      <c r="B22" s="35" t="s">
+        <v>307</v>
+      </c>
+      <c r="C22" s="35" t="s">
+        <v>305</v>
+      </c>
+      <c r="D22" s="36">
+        <v>2</v>
+      </c>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35" t="s">
+        <v>305</v>
+      </c>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="87">
+        <v>0</v>
+      </c>
+      <c r="L22" s="87">
+        <v>0</v>
+      </c>
+      <c r="M22" s="35"/>
+      <c r="N22" s="35"/>
+      <c r="O22" s="35"/>
+      <c r="P22" s="35"/>
+      <c r="Q22" s="35"/>
+      <c r="R22" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="S22" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="T22" s="35"/>
+      <c r="U22" s="35" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
+      <c r="A23" s="34" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" ht="15.75" outlineLevel="1">
+      <c r="B24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" outlineLevel="1">
+      <c r="B25" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+    </row>
+    <row r="26" spans="1:21" outlineLevel="1">
+      <c r="B26" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+    </row>
+    <row r="27" spans="1:21" outlineLevel="1">
+      <c r="B27" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+    </row>
+    <row r="28" spans="1:21" outlineLevel="1"/>
+    <row r="29" spans="1:21" ht="22.5" outlineLevel="1">
+      <c r="B29" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="J29" s="10"/>
+    </row>
+    <row r="30" spans="1:21" outlineLevel="1">
+      <c r="B30" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="D30" s="35">
+        <v>1</v>
+      </c>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="J30" s="35"/>
+    </row>
+    <row r="31" spans="1:21" outlineLevel="1">
+      <c r="B31" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="C31" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="D31" s="35">
+        <v>1</v>
+      </c>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="J31" s="35"/>
+    </row>
+    <row r="32" spans="1:21" outlineLevel="1">
+      <c r="B32" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="C32" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="D32" s="35">
+        <v>1</v>
+      </c>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="J32" s="35"/>
+    </row>
+    <row r="33" spans="1:62" outlineLevel="1">
+      <c r="B33" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="C33" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="D33" s="35">
+        <v>1</v>
+      </c>
+      <c r="E33" s="35"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="J33" s="35"/>
+    </row>
+    <row r="34" spans="1:62" outlineLevel="1">
+      <c r="B34" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="C34" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="D34" s="35">
+        <v>1</v>
+      </c>
+      <c r="E34" s="35"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="J34" s="35"/>
+    </row>
+    <row r="35" spans="1:62" outlineLevel="1">
+      <c r="B35" s="49"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="49"/>
+      <c r="I35" s="49"/>
+      <c r="J35" s="49"/>
+    </row>
+    <row r="36" spans="1:62">
+      <c r="A36" s="34" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="37" spans="1:62" s="2" customFormat="1">
+      <c r="B37" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="C37" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="D37" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="E37" s="45">
+        <v>43817</v>
+      </c>
+      <c r="F37" s="45">
+        <v>43824</v>
+      </c>
+      <c r="G37" s="45">
+        <v>43831</v>
+      </c>
+      <c r="H37" s="45">
+        <v>43838</v>
+      </c>
+      <c r="I37" s="45">
+        <v>44181</v>
+      </c>
+      <c r="J37" s="45">
+        <v>44188</v>
+      </c>
+      <c r="K37" s="45">
+        <v>44195</v>
+      </c>
+      <c r="L37" s="45">
+        <v>44202</v>
+      </c>
+      <c r="M37" s="45">
+        <v>44209</v>
+      </c>
+      <c r="N37" s="31"/>
+      <c r="O37" s="31"/>
+      <c r="P37" s="31"/>
+      <c r="Q37" s="31"/>
+      <c r="R37" s="31"/>
+      <c r="S37" s="31"/>
+      <c r="T37" s="31"/>
+      <c r="U37" s="31"/>
+      <c r="V37" s="31"/>
+      <c r="W37" s="31"/>
+      <c r="X37" s="31"/>
+      <c r="Y37" s="31"/>
+      <c r="Z37" s="31"/>
+      <c r="AA37" s="31"/>
+      <c r="AB37" s="31"/>
+      <c r="AC37" s="31"/>
+      <c r="AD37" s="31"/>
+      <c r="AE37" s="31"/>
+      <c r="AF37" s="31"/>
+      <c r="AG37" s="31"/>
+      <c r="AH37" s="31"/>
+      <c r="AI37" s="31"/>
+      <c r="AJ37" s="31"/>
+      <c r="AK37" s="31"/>
+      <c r="AL37" s="31"/>
+      <c r="AM37" s="31"/>
+      <c r="AN37" s="31"/>
+      <c r="AO37" s="31"/>
+      <c r="AP37" s="31"/>
+      <c r="AQ37" s="31"/>
+      <c r="AR37" s="31"/>
+      <c r="AS37" s="31"/>
+      <c r="AT37" s="31"/>
+      <c r="AU37" s="31"/>
+      <c r="AV37" s="31"/>
+      <c r="AW37" s="31"/>
+      <c r="AX37" s="31"/>
+      <c r="AY37" s="31"/>
+      <c r="AZ37" s="31"/>
+      <c r="BA37" s="31"/>
+      <c r="BB37" s="31"/>
+      <c r="BC37" s="31"/>
+      <c r="BD37" s="31"/>
+      <c r="BE37" s="31"/>
+      <c r="BF37" s="31"/>
+      <c r="BG37" s="31"/>
+      <c r="BH37" s="31"/>
+      <c r="BI37" s="31"/>
+      <c r="BJ37" s="31"/>
+    </row>
+    <row r="38" spans="1:62" s="2" customFormat="1">
+      <c r="B38" s="87" t="s">
+        <v>98</v>
+      </c>
+      <c r="C38" s="87" t="s">
+        <v>84</v>
+      </c>
+      <c r="D38" s="87">
+        <v>0</v>
+      </c>
+      <c r="E38" s="46">
+        <v>201951</v>
+      </c>
+      <c r="F38" s="46">
+        <v>201952</v>
+      </c>
+      <c r="G38" s="46">
+        <v>202001</v>
+      </c>
+      <c r="H38" s="46">
+        <v>202002</v>
+      </c>
+      <c r="I38" s="46">
+        <v>202051</v>
+      </c>
+      <c r="J38" s="46">
+        <v>202052</v>
+      </c>
+      <c r="K38" s="46">
+        <v>202053</v>
+      </c>
+      <c r="L38" s="46">
+        <v>202101</v>
+      </c>
+      <c r="M38" s="46">
+        <v>202102</v>
+      </c>
+      <c r="N38" s="31"/>
+      <c r="O38" s="31"/>
+      <c r="P38" s="31"/>
+      <c r="Q38" s="31"/>
+      <c r="R38" s="31"/>
+      <c r="S38" s="31"/>
+      <c r="T38" s="31"/>
+      <c r="U38" s="31"/>
+      <c r="V38" s="31"/>
+      <c r="W38" s="31"/>
+      <c r="X38" s="31"/>
+      <c r="Y38" s="31"/>
+      <c r="Z38" s="31"/>
+      <c r="AA38" s="31"/>
+      <c r="AB38" s="31"/>
+      <c r="AC38" s="31"/>
+      <c r="AD38" s="31"/>
+      <c r="AE38" s="31"/>
+      <c r="AF38" s="31"/>
+      <c r="AG38" s="31"/>
+      <c r="AH38" s="31"/>
+      <c r="AI38" s="31"/>
+      <c r="AJ38" s="31"/>
+      <c r="AK38" s="31"/>
+      <c r="AL38" s="31"/>
+      <c r="AM38" s="31"/>
+      <c r="AN38" s="31"/>
+      <c r="AO38" s="31"/>
+      <c r="AP38" s="31"/>
+      <c r="AQ38" s="31"/>
+      <c r="AR38" s="31"/>
+      <c r="AS38" s="31"/>
+      <c r="AT38" s="31"/>
+      <c r="AU38" s="31"/>
+      <c r="AV38" s="31"/>
+      <c r="AW38" s="31"/>
+      <c r="AX38" s="31"/>
+      <c r="AY38" s="31"/>
+      <c r="AZ38" s="31"/>
+      <c r="BA38" s="31"/>
+      <c r="BB38" s="31"/>
+      <c r="BC38" s="31"/>
+      <c r="BD38" s="31"/>
+      <c r="BE38" s="31"/>
+      <c r="BF38" s="31"/>
+      <c r="BG38" s="31"/>
+      <c r="BH38" s="31"/>
+      <c r="BI38" s="31"/>
+      <c r="BJ38" s="31"/>
+    </row>
+    <row r="39" spans="1:62">
+      <c r="B39" s="87" t="s">
+        <v>98</v>
+      </c>
+      <c r="C39" s="87" t="s">
+        <v>85</v>
+      </c>
+      <c r="D39" s="87">
+        <v>0</v>
+      </c>
+      <c r="E39" s="46">
+        <v>201951</v>
+      </c>
+      <c r="F39" s="46">
+        <v>201952</v>
+      </c>
+      <c r="G39" s="46">
+        <v>202001</v>
+      </c>
+      <c r="H39" s="46">
+        <v>202002</v>
+      </c>
+      <c r="I39" s="46">
+        <v>202051</v>
+      </c>
+      <c r="J39" s="46">
+        <v>202052</v>
+      </c>
+      <c r="K39" s="46">
+        <v>202053</v>
+      </c>
+      <c r="L39" s="46">
+        <v>202101</v>
+      </c>
+      <c r="M39" s="46">
+        <v>202102</v>
+      </c>
+    </row>
+    <row r="41" spans="1:62">
+      <c r="A41" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="P41" s="2"/>
+    </row>
+    <row r="42" spans="1:62">
+      <c r="B42" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="C42" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="E42" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="F42" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="G42" s="43" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:62">
+      <c r="B43" s="87">
+        <v>1</v>
+      </c>
+      <c r="C43" s="64" t="s">
+        <v>290</v>
+      </c>
+      <c r="D43" s="87">
+        <v>0</v>
+      </c>
+      <c r="E43" s="87">
+        <v>0</v>
+      </c>
+      <c r="F43" s="64" t="s">
+        <v>290</v>
+      </c>
+      <c r="G43" s="64">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:62">
+      <c r="B44" s="87">
+        <v>2</v>
+      </c>
+      <c r="C44" s="64" t="s">
+        <v>306</v>
+      </c>
+      <c r="D44" s="64">
+        <v>0</v>
+      </c>
+      <c r="E44" s="64">
+        <v>0</v>
+      </c>
+      <c r="F44" s="64" t="s">
+        <v>306</v>
+      </c>
+      <c r="G44" s="64">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:62">
+      <c r="B45" s="87"/>
+      <c r="C45" s="87"/>
+      <c r="D45" s="87"/>
+      <c r="E45" s="87"/>
+      <c r="F45" s="87"/>
+      <c r="G45" s="87"/>
+    </row>
+    <row r="46" spans="1:62">
+      <c r="B46" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="C46" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="D46" s="87" t="s">
+        <v>200</v>
+      </c>
+      <c r="E46" s="87" t="s">
+        <v>106</v>
+      </c>
+      <c r="F46" s="87" t="s">
+        <v>107</v>
+      </c>
+      <c r="G46" s="87" t="s">
+        <v>108</v>
+      </c>
+      <c r="H46" s="87" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="47" spans="1:62">
+      <c r="B47" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="C47" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="D47" s="46">
+        <v>202051</v>
+      </c>
+      <c r="E47" s="46">
+        <v>202052</v>
+      </c>
+      <c r="F47" s="46">
+        <v>202053</v>
+      </c>
+      <c r="G47" s="46">
+        <v>202101</v>
+      </c>
+      <c r="H47" s="46">
+        <v>202102</v>
+      </c>
+    </row>
+    <row r="48" spans="1:62">
+      <c r="B48" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="C48" s="96" t="s">
+        <v>85</v>
+      </c>
+      <c r="D48" s="97">
+        <v>201951</v>
+      </c>
+      <c r="E48" s="97">
+        <v>201952</v>
+      </c>
+      <c r="F48" s="97"/>
+      <c r="G48" s="97">
+        <v>202001</v>
+      </c>
+      <c r="H48" s="97">
+        <v>202002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="B49" s="95" t="s">
+        <v>98</v>
+      </c>
+      <c r="C49" s="98" t="s">
+        <v>304</v>
+      </c>
+      <c r="D49" s="46"/>
+      <c r="E49" s="35">
+        <v>1</v>
+      </c>
+      <c r="F49" s="35">
+        <v>1</v>
+      </c>
+      <c r="G49" s="35">
+        <v>48</v>
+      </c>
+      <c r="H49" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="B50" s="95" t="s">
+        <v>98</v>
+      </c>
+      <c r="C50" s="35" t="s">
+        <v>305</v>
+      </c>
+      <c r="D50" s="101">
+        <f>D48-E48</f>
+        <v>-1</v>
+      </c>
+      <c r="E50" s="101">
+        <f>E48-G48</f>
+        <v>-49</v>
+      </c>
+      <c r="F50" s="101"/>
+      <c r="G50" s="101">
+        <f t="shared" ref="G50:J50" si="0">G48-H48</f>
+        <v>-1</v>
+      </c>
+      <c r="H50" s="101"/>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="34" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="B53" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="C53" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="D53" s="87" t="s">
+        <v>200</v>
+      </c>
+      <c r="E53" s="87" t="s">
+        <v>106</v>
+      </c>
+      <c r="F53" s="87" t="s">
+        <v>107</v>
+      </c>
+      <c r="G53" s="87" t="s">
+        <v>108</v>
+      </c>
+      <c r="H53" s="87" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="B54" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="C54" s="96" t="s">
+        <v>85</v>
+      </c>
+      <c r="D54" s="97">
+        <v>201951</v>
+      </c>
+      <c r="E54" s="97">
+        <v>201952</v>
+      </c>
+      <c r="F54" s="97"/>
+      <c r="G54" s="97">
+        <v>202001</v>
+      </c>
+      <c r="H54" s="97">
+        <v>202002</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="B55" s="95" t="s">
+        <v>98</v>
+      </c>
+      <c r="C55" s="98" t="s">
+        <v>304</v>
+      </c>
+      <c r="D55" s="46"/>
+      <c r="E55" s="35">
+        <v>1</v>
+      </c>
+      <c r="F55" s="35">
+        <v>1</v>
+      </c>
+      <c r="G55" s="35">
+        <v>48</v>
+      </c>
+      <c r="H55" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="B56" s="95" t="s">
+        <v>98</v>
+      </c>
+      <c r="C56" s="35" t="s">
+        <v>305</v>
+      </c>
+      <c r="D56" s="101">
+        <f>D54-E54</f>
+        <v>-1</v>
+      </c>
+      <c r="E56" s="101">
+        <f>E54-G54</f>
+        <v>-49</v>
+      </c>
+      <c r="F56" s="101"/>
+      <c r="G56" s="101">
+        <f t="shared" ref="G56:H56" si="1">G54-H54</f>
+        <v>-1</v>
+      </c>
+      <c r="H56" s="101"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet22"/>
   <dimension ref="A1:BR45"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M49" sqref="M49"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -21897,13 +24455,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet23"/>
-  <dimension ref="A1:R164"/>
+  <dimension ref="A1:R177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A123" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K143" sqref="K143"/>
+    <sheetView topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D173" sqref="D173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -25477,6 +28035,11 @@
       <c r="D164" s="83"/>
       <c r="E164" s="83"/>
       <c r="F164" s="84"/>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177" t="s">
+        <v>303</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/53Week/TestCase_53rdWeek_V1.xlsx
+++ b/53Week/TestCase_53rdWeek_V1.xlsx
@@ -37,8 +37,9 @@
     <sheet name="Test_53week_21" sheetId="30" r:id="rId23"/>
     <sheet name="Test_53week_22" sheetId="31" r:id="rId24"/>
     <sheet name="Test_53week_23" sheetId="32" r:id="rId25"/>
-    <sheet name="Test Data" sheetId="7" r:id="rId26"/>
-    <sheet name="Analysis" sheetId="18" r:id="rId27"/>
+    <sheet name="Test_53week_24" sheetId="33" r:id="rId26"/>
+    <sheet name="Test Data" sheetId="7" r:id="rId27"/>
+    <sheet name="Analysis" sheetId="18" r:id="rId28"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4281" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4457" uniqueCount="316">
   <si>
     <t>ID</t>
   </si>
@@ -1085,6 +1086,16 @@
   <si>
     <t>Test_53week_23</t>
   </si>
+  <si>
+    <t xml:space="preserve">Scenario24:
+When the 1st time series which includes real 53rd week is hidden and the calculation time series which is relative to 1st time series is hidden too,
+there are only the time series which include false 53rd week,
+the result is that the 53rd week column won't displayed in the grid.
+</t>
+  </si>
+  <si>
+    <t>Test_53week_24</t>
+  </si>
 </sst>
 </file>
 
@@ -1748,6 +1759,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="8" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1768,27 +1800,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="8" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2148,10 +2159,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet11"/>
-  <dimension ref="A1:I254"/>
+  <dimension ref="A1:I265"/>
   <sheetViews>
-    <sheetView topLeftCell="A232" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G254" sqref="G254"/>
+    <sheetView topLeftCell="A246" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M263" sqref="M263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2197,9 +2208,9 @@
       </c>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="88"/>
-      <c r="B2" s="88"/>
-      <c r="C2" s="93" t="s">
+      <c r="A2" s="95"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="100" t="s">
         <v>196</v>
       </c>
       <c r="D2" s="87" t="s">
@@ -2212,9 +2223,9 @@
       <c r="I2" s="87"/>
     </row>
     <row r="3" spans="1:9" s="2" customFormat="1">
-      <c r="A3" s="89"/>
-      <c r="B3" s="89"/>
-      <c r="C3" s="94"/>
+      <c r="A3" s="96"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="101"/>
       <c r="D3" s="87" t="s">
         <v>9</v>
       </c>
@@ -2227,9 +2238,9 @@
       <c r="I3" s="87"/>
     </row>
     <row r="4" spans="1:9" s="2" customFormat="1">
-      <c r="A4" s="89"/>
-      <c r="B4" s="89"/>
-      <c r="C4" s="94"/>
+      <c r="A4" s="96"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="101"/>
       <c r="D4" s="87" t="s">
         <v>82</v>
       </c>
@@ -2242,9 +2253,9 @@
       <c r="I4" s="87"/>
     </row>
     <row r="5" spans="1:9" s="2" customFormat="1">
-      <c r="A5" s="89"/>
-      <c r="B5" s="89"/>
-      <c r="C5" s="94"/>
+      <c r="A5" s="96"/>
+      <c r="B5" s="96"/>
+      <c r="C5" s="101"/>
       <c r="D5" s="87" t="s">
         <v>11</v>
       </c>
@@ -2257,9 +2268,9 @@
       <c r="I5" s="87"/>
     </row>
     <row r="6" spans="1:9" s="2" customFormat="1">
-      <c r="A6" s="89"/>
-      <c r="B6" s="89"/>
-      <c r="C6" s="94"/>
+      <c r="A6" s="96"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="101"/>
       <c r="D6" s="87" t="s">
         <v>104</v>
       </c>
@@ -2276,9 +2287,9 @@
       <c r="I6" s="87"/>
     </row>
     <row r="7" spans="1:9" s="2" customFormat="1">
-      <c r="A7" s="89"/>
-      <c r="B7" s="89"/>
-      <c r="C7" s="94"/>
+      <c r="A7" s="96"/>
+      <c r="B7" s="96"/>
+      <c r="C7" s="101"/>
       <c r="D7" s="87" t="s">
         <v>12</v>
       </c>
@@ -2291,9 +2302,9 @@
       <c r="I7" s="87"/>
     </row>
     <row r="8" spans="1:9" s="2" customFormat="1">
-      <c r="A8" s="89"/>
-      <c r="B8" s="89"/>
-      <c r="C8" s="94"/>
+      <c r="A8" s="96"/>
+      <c r="B8" s="96"/>
+      <c r="C8" s="101"/>
       <c r="D8" s="87" t="s">
         <v>13</v>
       </c>
@@ -2306,9 +2317,9 @@
       <c r="I8" s="87"/>
     </row>
     <row r="9" spans="1:9" s="2" customFormat="1">
-      <c r="A9" s="89"/>
-      <c r="B9" s="89"/>
-      <c r="C9" s="94"/>
+      <c r="A9" s="96"/>
+      <c r="B9" s="96"/>
+      <c r="C9" s="101"/>
       <c r="D9" s="87" t="s">
         <v>113</v>
       </c>
@@ -2323,9 +2334,9 @@
       <c r="I9" s="87"/>
     </row>
     <row r="10" spans="1:9" s="2" customFormat="1">
-      <c r="A10" s="89"/>
-      <c r="B10" s="89"/>
-      <c r="C10" s="94"/>
+      <c r="A10" s="96"/>
+      <c r="B10" s="96"/>
+      <c r="C10" s="101"/>
       <c r="D10" s="5" t="s">
         <v>112</v>
       </c>
@@ -2340,9 +2351,9 @@
       <c r="I10" s="87"/>
     </row>
     <row r="11" spans="1:9" s="2" customFormat="1">
-      <c r="A11" s="89"/>
-      <c r="B11" s="89"/>
-      <c r="C11" s="94"/>
+      <c r="A11" s="96"/>
+      <c r="B11" s="96"/>
+      <c r="C11" s="101"/>
       <c r="D11" s="5" t="s">
         <v>114</v>
       </c>
@@ -2357,9 +2368,9 @@
       <c r="I11" s="87"/>
     </row>
     <row r="12" spans="1:9" s="2" customFormat="1">
-      <c r="A12" s="90"/>
-      <c r="B12" s="90"/>
-      <c r="C12" s="94"/>
+      <c r="A12" s="97"/>
+      <c r="B12" s="97"/>
+      <c r="C12" s="101"/>
       <c r="D12" s="87"/>
       <c r="E12" s="87"/>
       <c r="F12" s="60"/>
@@ -2368,9 +2379,9 @@
       <c r="I12" s="87"/>
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1">
-      <c r="A13" s="88"/>
-      <c r="B13" s="88"/>
-      <c r="C13" s="91" t="s">
+      <c r="A13" s="95"/>
+      <c r="B13" s="95"/>
+      <c r="C13" s="98" t="s">
         <v>197</v>
       </c>
       <c r="D13" s="87" t="s">
@@ -2383,9 +2394,9 @@
       <c r="I13" s="87"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="89"/>
-      <c r="B14" s="89"/>
-      <c r="C14" s="92"/>
+      <c r="A14" s="96"/>
+      <c r="B14" s="96"/>
+      <c r="C14" s="99"/>
       <c r="D14" s="87" t="s">
         <v>9</v>
       </c>
@@ -2398,9 +2409,9 @@
       <c r="I14" s="87"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="89"/>
-      <c r="B15" s="89"/>
-      <c r="C15" s="92"/>
+      <c r="A15" s="96"/>
+      <c r="B15" s="96"/>
+      <c r="C15" s="99"/>
       <c r="D15" s="87" t="s">
         <v>82</v>
       </c>
@@ -2413,9 +2424,9 @@
       <c r="I15" s="87"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="89"/>
-      <c r="B16" s="89"/>
-      <c r="C16" s="92"/>
+      <c r="A16" s="96"/>
+      <c r="B16" s="96"/>
+      <c r="C16" s="99"/>
       <c r="D16" s="87" t="s">
         <v>11</v>
       </c>
@@ -2428,9 +2439,9 @@
       <c r="I16" s="87"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="89"/>
-      <c r="B17" s="89"/>
-      <c r="C17" s="92"/>
+      <c r="A17" s="96"/>
+      <c r="B17" s="96"/>
+      <c r="C17" s="99"/>
       <c r="D17" s="87" t="s">
         <v>104</v>
       </c>
@@ -2447,9 +2458,9 @@
       <c r="I17" s="87"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="89"/>
-      <c r="B18" s="89"/>
-      <c r="C18" s="92"/>
+      <c r="A18" s="96"/>
+      <c r="B18" s="96"/>
+      <c r="C18" s="99"/>
       <c r="D18" s="87" t="s">
         <v>12</v>
       </c>
@@ -2462,9 +2473,9 @@
       <c r="I18" s="87"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="89"/>
-      <c r="B19" s="89"/>
-      <c r="C19" s="92"/>
+      <c r="A19" s="96"/>
+      <c r="B19" s="96"/>
+      <c r="C19" s="99"/>
       <c r="D19" s="87" t="s">
         <v>13</v>
       </c>
@@ -2477,9 +2488,9 @@
       <c r="I19" s="87"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="89"/>
-      <c r="B20" s="89"/>
-      <c r="C20" s="92"/>
+      <c r="A20" s="96"/>
+      <c r="B20" s="96"/>
+      <c r="C20" s="99"/>
       <c r="D20" s="87" t="s">
         <v>113</v>
       </c>
@@ -2494,9 +2505,9 @@
       <c r="I20" s="87"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="89"/>
-      <c r="B21" s="89"/>
-      <c r="C21" s="92"/>
+      <c r="A21" s="96"/>
+      <c r="B21" s="96"/>
+      <c r="C21" s="99"/>
       <c r="D21" s="5" t="s">
         <v>112</v>
       </c>
@@ -2511,9 +2522,9 @@
       <c r="I21" s="87"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="89"/>
-      <c r="B22" s="89"/>
-      <c r="C22" s="92"/>
+      <c r="A22" s="96"/>
+      <c r="B22" s="96"/>
+      <c r="C22" s="99"/>
       <c r="D22" s="5" t="s">
         <v>114</v>
       </c>
@@ -2528,9 +2539,9 @@
       <c r="I22" s="87"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="90"/>
-      <c r="B23" s="90"/>
-      <c r="C23" s="92"/>
+      <c r="A23" s="97"/>
+      <c r="B23" s="97"/>
+      <c r="C23" s="99"/>
       <c r="D23" s="87"/>
       <c r="E23" s="87"/>
       <c r="F23" s="60"/>
@@ -2539,9 +2550,9 @@
       <c r="I23" s="87"/>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1">
-      <c r="A24" s="88"/>
-      <c r="B24" s="88"/>
-      <c r="C24" s="91" t="s">
+      <c r="A24" s="95"/>
+      <c r="B24" s="95"/>
+      <c r="C24" s="98" t="s">
         <v>198</v>
       </c>
       <c r="D24" s="87" t="s">
@@ -2554,9 +2565,9 @@
       <c r="I24" s="87"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="89"/>
-      <c r="B25" s="89"/>
-      <c r="C25" s="92"/>
+      <c r="A25" s="96"/>
+      <c r="B25" s="96"/>
+      <c r="C25" s="99"/>
       <c r="D25" s="87" t="s">
         <v>9</v>
       </c>
@@ -2569,9 +2580,9 @@
       <c r="I25" s="87"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="89"/>
-      <c r="B26" s="89"/>
-      <c r="C26" s="92"/>
+      <c r="A26" s="96"/>
+      <c r="B26" s="96"/>
+      <c r="C26" s="99"/>
       <c r="D26" s="87" t="s">
         <v>82</v>
       </c>
@@ -2584,9 +2595,9 @@
       <c r="I26" s="87"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="89"/>
-      <c r="B27" s="89"/>
-      <c r="C27" s="92"/>
+      <c r="A27" s="96"/>
+      <c r="B27" s="96"/>
+      <c r="C27" s="99"/>
       <c r="D27" s="87" t="s">
         <v>11</v>
       </c>
@@ -2599,9 +2610,9 @@
       <c r="I27" s="87"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="89"/>
-      <c r="B28" s="89"/>
-      <c r="C28" s="92"/>
+      <c r="A28" s="96"/>
+      <c r="B28" s="96"/>
+      <c r="C28" s="99"/>
       <c r="D28" s="87" t="s">
         <v>104</v>
       </c>
@@ -2618,9 +2629,9 @@
       <c r="I28" s="87"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="89"/>
-      <c r="B29" s="89"/>
-      <c r="C29" s="92"/>
+      <c r="A29" s="96"/>
+      <c r="B29" s="96"/>
+      <c r="C29" s="99"/>
       <c r="D29" s="87" t="s">
         <v>12</v>
       </c>
@@ -2633,9 +2644,9 @@
       <c r="I29" s="87"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="89"/>
-      <c r="B30" s="89"/>
-      <c r="C30" s="92"/>
+      <c r="A30" s="96"/>
+      <c r="B30" s="96"/>
+      <c r="C30" s="99"/>
       <c r="D30" s="87" t="s">
         <v>13</v>
       </c>
@@ -2648,9 +2659,9 @@
       <c r="I30" s="87"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="89"/>
-      <c r="B31" s="89"/>
-      <c r="C31" s="92"/>
+      <c r="A31" s="96"/>
+      <c r="B31" s="96"/>
+      <c r="C31" s="99"/>
       <c r="D31" s="87" t="s">
         <v>113</v>
       </c>
@@ -2665,9 +2676,9 @@
       <c r="I31" s="87"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="89"/>
-      <c r="B32" s="89"/>
-      <c r="C32" s="92"/>
+      <c r="A32" s="96"/>
+      <c r="B32" s="96"/>
+      <c r="C32" s="99"/>
       <c r="D32" s="5" t="s">
         <v>112</v>
       </c>
@@ -2682,9 +2693,9 @@
       <c r="I32" s="87"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="89"/>
-      <c r="B33" s="89"/>
-      <c r="C33" s="92"/>
+      <c r="A33" s="96"/>
+      <c r="B33" s="96"/>
+      <c r="C33" s="99"/>
       <c r="D33" s="5" t="s">
         <v>114</v>
       </c>
@@ -2699,9 +2710,9 @@
       <c r="I33" s="87"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="90"/>
-      <c r="B34" s="90"/>
-      <c r="C34" s="92"/>
+      <c r="A34" s="97"/>
+      <c r="B34" s="97"/>
+      <c r="C34" s="99"/>
       <c r="D34" s="87"/>
       <c r="E34" s="87"/>
       <c r="F34" s="60"/>
@@ -2710,9 +2721,9 @@
       <c r="I34" s="87"/>
     </row>
     <row r="35" spans="1:9" ht="15" customHeight="1">
-      <c r="A35" s="88"/>
-      <c r="B35" s="88"/>
-      <c r="C35" s="91" t="s">
+      <c r="A35" s="95"/>
+      <c r="B35" s="95"/>
+      <c r="C35" s="98" t="s">
         <v>251</v>
       </c>
       <c r="D35" s="87" t="s">
@@ -2725,9 +2736,9 @@
       <c r="I35" s="87"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="89"/>
-      <c r="B36" s="89"/>
-      <c r="C36" s="92"/>
+      <c r="A36" s="96"/>
+      <c r="B36" s="96"/>
+      <c r="C36" s="99"/>
       <c r="D36" s="87" t="s">
         <v>9</v>
       </c>
@@ -2740,9 +2751,9 @@
       <c r="I36" s="87"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="89"/>
-      <c r="B37" s="89"/>
-      <c r="C37" s="92"/>
+      <c r="A37" s="96"/>
+      <c r="B37" s="96"/>
+      <c r="C37" s="99"/>
       <c r="D37" s="87" t="s">
         <v>82</v>
       </c>
@@ -2755,9 +2766,9 @@
       <c r="I37" s="87"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="89"/>
-      <c r="B38" s="89"/>
-      <c r="C38" s="92"/>
+      <c r="A38" s="96"/>
+      <c r="B38" s="96"/>
+      <c r="C38" s="99"/>
       <c r="D38" s="87" t="s">
         <v>11</v>
       </c>
@@ -2770,9 +2781,9 @@
       <c r="I38" s="87"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="89"/>
-      <c r="B39" s="89"/>
-      <c r="C39" s="92"/>
+      <c r="A39" s="96"/>
+      <c r="B39" s="96"/>
+      <c r="C39" s="99"/>
       <c r="D39" s="87" t="s">
         <v>104</v>
       </c>
@@ -2789,9 +2800,9 @@
       <c r="I39" s="87"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="89"/>
-      <c r="B40" s="89"/>
-      <c r="C40" s="92"/>
+      <c r="A40" s="96"/>
+      <c r="B40" s="96"/>
+      <c r="C40" s="99"/>
       <c r="D40" s="87" t="s">
         <v>12</v>
       </c>
@@ -2804,9 +2815,9 @@
       <c r="I40" s="87"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="89"/>
-      <c r="B41" s="89"/>
-      <c r="C41" s="92"/>
+      <c r="A41" s="96"/>
+      <c r="B41" s="96"/>
+      <c r="C41" s="99"/>
       <c r="D41" s="87" t="s">
         <v>13</v>
       </c>
@@ -2819,9 +2830,9 @@
       <c r="I41" s="87"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="89"/>
-      <c r="B42" s="89"/>
-      <c r="C42" s="92"/>
+      <c r="A42" s="96"/>
+      <c r="B42" s="96"/>
+      <c r="C42" s="99"/>
       <c r="D42" s="87" t="s">
         <v>113</v>
       </c>
@@ -2836,9 +2847,9 @@
       <c r="I42" s="87"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="89"/>
-      <c r="B43" s="89"/>
-      <c r="C43" s="92"/>
+      <c r="A43" s="96"/>
+      <c r="B43" s="96"/>
+      <c r="C43" s="99"/>
       <c r="D43" s="5" t="s">
         <v>112</v>
       </c>
@@ -2853,9 +2864,9 @@
       <c r="I43" s="87"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="89"/>
-      <c r="B44" s="89"/>
-      <c r="C44" s="92"/>
+      <c r="A44" s="96"/>
+      <c r="B44" s="96"/>
+      <c r="C44" s="99"/>
       <c r="D44" s="5" t="s">
         <v>114</v>
       </c>
@@ -2870,9 +2881,9 @@
       <c r="I44" s="87"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="90"/>
-      <c r="B45" s="90"/>
-      <c r="C45" s="92"/>
+      <c r="A45" s="97"/>
+      <c r="B45" s="97"/>
+      <c r="C45" s="99"/>
       <c r="D45" s="87"/>
       <c r="E45" s="87"/>
       <c r="F45" s="60"/>
@@ -2881,9 +2892,9 @@
       <c r="I45" s="87"/>
     </row>
     <row r="46" spans="1:9" ht="15" customHeight="1">
-      <c r="A46" s="88"/>
-      <c r="B46" s="88"/>
-      <c r="C46" s="91" t="s">
+      <c r="A46" s="95"/>
+      <c r="B46" s="95"/>
+      <c r="C46" s="98" t="s">
         <v>249</v>
       </c>
       <c r="D46" s="87" t="s">
@@ -2896,9 +2907,9 @@
       <c r="I46" s="87"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="89"/>
-      <c r="B47" s="89"/>
-      <c r="C47" s="92"/>
+      <c r="A47" s="96"/>
+      <c r="B47" s="96"/>
+      <c r="C47" s="99"/>
       <c r="D47" s="87" t="s">
         <v>9</v>
       </c>
@@ -2911,9 +2922,9 @@
       <c r="I47" s="87"/>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="89"/>
-      <c r="B48" s="89"/>
-      <c r="C48" s="92"/>
+      <c r="A48" s="96"/>
+      <c r="B48" s="96"/>
+      <c r="C48" s="99"/>
       <c r="D48" s="87" t="s">
         <v>82</v>
       </c>
@@ -2926,9 +2937,9 @@
       <c r="I48" s="87"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="89"/>
-      <c r="B49" s="89"/>
-      <c r="C49" s="92"/>
+      <c r="A49" s="96"/>
+      <c r="B49" s="96"/>
+      <c r="C49" s="99"/>
       <c r="D49" s="87" t="s">
         <v>11</v>
       </c>
@@ -2941,9 +2952,9 @@
       <c r="I49" s="87"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="89"/>
-      <c r="B50" s="89"/>
-      <c r="C50" s="92"/>
+      <c r="A50" s="96"/>
+      <c r="B50" s="96"/>
+      <c r="C50" s="99"/>
       <c r="D50" s="87" t="s">
         <v>104</v>
       </c>
@@ -2960,9 +2971,9 @@
       <c r="I50" s="87"/>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="89"/>
-      <c r="B51" s="89"/>
-      <c r="C51" s="92"/>
+      <c r="A51" s="96"/>
+      <c r="B51" s="96"/>
+      <c r="C51" s="99"/>
       <c r="D51" s="87" t="s">
         <v>12</v>
       </c>
@@ -2975,9 +2986,9 @@
       <c r="I51" s="87"/>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="89"/>
-      <c r="B52" s="89"/>
-      <c r="C52" s="92"/>
+      <c r="A52" s="96"/>
+      <c r="B52" s="96"/>
+      <c r="C52" s="99"/>
       <c r="D52" s="87" t="s">
         <v>13</v>
       </c>
@@ -2990,9 +3001,9 @@
       <c r="I52" s="87"/>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="89"/>
-      <c r="B53" s="89"/>
-      <c r="C53" s="92"/>
+      <c r="A53" s="96"/>
+      <c r="B53" s="96"/>
+      <c r="C53" s="99"/>
       <c r="D53" s="87" t="s">
         <v>113</v>
       </c>
@@ -3007,9 +3018,9 @@
       <c r="I53" s="87"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="89"/>
-      <c r="B54" s="89"/>
-      <c r="C54" s="92"/>
+      <c r="A54" s="96"/>
+      <c r="B54" s="96"/>
+      <c r="C54" s="99"/>
       <c r="D54" s="5" t="s">
         <v>112</v>
       </c>
@@ -3024,9 +3035,9 @@
       <c r="I54" s="87"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="89"/>
-      <c r="B55" s="89"/>
-      <c r="C55" s="92"/>
+      <c r="A55" s="96"/>
+      <c r="B55" s="96"/>
+      <c r="C55" s="99"/>
       <c r="D55" s="5" t="s">
         <v>114</v>
       </c>
@@ -3041,9 +3052,9 @@
       <c r="I55" s="87"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="90"/>
-      <c r="B56" s="90"/>
-      <c r="C56" s="92"/>
+      <c r="A56" s="97"/>
+      <c r="B56" s="97"/>
+      <c r="C56" s="99"/>
       <c r="D56" s="87"/>
       <c r="E56" s="87"/>
       <c r="F56" s="60"/>
@@ -3052,9 +3063,9 @@
       <c r="I56" s="87"/>
     </row>
     <row r="57" spans="1:9" ht="15" customHeight="1">
-      <c r="A57" s="88"/>
-      <c r="B57" s="88"/>
-      <c r="C57" s="91" t="s">
+      <c r="A57" s="95"/>
+      <c r="B57" s="95"/>
+      <c r="C57" s="98" t="s">
         <v>250</v>
       </c>
       <c r="D57" s="87" t="s">
@@ -3067,9 +3078,9 @@
       <c r="I57" s="87"/>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="89"/>
-      <c r="B58" s="89"/>
-      <c r="C58" s="92"/>
+      <c r="A58" s="96"/>
+      <c r="B58" s="96"/>
+      <c r="C58" s="99"/>
       <c r="D58" s="87" t="s">
         <v>9</v>
       </c>
@@ -3082,9 +3093,9 @@
       <c r="I58" s="87"/>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="89"/>
-      <c r="B59" s="89"/>
-      <c r="C59" s="92"/>
+      <c r="A59" s="96"/>
+      <c r="B59" s="96"/>
+      <c r="C59" s="99"/>
       <c r="D59" s="87" t="s">
         <v>82</v>
       </c>
@@ -3097,9 +3108,9 @@
       <c r="I59" s="87"/>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="89"/>
-      <c r="B60" s="89"/>
-      <c r="C60" s="92"/>
+      <c r="A60" s="96"/>
+      <c r="B60" s="96"/>
+      <c r="C60" s="99"/>
       <c r="D60" s="87" t="s">
         <v>11</v>
       </c>
@@ -3112,9 +3123,9 @@
       <c r="I60" s="87"/>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="89"/>
-      <c r="B61" s="89"/>
-      <c r="C61" s="92"/>
+      <c r="A61" s="96"/>
+      <c r="B61" s="96"/>
+      <c r="C61" s="99"/>
       <c r="D61" s="87" t="s">
         <v>104</v>
       </c>
@@ -3131,9 +3142,9 @@
       <c r="I61" s="87"/>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="89"/>
-      <c r="B62" s="89"/>
-      <c r="C62" s="92"/>
+      <c r="A62" s="96"/>
+      <c r="B62" s="96"/>
+      <c r="C62" s="99"/>
       <c r="D62" s="87" t="s">
         <v>12</v>
       </c>
@@ -3146,9 +3157,9 @@
       <c r="I62" s="87"/>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="89"/>
-      <c r="B63" s="89"/>
-      <c r="C63" s="92"/>
+      <c r="A63" s="96"/>
+      <c r="B63" s="96"/>
+      <c r="C63" s="99"/>
       <c r="D63" s="87" t="s">
         <v>13</v>
       </c>
@@ -3161,9 +3172,9 @@
       <c r="I63" s="87"/>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="89"/>
-      <c r="B64" s="89"/>
-      <c r="C64" s="92"/>
+      <c r="A64" s="96"/>
+      <c r="B64" s="96"/>
+      <c r="C64" s="99"/>
       <c r="D64" s="87" t="s">
         <v>113</v>
       </c>
@@ -3178,9 +3189,9 @@
       <c r="I64" s="87"/>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="89"/>
-      <c r="B65" s="89"/>
-      <c r="C65" s="92"/>
+      <c r="A65" s="96"/>
+      <c r="B65" s="96"/>
+      <c r="C65" s="99"/>
       <c r="D65" s="5" t="s">
         <v>112</v>
       </c>
@@ -3195,9 +3206,9 @@
       <c r="I65" s="87"/>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="89"/>
-      <c r="B66" s="89"/>
-      <c r="C66" s="92"/>
+      <c r="A66" s="96"/>
+      <c r="B66" s="96"/>
+      <c r="C66" s="99"/>
       <c r="D66" s="5" t="s">
         <v>114</v>
       </c>
@@ -3212,9 +3223,9 @@
       <c r="I66" s="87"/>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="90"/>
-      <c r="B67" s="90"/>
-      <c r="C67" s="92"/>
+      <c r="A67" s="97"/>
+      <c r="B67" s="97"/>
+      <c r="C67" s="99"/>
       <c r="D67" s="87"/>
       <c r="E67" s="87"/>
       <c r="F67" s="60"/>
@@ -3223,9 +3234,9 @@
       <c r="I67" s="87"/>
     </row>
     <row r="68" spans="1:9" ht="15" customHeight="1">
-      <c r="A68" s="88"/>
-      <c r="B68" s="88"/>
-      <c r="C68" s="91" t="s">
+      <c r="A68" s="95"/>
+      <c r="B68" s="95"/>
+      <c r="C68" s="98" t="s">
         <v>256</v>
       </c>
       <c r="D68" s="87" t="s">
@@ -3238,9 +3249,9 @@
       <c r="I68" s="87"/>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="89"/>
-      <c r="B69" s="89"/>
-      <c r="C69" s="92"/>
+      <c r="A69" s="96"/>
+      <c r="B69" s="96"/>
+      <c r="C69" s="99"/>
       <c r="D69" s="87" t="s">
         <v>9</v>
       </c>
@@ -3253,9 +3264,9 @@
       <c r="I69" s="87"/>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="89"/>
-      <c r="B70" s="89"/>
-      <c r="C70" s="92"/>
+      <c r="A70" s="96"/>
+      <c r="B70" s="96"/>
+      <c r="C70" s="99"/>
       <c r="D70" s="87" t="s">
         <v>82</v>
       </c>
@@ -3268,9 +3279,9 @@
       <c r="I70" s="87"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="89"/>
-      <c r="B71" s="89"/>
-      <c r="C71" s="92"/>
+      <c r="A71" s="96"/>
+      <c r="B71" s="96"/>
+      <c r="C71" s="99"/>
       <c r="D71" s="87" t="s">
         <v>11</v>
       </c>
@@ -3283,9 +3294,9 @@
       <c r="I71" s="87"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="89"/>
-      <c r="B72" s="89"/>
-      <c r="C72" s="92"/>
+      <c r="A72" s="96"/>
+      <c r="B72" s="96"/>
+      <c r="C72" s="99"/>
       <c r="D72" s="87" t="s">
         <v>104</v>
       </c>
@@ -3302,9 +3313,9 @@
       <c r="I72" s="87"/>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="89"/>
-      <c r="B73" s="89"/>
-      <c r="C73" s="92"/>
+      <c r="A73" s="96"/>
+      <c r="B73" s="96"/>
+      <c r="C73" s="99"/>
       <c r="D73" s="87" t="s">
         <v>12</v>
       </c>
@@ -3317,9 +3328,9 @@
       <c r="I73" s="87"/>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="89"/>
-      <c r="B74" s="89"/>
-      <c r="C74" s="92"/>
+      <c r="A74" s="96"/>
+      <c r="B74" s="96"/>
+      <c r="C74" s="99"/>
       <c r="D74" s="87" t="s">
         <v>13</v>
       </c>
@@ -3332,9 +3343,9 @@
       <c r="I74" s="87"/>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="89"/>
-      <c r="B75" s="89"/>
-      <c r="C75" s="92"/>
+      <c r="A75" s="96"/>
+      <c r="B75" s="96"/>
+      <c r="C75" s="99"/>
       <c r="D75" s="87" t="s">
         <v>113</v>
       </c>
@@ -3349,9 +3360,9 @@
       <c r="I75" s="87"/>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="89"/>
-      <c r="B76" s="89"/>
-      <c r="C76" s="92"/>
+      <c r="A76" s="96"/>
+      <c r="B76" s="96"/>
+      <c r="C76" s="99"/>
       <c r="D76" s="5" t="s">
         <v>112</v>
       </c>
@@ -3366,9 +3377,9 @@
       <c r="I76" s="87"/>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="89"/>
-      <c r="B77" s="89"/>
-      <c r="C77" s="92"/>
+      <c r="A77" s="96"/>
+      <c r="B77" s="96"/>
+      <c r="C77" s="99"/>
       <c r="D77" s="5" t="s">
         <v>114</v>
       </c>
@@ -3383,9 +3394,9 @@
       <c r="I77" s="87"/>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="90"/>
-      <c r="B78" s="90"/>
-      <c r="C78" s="92"/>
+      <c r="A78" s="97"/>
+      <c r="B78" s="97"/>
+      <c r="C78" s="99"/>
       <c r="D78" s="87"/>
       <c r="E78" s="87"/>
       <c r="F78" s="60"/>
@@ -3394,9 +3405,9 @@
       <c r="I78" s="87"/>
     </row>
     <row r="79" spans="1:9" ht="15" customHeight="1">
-      <c r="A79" s="88"/>
-      <c r="B79" s="88"/>
-      <c r="C79" s="91" t="s">
+      <c r="A79" s="95"/>
+      <c r="B79" s="95"/>
+      <c r="C79" s="98" t="s">
         <v>254</v>
       </c>
       <c r="D79" s="87" t="s">
@@ -3409,9 +3420,9 @@
       <c r="I79" s="87"/>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="89"/>
-      <c r="B80" s="89"/>
-      <c r="C80" s="92"/>
+      <c r="A80" s="96"/>
+      <c r="B80" s="96"/>
+      <c r="C80" s="99"/>
       <c r="D80" s="87" t="s">
         <v>9</v>
       </c>
@@ -3424,9 +3435,9 @@
       <c r="I80" s="87"/>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="89"/>
-      <c r="B81" s="89"/>
-      <c r="C81" s="92"/>
+      <c r="A81" s="96"/>
+      <c r="B81" s="96"/>
+      <c r="C81" s="99"/>
       <c r="D81" s="87" t="s">
         <v>82</v>
       </c>
@@ -3439,9 +3450,9 @@
       <c r="I81" s="87"/>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="89"/>
-      <c r="B82" s="89"/>
-      <c r="C82" s="92"/>
+      <c r="A82" s="96"/>
+      <c r="B82" s="96"/>
+      <c r="C82" s="99"/>
       <c r="D82" s="87" t="s">
         <v>11</v>
       </c>
@@ -3454,9 +3465,9 @@
       <c r="I82" s="87"/>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="89"/>
-      <c r="B83" s="89"/>
-      <c r="C83" s="92"/>
+      <c r="A83" s="96"/>
+      <c r="B83" s="96"/>
+      <c r="C83" s="99"/>
       <c r="D83" s="87" t="s">
         <v>104</v>
       </c>
@@ -3473,9 +3484,9 @@
       <c r="I83" s="87"/>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="89"/>
-      <c r="B84" s="89"/>
-      <c r="C84" s="92"/>
+      <c r="A84" s="96"/>
+      <c r="B84" s="96"/>
+      <c r="C84" s="99"/>
       <c r="D84" s="87" t="s">
         <v>12</v>
       </c>
@@ -3488,9 +3499,9 @@
       <c r="I84" s="87"/>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="89"/>
-      <c r="B85" s="89"/>
-      <c r="C85" s="92"/>
+      <c r="A85" s="96"/>
+      <c r="B85" s="96"/>
+      <c r="C85" s="99"/>
       <c r="D85" s="87" t="s">
         <v>13</v>
       </c>
@@ -3503,9 +3514,9 @@
       <c r="I85" s="87"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="89"/>
-      <c r="B86" s="89"/>
-      <c r="C86" s="92"/>
+      <c r="A86" s="96"/>
+      <c r="B86" s="96"/>
+      <c r="C86" s="99"/>
       <c r="D86" s="87" t="s">
         <v>113</v>
       </c>
@@ -3520,9 +3531,9 @@
       <c r="I86" s="87"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="89"/>
-      <c r="B87" s="89"/>
-      <c r="C87" s="92"/>
+      <c r="A87" s="96"/>
+      <c r="B87" s="96"/>
+      <c r="C87" s="99"/>
       <c r="D87" s="5" t="s">
         <v>112</v>
       </c>
@@ -3537,9 +3548,9 @@
       <c r="I87" s="87"/>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="89"/>
-      <c r="B88" s="89"/>
-      <c r="C88" s="92"/>
+      <c r="A88" s="96"/>
+      <c r="B88" s="96"/>
+      <c r="C88" s="99"/>
       <c r="D88" s="5" t="s">
         <v>114</v>
       </c>
@@ -3554,9 +3565,9 @@
       <c r="I88" s="87"/>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="90"/>
-      <c r="B89" s="90"/>
-      <c r="C89" s="92"/>
+      <c r="A89" s="97"/>
+      <c r="B89" s="97"/>
+      <c r="C89" s="99"/>
       <c r="D89" s="87"/>
       <c r="E89" s="87"/>
       <c r="F89" s="60"/>
@@ -3565,9 +3576,9 @@
       <c r="I89" s="87"/>
     </row>
     <row r="90" spans="1:9" ht="15" customHeight="1">
-      <c r="A90" s="88"/>
-      <c r="B90" s="88"/>
-      <c r="C90" s="91" t="s">
+      <c r="A90" s="95"/>
+      <c r="B90" s="95"/>
+      <c r="C90" s="98" t="s">
         <v>262</v>
       </c>
       <c r="D90" s="87" t="s">
@@ -3580,9 +3591,9 @@
       <c r="I90" s="87"/>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="89"/>
-      <c r="B91" s="89"/>
-      <c r="C91" s="92"/>
+      <c r="A91" s="96"/>
+      <c r="B91" s="96"/>
+      <c r="C91" s="99"/>
       <c r="D91" s="87" t="s">
         <v>9</v>
       </c>
@@ -3595,9 +3606,9 @@
       <c r="I91" s="87"/>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="89"/>
-      <c r="B92" s="89"/>
-      <c r="C92" s="92"/>
+      <c r="A92" s="96"/>
+      <c r="B92" s="96"/>
+      <c r="C92" s="99"/>
       <c r="D92" s="87" t="s">
         <v>82</v>
       </c>
@@ -3610,9 +3621,9 @@
       <c r="I92" s="87"/>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="89"/>
-      <c r="B93" s="89"/>
-      <c r="C93" s="92"/>
+      <c r="A93" s="96"/>
+      <c r="B93" s="96"/>
+      <c r="C93" s="99"/>
       <c r="D93" s="87" t="s">
         <v>11</v>
       </c>
@@ -3625,9 +3636,9 @@
       <c r="I93" s="87"/>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="89"/>
-      <c r="B94" s="89"/>
-      <c r="C94" s="92"/>
+      <c r="A94" s="96"/>
+      <c r="B94" s="96"/>
+      <c r="C94" s="99"/>
       <c r="D94" s="87" t="s">
         <v>104</v>
       </c>
@@ -3644,9 +3655,9 @@
       <c r="I94" s="87"/>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="89"/>
-      <c r="B95" s="89"/>
-      <c r="C95" s="92"/>
+      <c r="A95" s="96"/>
+      <c r="B95" s="96"/>
+      <c r="C95" s="99"/>
       <c r="D95" s="87" t="s">
         <v>12</v>
       </c>
@@ -3659,9 +3670,9 @@
       <c r="I95" s="87"/>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="89"/>
-      <c r="B96" s="89"/>
-      <c r="C96" s="92"/>
+      <c r="A96" s="96"/>
+      <c r="B96" s="96"/>
+      <c r="C96" s="99"/>
       <c r="D96" s="87" t="s">
         <v>13</v>
       </c>
@@ -3674,9 +3685,9 @@
       <c r="I96" s="87"/>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="89"/>
-      <c r="B97" s="89"/>
-      <c r="C97" s="92"/>
+      <c r="A97" s="96"/>
+      <c r="B97" s="96"/>
+      <c r="C97" s="99"/>
       <c r="D97" s="87" t="s">
         <v>113</v>
       </c>
@@ -3691,9 +3702,9 @@
       <c r="I97" s="87"/>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="89"/>
-      <c r="B98" s="89"/>
-      <c r="C98" s="92"/>
+      <c r="A98" s="96"/>
+      <c r="B98" s="96"/>
+      <c r="C98" s="99"/>
       <c r="D98" s="5" t="s">
         <v>112</v>
       </c>
@@ -3708,9 +3719,9 @@
       <c r="I98" s="87"/>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="89"/>
-      <c r="B99" s="89"/>
-      <c r="C99" s="92"/>
+      <c r="A99" s="96"/>
+      <c r="B99" s="96"/>
+      <c r="C99" s="99"/>
       <c r="D99" s="5" t="s">
         <v>114</v>
       </c>
@@ -3725,9 +3736,9 @@
       <c r="I99" s="87"/>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="90"/>
-      <c r="B100" s="90"/>
-      <c r="C100" s="92"/>
+      <c r="A100" s="97"/>
+      <c r="B100" s="97"/>
+      <c r="C100" s="99"/>
       <c r="D100" s="87"/>
       <c r="E100" s="87"/>
       <c r="F100" s="60"/>
@@ -3736,9 +3747,9 @@
       <c r="I100" s="87"/>
     </row>
     <row r="101" spans="1:9" ht="15" customHeight="1">
-      <c r="A101" s="88"/>
-      <c r="B101" s="88"/>
-      <c r="C101" s="91" t="s">
+      <c r="A101" s="95"/>
+      <c r="B101" s="95"/>
+      <c r="C101" s="98" t="s">
         <v>264</v>
       </c>
       <c r="D101" s="87" t="s">
@@ -3751,9 +3762,9 @@
       <c r="I101" s="87"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="89"/>
-      <c r="B102" s="89"/>
-      <c r="C102" s="92"/>
+      <c r="A102" s="96"/>
+      <c r="B102" s="96"/>
+      <c r="C102" s="99"/>
       <c r="D102" s="87" t="s">
         <v>9</v>
       </c>
@@ -3766,9 +3777,9 @@
       <c r="I102" s="87"/>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="89"/>
-      <c r="B103" s="89"/>
-      <c r="C103" s="92"/>
+      <c r="A103" s="96"/>
+      <c r="B103" s="96"/>
+      <c r="C103" s="99"/>
       <c r="D103" s="87" t="s">
         <v>82</v>
       </c>
@@ -3781,9 +3792,9 @@
       <c r="I103" s="87"/>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="89"/>
-      <c r="B104" s="89"/>
-      <c r="C104" s="92"/>
+      <c r="A104" s="96"/>
+      <c r="B104" s="96"/>
+      <c r="C104" s="99"/>
       <c r="D104" s="87" t="s">
         <v>11</v>
       </c>
@@ -3796,9 +3807,9 @@
       <c r="I104" s="87"/>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="89"/>
-      <c r="B105" s="89"/>
-      <c r="C105" s="92"/>
+      <c r="A105" s="96"/>
+      <c r="B105" s="96"/>
+      <c r="C105" s="99"/>
       <c r="D105" s="87" t="s">
         <v>104</v>
       </c>
@@ -3815,9 +3826,9 @@
       <c r="I105" s="87"/>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="89"/>
-      <c r="B106" s="89"/>
-      <c r="C106" s="92"/>
+      <c r="A106" s="96"/>
+      <c r="B106" s="96"/>
+      <c r="C106" s="99"/>
       <c r="D106" s="87" t="s">
         <v>12</v>
       </c>
@@ -3830,9 +3841,9 @@
       <c r="I106" s="87"/>
     </row>
     <row r="107" spans="1:9">
-      <c r="A107" s="89"/>
-      <c r="B107" s="89"/>
-      <c r="C107" s="92"/>
+      <c r="A107" s="96"/>
+      <c r="B107" s="96"/>
+      <c r="C107" s="99"/>
       <c r="D107" s="87" t="s">
         <v>13</v>
       </c>
@@ -3845,9 +3856,9 @@
       <c r="I107" s="87"/>
     </row>
     <row r="108" spans="1:9">
-      <c r="A108" s="89"/>
-      <c r="B108" s="89"/>
-      <c r="C108" s="92"/>
+      <c r="A108" s="96"/>
+      <c r="B108" s="96"/>
+      <c r="C108" s="99"/>
       <c r="D108" s="87" t="s">
         <v>113</v>
       </c>
@@ -3862,9 +3873,9 @@
       <c r="I108" s="87"/>
     </row>
     <row r="109" spans="1:9">
-      <c r="A109" s="89"/>
-      <c r="B109" s="89"/>
-      <c r="C109" s="92"/>
+      <c r="A109" s="96"/>
+      <c r="B109" s="96"/>
+      <c r="C109" s="99"/>
       <c r="D109" s="5" t="s">
         <v>112</v>
       </c>
@@ -3879,9 +3890,9 @@
       <c r="I109" s="87"/>
     </row>
     <row r="110" spans="1:9">
-      <c r="A110" s="89"/>
-      <c r="B110" s="89"/>
-      <c r="C110" s="92"/>
+      <c r="A110" s="96"/>
+      <c r="B110" s="96"/>
+      <c r="C110" s="99"/>
       <c r="D110" s="5" t="s">
         <v>114</v>
       </c>
@@ -3896,9 +3907,9 @@
       <c r="I110" s="87"/>
     </row>
     <row r="111" spans="1:9">
-      <c r="A111" s="90"/>
-      <c r="B111" s="90"/>
-      <c r="C111" s="92"/>
+      <c r="A111" s="97"/>
+      <c r="B111" s="97"/>
+      <c r="C111" s="99"/>
       <c r="D111" s="87"/>
       <c r="E111" s="87"/>
       <c r="F111" s="60"/>
@@ -3907,9 +3918,9 @@
       <c r="I111" s="87"/>
     </row>
     <row r="112" spans="1:9" ht="15" customHeight="1">
-      <c r="A112" s="88"/>
-      <c r="B112" s="88"/>
-      <c r="C112" s="91" t="s">
+      <c r="A112" s="95"/>
+      <c r="B112" s="95"/>
+      <c r="C112" s="98" t="s">
         <v>267</v>
       </c>
       <c r="D112" s="87" t="s">
@@ -3922,9 +3933,9 @@
       <c r="I112" s="87"/>
     </row>
     <row r="113" spans="1:9">
-      <c r="A113" s="89"/>
-      <c r="B113" s="89"/>
-      <c r="C113" s="92"/>
+      <c r="A113" s="96"/>
+      <c r="B113" s="96"/>
+      <c r="C113" s="99"/>
       <c r="D113" s="87" t="s">
         <v>9</v>
       </c>
@@ -3937,9 +3948,9 @@
       <c r="I113" s="87"/>
     </row>
     <row r="114" spans="1:9">
-      <c r="A114" s="89"/>
-      <c r="B114" s="89"/>
-      <c r="C114" s="92"/>
+      <c r="A114" s="96"/>
+      <c r="B114" s="96"/>
+      <c r="C114" s="99"/>
       <c r="D114" s="87" t="s">
         <v>82</v>
       </c>
@@ -3952,9 +3963,9 @@
       <c r="I114" s="87"/>
     </row>
     <row r="115" spans="1:9">
-      <c r="A115" s="89"/>
-      <c r="B115" s="89"/>
-      <c r="C115" s="92"/>
+      <c r="A115" s="96"/>
+      <c r="B115" s="96"/>
+      <c r="C115" s="99"/>
       <c r="D115" s="87" t="s">
         <v>11</v>
       </c>
@@ -3967,9 +3978,9 @@
       <c r="I115" s="87"/>
     </row>
     <row r="116" spans="1:9">
-      <c r="A116" s="89"/>
-      <c r="B116" s="89"/>
-      <c r="C116" s="92"/>
+      <c r="A116" s="96"/>
+      <c r="B116" s="96"/>
+      <c r="C116" s="99"/>
       <c r="D116" s="87" t="s">
         <v>104</v>
       </c>
@@ -3986,9 +3997,9 @@
       <c r="I116" s="87"/>
     </row>
     <row r="117" spans="1:9">
-      <c r="A117" s="89"/>
-      <c r="B117" s="89"/>
-      <c r="C117" s="92"/>
+      <c r="A117" s="96"/>
+      <c r="B117" s="96"/>
+      <c r="C117" s="99"/>
       <c r="D117" s="87" t="s">
         <v>12</v>
       </c>
@@ -4001,9 +4012,9 @@
       <c r="I117" s="87"/>
     </row>
     <row r="118" spans="1:9">
-      <c r="A118" s="89"/>
-      <c r="B118" s="89"/>
-      <c r="C118" s="92"/>
+      <c r="A118" s="96"/>
+      <c r="B118" s="96"/>
+      <c r="C118" s="99"/>
       <c r="D118" s="87" t="s">
         <v>13</v>
       </c>
@@ -4016,9 +4027,9 @@
       <c r="I118" s="87"/>
     </row>
     <row r="119" spans="1:9">
-      <c r="A119" s="89"/>
-      <c r="B119" s="89"/>
-      <c r="C119" s="92"/>
+      <c r="A119" s="96"/>
+      <c r="B119" s="96"/>
+      <c r="C119" s="99"/>
       <c r="D119" s="87" t="s">
         <v>113</v>
       </c>
@@ -4033,9 +4044,9 @@
       <c r="I119" s="87"/>
     </row>
     <row r="120" spans="1:9">
-      <c r="A120" s="89"/>
-      <c r="B120" s="89"/>
-      <c r="C120" s="92"/>
+      <c r="A120" s="96"/>
+      <c r="B120" s="96"/>
+      <c r="C120" s="99"/>
       <c r="D120" s="5" t="s">
         <v>112</v>
       </c>
@@ -4050,9 +4061,9 @@
       <c r="I120" s="87"/>
     </row>
     <row r="121" spans="1:9">
-      <c r="A121" s="89"/>
-      <c r="B121" s="89"/>
-      <c r="C121" s="92"/>
+      <c r="A121" s="96"/>
+      <c r="B121" s="96"/>
+      <c r="C121" s="99"/>
       <c r="D121" s="5" t="s">
         <v>114</v>
       </c>
@@ -4067,9 +4078,9 @@
       <c r="I121" s="87"/>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="90"/>
-      <c r="B122" s="90"/>
-      <c r="C122" s="92"/>
+      <c r="A122" s="97"/>
+      <c r="B122" s="97"/>
+      <c r="C122" s="99"/>
       <c r="D122" s="87"/>
       <c r="E122" s="87"/>
       <c r="F122" s="60"/>
@@ -4078,9 +4089,9 @@
       <c r="I122" s="87"/>
     </row>
     <row r="123" spans="1:9" ht="15" customHeight="1">
-      <c r="A123" s="88"/>
-      <c r="B123" s="88"/>
-      <c r="C123" s="91" t="s">
+      <c r="A123" s="95"/>
+      <c r="B123" s="95"/>
+      <c r="C123" s="98" t="s">
         <v>295</v>
       </c>
       <c r="D123" s="87" t="s">
@@ -4093,9 +4104,9 @@
       <c r="I123" s="87"/>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="89"/>
-      <c r="B124" s="89"/>
-      <c r="C124" s="92"/>
+      <c r="A124" s="96"/>
+      <c r="B124" s="96"/>
+      <c r="C124" s="99"/>
       <c r="D124" s="87" t="s">
         <v>9</v>
       </c>
@@ -4108,9 +4119,9 @@
       <c r="I124" s="87"/>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="89"/>
-      <c r="B125" s="89"/>
-      <c r="C125" s="92"/>
+      <c r="A125" s="96"/>
+      <c r="B125" s="96"/>
+      <c r="C125" s="99"/>
       <c r="D125" s="87" t="s">
         <v>82</v>
       </c>
@@ -4123,9 +4134,9 @@
       <c r="I125" s="87"/>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="89"/>
-      <c r="B126" s="89"/>
-      <c r="C126" s="92"/>
+      <c r="A126" s="96"/>
+      <c r="B126" s="96"/>
+      <c r="C126" s="99"/>
       <c r="D126" s="87" t="s">
         <v>11</v>
       </c>
@@ -4138,9 +4149,9 @@
       <c r="I126" s="87"/>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="89"/>
-      <c r="B127" s="89"/>
-      <c r="C127" s="92"/>
+      <c r="A127" s="96"/>
+      <c r="B127" s="96"/>
+      <c r="C127" s="99"/>
       <c r="D127" s="87" t="s">
         <v>104</v>
       </c>
@@ -4157,9 +4168,9 @@
       <c r="I127" s="87"/>
     </row>
     <row r="128" spans="1:9">
-      <c r="A128" s="89"/>
-      <c r="B128" s="89"/>
-      <c r="C128" s="92"/>
+      <c r="A128" s="96"/>
+      <c r="B128" s="96"/>
+      <c r="C128" s="99"/>
       <c r="D128" s="87" t="s">
         <v>12</v>
       </c>
@@ -4172,9 +4183,9 @@
       <c r="I128" s="87"/>
     </row>
     <row r="129" spans="1:9">
-      <c r="A129" s="89"/>
-      <c r="B129" s="89"/>
-      <c r="C129" s="92"/>
+      <c r="A129" s="96"/>
+      <c r="B129" s="96"/>
+      <c r="C129" s="99"/>
       <c r="D129" s="87" t="s">
         <v>13</v>
       </c>
@@ -4187,9 +4198,9 @@
       <c r="I129" s="87"/>
     </row>
     <row r="130" spans="1:9">
-      <c r="A130" s="89"/>
-      <c r="B130" s="89"/>
-      <c r="C130" s="92"/>
+      <c r="A130" s="96"/>
+      <c r="B130" s="96"/>
+      <c r="C130" s="99"/>
       <c r="D130" s="87" t="s">
         <v>113</v>
       </c>
@@ -4204,9 +4215,9 @@
       <c r="I130" s="87"/>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="89"/>
-      <c r="B131" s="89"/>
-      <c r="C131" s="92"/>
+      <c r="A131" s="96"/>
+      <c r="B131" s="96"/>
+      <c r="C131" s="99"/>
       <c r="D131" s="5" t="s">
         <v>112</v>
       </c>
@@ -4221,9 +4232,9 @@
       <c r="I131" s="87"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="89"/>
-      <c r="B132" s="89"/>
-      <c r="C132" s="92"/>
+      <c r="A132" s="96"/>
+      <c r="B132" s="96"/>
+      <c r="C132" s="99"/>
       <c r="D132" s="5" t="s">
         <v>114</v>
       </c>
@@ -4238,9 +4249,9 @@
       <c r="I132" s="87"/>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="90"/>
-      <c r="B133" s="90"/>
-      <c r="C133" s="92"/>
+      <c r="A133" s="97"/>
+      <c r="B133" s="97"/>
+      <c r="C133" s="99"/>
       <c r="D133" s="87"/>
       <c r="E133" s="87"/>
       <c r="F133" s="60"/>
@@ -4249,9 +4260,9 @@
       <c r="I133" s="87"/>
     </row>
     <row r="134" spans="1:9" ht="15" customHeight="1">
-      <c r="A134" s="88"/>
-      <c r="B134" s="88"/>
-      <c r="C134" s="91" t="s">
+      <c r="A134" s="95"/>
+      <c r="B134" s="95"/>
+      <c r="C134" s="98" t="s">
         <v>298</v>
       </c>
       <c r="D134" s="87" t="s">
@@ -4264,9 +4275,9 @@
       <c r="I134" s="87"/>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="89"/>
-      <c r="B135" s="89"/>
-      <c r="C135" s="92"/>
+      <c r="A135" s="96"/>
+      <c r="B135" s="96"/>
+      <c r="C135" s="99"/>
       <c r="D135" s="87" t="s">
         <v>9</v>
       </c>
@@ -4279,9 +4290,9 @@
       <c r="I135" s="87"/>
     </row>
     <row r="136" spans="1:9">
-      <c r="A136" s="89"/>
-      <c r="B136" s="89"/>
-      <c r="C136" s="92"/>
+      <c r="A136" s="96"/>
+      <c r="B136" s="96"/>
+      <c r="C136" s="99"/>
       <c r="D136" s="87" t="s">
         <v>82</v>
       </c>
@@ -4294,9 +4305,9 @@
       <c r="I136" s="87"/>
     </row>
     <row r="137" spans="1:9">
-      <c r="A137" s="89"/>
-      <c r="B137" s="89"/>
-      <c r="C137" s="92"/>
+      <c r="A137" s="96"/>
+      <c r="B137" s="96"/>
+      <c r="C137" s="99"/>
       <c r="D137" s="87" t="s">
         <v>11</v>
       </c>
@@ -4309,9 +4320,9 @@
       <c r="I137" s="87"/>
     </row>
     <row r="138" spans="1:9">
-      <c r="A138" s="89"/>
-      <c r="B138" s="89"/>
-      <c r="C138" s="92"/>
+      <c r="A138" s="96"/>
+      <c r="B138" s="96"/>
+      <c r="C138" s="99"/>
       <c r="D138" s="87" t="s">
         <v>104</v>
       </c>
@@ -4328,9 +4339,9 @@
       <c r="I138" s="87"/>
     </row>
     <row r="139" spans="1:9">
-      <c r="A139" s="89"/>
-      <c r="B139" s="89"/>
-      <c r="C139" s="92"/>
+      <c r="A139" s="96"/>
+      <c r="B139" s="96"/>
+      <c r="C139" s="99"/>
       <c r="D139" s="87" t="s">
         <v>12</v>
       </c>
@@ -4343,9 +4354,9 @@
       <c r="I139" s="87"/>
     </row>
     <row r="140" spans="1:9">
-      <c r="A140" s="89"/>
-      <c r="B140" s="89"/>
-      <c r="C140" s="92"/>
+      <c r="A140" s="96"/>
+      <c r="B140" s="96"/>
+      <c r="C140" s="99"/>
       <c r="D140" s="87" t="s">
         <v>13</v>
       </c>
@@ -4358,9 +4369,9 @@
       <c r="I140" s="87"/>
     </row>
     <row r="141" spans="1:9">
-      <c r="A141" s="89"/>
-      <c r="B141" s="89"/>
-      <c r="C141" s="92"/>
+      <c r="A141" s="96"/>
+      <c r="B141" s="96"/>
+      <c r="C141" s="99"/>
       <c r="D141" s="87" t="s">
         <v>113</v>
       </c>
@@ -4375,9 +4386,9 @@
       <c r="I141" s="87"/>
     </row>
     <row r="142" spans="1:9">
-      <c r="A142" s="89"/>
-      <c r="B142" s="89"/>
-      <c r="C142" s="92"/>
+      <c r="A142" s="96"/>
+      <c r="B142" s="96"/>
+      <c r="C142" s="99"/>
       <c r="D142" s="5" t="s">
         <v>112</v>
       </c>
@@ -4392,9 +4403,9 @@
       <c r="I142" s="87"/>
     </row>
     <row r="143" spans="1:9">
-      <c r="A143" s="89"/>
-      <c r="B143" s="89"/>
-      <c r="C143" s="92"/>
+      <c r="A143" s="96"/>
+      <c r="B143" s="96"/>
+      <c r="C143" s="99"/>
       <c r="D143" s="5" t="s">
         <v>114</v>
       </c>
@@ -4409,9 +4420,9 @@
       <c r="I143" s="87"/>
     </row>
     <row r="144" spans="1:9">
-      <c r="A144" s="90"/>
-      <c r="B144" s="90"/>
-      <c r="C144" s="92"/>
+      <c r="A144" s="97"/>
+      <c r="B144" s="97"/>
+      <c r="C144" s="99"/>
       <c r="D144" s="87"/>
       <c r="E144" s="87"/>
       <c r="F144" s="60"/>
@@ -4420,9 +4431,9 @@
       <c r="I144" s="87"/>
     </row>
     <row r="145" spans="1:9" ht="15" customHeight="1">
-      <c r="A145" s="88"/>
-      <c r="B145" s="88"/>
-      <c r="C145" s="91" t="s">
+      <c r="A145" s="95"/>
+      <c r="B145" s="95"/>
+      <c r="C145" s="98" t="s">
         <v>272</v>
       </c>
       <c r="D145" s="87" t="s">
@@ -4435,9 +4446,9 @@
       <c r="I145" s="87"/>
     </row>
     <row r="146" spans="1:9">
-      <c r="A146" s="89"/>
-      <c r="B146" s="89"/>
-      <c r="C146" s="92"/>
+      <c r="A146" s="96"/>
+      <c r="B146" s="96"/>
+      <c r="C146" s="99"/>
       <c r="D146" s="87" t="s">
         <v>9</v>
       </c>
@@ -4450,9 +4461,9 @@
       <c r="I146" s="87"/>
     </row>
     <row r="147" spans="1:9">
-      <c r="A147" s="89"/>
-      <c r="B147" s="89"/>
-      <c r="C147" s="92"/>
+      <c r="A147" s="96"/>
+      <c r="B147" s="96"/>
+      <c r="C147" s="99"/>
       <c r="D147" s="87" t="s">
         <v>82</v>
       </c>
@@ -4465,9 +4476,9 @@
       <c r="I147" s="87"/>
     </row>
     <row r="148" spans="1:9">
-      <c r="A148" s="89"/>
-      <c r="B148" s="89"/>
-      <c r="C148" s="92"/>
+      <c r="A148" s="96"/>
+      <c r="B148" s="96"/>
+      <c r="C148" s="99"/>
       <c r="D148" s="87" t="s">
         <v>11</v>
       </c>
@@ -4480,9 +4491,9 @@
       <c r="I148" s="87"/>
     </row>
     <row r="149" spans="1:9">
-      <c r="A149" s="89"/>
-      <c r="B149" s="89"/>
-      <c r="C149" s="92"/>
+      <c r="A149" s="96"/>
+      <c r="B149" s="96"/>
+      <c r="C149" s="99"/>
       <c r="D149" s="87" t="s">
         <v>104</v>
       </c>
@@ -4499,9 +4510,9 @@
       <c r="I149" s="87"/>
     </row>
     <row r="150" spans="1:9">
-      <c r="A150" s="89"/>
-      <c r="B150" s="89"/>
-      <c r="C150" s="92"/>
+      <c r="A150" s="96"/>
+      <c r="B150" s="96"/>
+      <c r="C150" s="99"/>
       <c r="D150" s="87" t="s">
         <v>12</v>
       </c>
@@ -4514,9 +4525,9 @@
       <c r="I150" s="87"/>
     </row>
     <row r="151" spans="1:9">
-      <c r="A151" s="89"/>
-      <c r="B151" s="89"/>
-      <c r="C151" s="92"/>
+      <c r="A151" s="96"/>
+      <c r="B151" s="96"/>
+      <c r="C151" s="99"/>
       <c r="D151" s="87" t="s">
         <v>13</v>
       </c>
@@ -4529,9 +4540,9 @@
       <c r="I151" s="87"/>
     </row>
     <row r="152" spans="1:9">
-      <c r="A152" s="89"/>
-      <c r="B152" s="89"/>
-      <c r="C152" s="92"/>
+      <c r="A152" s="96"/>
+      <c r="B152" s="96"/>
+      <c r="C152" s="99"/>
       <c r="D152" s="87" t="s">
         <v>113</v>
       </c>
@@ -4546,9 +4557,9 @@
       <c r="I152" s="87"/>
     </row>
     <row r="153" spans="1:9">
-      <c r="A153" s="89"/>
-      <c r="B153" s="89"/>
-      <c r="C153" s="92"/>
+      <c r="A153" s="96"/>
+      <c r="B153" s="96"/>
+      <c r="C153" s="99"/>
       <c r="D153" s="5" t="s">
         <v>112</v>
       </c>
@@ -4563,9 +4574,9 @@
       <c r="I153" s="87"/>
     </row>
     <row r="154" spans="1:9">
-      <c r="A154" s="89"/>
-      <c r="B154" s="89"/>
-      <c r="C154" s="92"/>
+      <c r="A154" s="96"/>
+      <c r="B154" s="96"/>
+      <c r="C154" s="99"/>
       <c r="D154" s="5" t="s">
         <v>114</v>
       </c>
@@ -4580,9 +4591,9 @@
       <c r="I154" s="87"/>
     </row>
     <row r="155" spans="1:9">
-      <c r="A155" s="90"/>
-      <c r="B155" s="90"/>
-      <c r="C155" s="92"/>
+      <c r="A155" s="97"/>
+      <c r="B155" s="97"/>
+      <c r="C155" s="99"/>
       <c r="D155" s="87"/>
       <c r="E155" s="87"/>
       <c r="F155" s="60"/>
@@ -4591,9 +4602,9 @@
       <c r="I155" s="87"/>
     </row>
     <row r="156" spans="1:9" ht="15" customHeight="1">
-      <c r="A156" s="88"/>
-      <c r="B156" s="88"/>
-      <c r="C156" s="91" t="s">
+      <c r="A156" s="95"/>
+      <c r="B156" s="95"/>
+      <c r="C156" s="98" t="s">
         <v>296</v>
       </c>
       <c r="D156" s="87" t="s">
@@ -4606,9 +4617,9 @@
       <c r="I156" s="87"/>
     </row>
     <row r="157" spans="1:9">
-      <c r="A157" s="89"/>
-      <c r="B157" s="89"/>
-      <c r="C157" s="92"/>
+      <c r="A157" s="96"/>
+      <c r="B157" s="96"/>
+      <c r="C157" s="99"/>
       <c r="D157" s="87" t="s">
         <v>9</v>
       </c>
@@ -4621,9 +4632,9 @@
       <c r="I157" s="87"/>
     </row>
     <row r="158" spans="1:9">
-      <c r="A158" s="89"/>
-      <c r="B158" s="89"/>
-      <c r="C158" s="92"/>
+      <c r="A158" s="96"/>
+      <c r="B158" s="96"/>
+      <c r="C158" s="99"/>
       <c r="D158" s="87" t="s">
         <v>82</v>
       </c>
@@ -4636,9 +4647,9 @@
       <c r="I158" s="87"/>
     </row>
     <row r="159" spans="1:9">
-      <c r="A159" s="89"/>
-      <c r="B159" s="89"/>
-      <c r="C159" s="92"/>
+      <c r="A159" s="96"/>
+      <c r="B159" s="96"/>
+      <c r="C159" s="99"/>
       <c r="D159" s="87" t="s">
         <v>11</v>
       </c>
@@ -4651,9 +4662,9 @@
       <c r="I159" s="87"/>
     </row>
     <row r="160" spans="1:9">
-      <c r="A160" s="89"/>
-      <c r="B160" s="89"/>
-      <c r="C160" s="92"/>
+      <c r="A160" s="96"/>
+      <c r="B160" s="96"/>
+      <c r="C160" s="99"/>
       <c r="D160" s="87" t="s">
         <v>104</v>
       </c>
@@ -4670,9 +4681,9 @@
       <c r="I160" s="87"/>
     </row>
     <row r="161" spans="1:9">
-      <c r="A161" s="89"/>
-      <c r="B161" s="89"/>
-      <c r="C161" s="92"/>
+      <c r="A161" s="96"/>
+      <c r="B161" s="96"/>
+      <c r="C161" s="99"/>
       <c r="D161" s="87" t="s">
         <v>12</v>
       </c>
@@ -4685,9 +4696,9 @@
       <c r="I161" s="87"/>
     </row>
     <row r="162" spans="1:9">
-      <c r="A162" s="89"/>
-      <c r="B162" s="89"/>
-      <c r="C162" s="92"/>
+      <c r="A162" s="96"/>
+      <c r="B162" s="96"/>
+      <c r="C162" s="99"/>
       <c r="D162" s="87" t="s">
         <v>13</v>
       </c>
@@ -4700,9 +4711,9 @@
       <c r="I162" s="87"/>
     </row>
     <row r="163" spans="1:9">
-      <c r="A163" s="89"/>
-      <c r="B163" s="89"/>
-      <c r="C163" s="92"/>
+      <c r="A163" s="96"/>
+      <c r="B163" s="96"/>
+      <c r="C163" s="99"/>
       <c r="D163" s="87" t="s">
         <v>113</v>
       </c>
@@ -4717,9 +4728,9 @@
       <c r="I163" s="87"/>
     </row>
     <row r="164" spans="1:9">
-      <c r="A164" s="89"/>
-      <c r="B164" s="89"/>
-      <c r="C164" s="92"/>
+      <c r="A164" s="96"/>
+      <c r="B164" s="96"/>
+      <c r="C164" s="99"/>
       <c r="D164" s="5" t="s">
         <v>112</v>
       </c>
@@ -4734,9 +4745,9 @@
       <c r="I164" s="87"/>
     </row>
     <row r="165" spans="1:9">
-      <c r="A165" s="89"/>
-      <c r="B165" s="89"/>
-      <c r="C165" s="92"/>
+      <c r="A165" s="96"/>
+      <c r="B165" s="96"/>
+      <c r="C165" s="99"/>
       <c r="D165" s="5" t="s">
         <v>114</v>
       </c>
@@ -4751,9 +4762,9 @@
       <c r="I165" s="87"/>
     </row>
     <row r="166" spans="1:9">
-      <c r="A166" s="90"/>
-      <c r="B166" s="90"/>
-      <c r="C166" s="92"/>
+      <c r="A166" s="97"/>
+      <c r="B166" s="97"/>
+      <c r="C166" s="99"/>
       <c r="D166" s="87"/>
       <c r="E166" s="87"/>
       <c r="F166" s="60"/>
@@ -4762,9 +4773,9 @@
       <c r="I166" s="87"/>
     </row>
     <row r="167" spans="1:9" ht="15" customHeight="1">
-      <c r="A167" s="88"/>
-      <c r="B167" s="88"/>
-      <c r="C167" s="91" t="s">
+      <c r="A167" s="95"/>
+      <c r="B167" s="95"/>
+      <c r="C167" s="98" t="s">
         <v>299</v>
       </c>
       <c r="D167" s="87" t="s">
@@ -4777,9 +4788,9 @@
       <c r="I167" s="87"/>
     </row>
     <row r="168" spans="1:9">
-      <c r="A168" s="89"/>
-      <c r="B168" s="89"/>
-      <c r="C168" s="92"/>
+      <c r="A168" s="96"/>
+      <c r="B168" s="96"/>
+      <c r="C168" s="99"/>
       <c r="D168" s="87" t="s">
         <v>9</v>
       </c>
@@ -4792,9 +4803,9 @@
       <c r="I168" s="87"/>
     </row>
     <row r="169" spans="1:9">
-      <c r="A169" s="89"/>
-      <c r="B169" s="89"/>
-      <c r="C169" s="92"/>
+      <c r="A169" s="96"/>
+      <c r="B169" s="96"/>
+      <c r="C169" s="99"/>
       <c r="D169" s="87" t="s">
         <v>82</v>
       </c>
@@ -4807,9 +4818,9 @@
       <c r="I169" s="87"/>
     </row>
     <row r="170" spans="1:9">
-      <c r="A170" s="89"/>
-      <c r="B170" s="89"/>
-      <c r="C170" s="92"/>
+      <c r="A170" s="96"/>
+      <c r="B170" s="96"/>
+      <c r="C170" s="99"/>
       <c r="D170" s="87" t="s">
         <v>11</v>
       </c>
@@ -4822,9 +4833,9 @@
       <c r="I170" s="87"/>
     </row>
     <row r="171" spans="1:9">
-      <c r="A171" s="89"/>
-      <c r="B171" s="89"/>
-      <c r="C171" s="92"/>
+      <c r="A171" s="96"/>
+      <c r="B171" s="96"/>
+      <c r="C171" s="99"/>
       <c r="D171" s="87" t="s">
         <v>104</v>
       </c>
@@ -4841,9 +4852,9 @@
       <c r="I171" s="87"/>
     </row>
     <row r="172" spans="1:9">
-      <c r="A172" s="89"/>
-      <c r="B172" s="89"/>
-      <c r="C172" s="92"/>
+      <c r="A172" s="96"/>
+      <c r="B172" s="96"/>
+      <c r="C172" s="99"/>
       <c r="D172" s="87" t="s">
         <v>12</v>
       </c>
@@ -4856,9 +4867,9 @@
       <c r="I172" s="87"/>
     </row>
     <row r="173" spans="1:9">
-      <c r="A173" s="89"/>
-      <c r="B173" s="89"/>
-      <c r="C173" s="92"/>
+      <c r="A173" s="96"/>
+      <c r="B173" s="96"/>
+      <c r="C173" s="99"/>
       <c r="D173" s="87" t="s">
         <v>13</v>
       </c>
@@ -4871,9 +4882,9 @@
       <c r="I173" s="87"/>
     </row>
     <row r="174" spans="1:9">
-      <c r="A174" s="89"/>
-      <c r="B174" s="89"/>
-      <c r="C174" s="92"/>
+      <c r="A174" s="96"/>
+      <c r="B174" s="96"/>
+      <c r="C174" s="99"/>
       <c r="D174" s="87" t="s">
         <v>113</v>
       </c>
@@ -4888,9 +4899,9 @@
       <c r="I174" s="87"/>
     </row>
     <row r="175" spans="1:9">
-      <c r="A175" s="89"/>
-      <c r="B175" s="89"/>
-      <c r="C175" s="92"/>
+      <c r="A175" s="96"/>
+      <c r="B175" s="96"/>
+      <c r="C175" s="99"/>
       <c r="D175" s="5" t="s">
         <v>112</v>
       </c>
@@ -4905,9 +4916,9 @@
       <c r="I175" s="87"/>
     </row>
     <row r="176" spans="1:9">
-      <c r="A176" s="89"/>
-      <c r="B176" s="89"/>
-      <c r="C176" s="92"/>
+      <c r="A176" s="96"/>
+      <c r="B176" s="96"/>
+      <c r="C176" s="99"/>
       <c r="D176" s="5" t="s">
         <v>114</v>
       </c>
@@ -4922,9 +4933,9 @@
       <c r="I176" s="87"/>
     </row>
     <row r="177" spans="1:9">
-      <c r="A177" s="90"/>
-      <c r="B177" s="90"/>
-      <c r="C177" s="92"/>
+      <c r="A177" s="97"/>
+      <c r="B177" s="97"/>
+      <c r="C177" s="99"/>
       <c r="D177" s="87"/>
       <c r="E177" s="87"/>
       <c r="F177" s="60"/>
@@ -4933,9 +4944,9 @@
       <c r="I177" s="87"/>
     </row>
     <row r="178" spans="1:9" ht="15" customHeight="1">
-      <c r="A178" s="88"/>
-      <c r="B178" s="88"/>
-      <c r="C178" s="91" t="s">
+      <c r="A178" s="95"/>
+      <c r="B178" s="95"/>
+      <c r="C178" s="98" t="s">
         <v>300</v>
       </c>
       <c r="D178" s="87" t="s">
@@ -4948,9 +4959,9 @@
       <c r="I178" s="87"/>
     </row>
     <row r="179" spans="1:9">
-      <c r="A179" s="89"/>
-      <c r="B179" s="89"/>
-      <c r="C179" s="92"/>
+      <c r="A179" s="96"/>
+      <c r="B179" s="96"/>
+      <c r="C179" s="99"/>
       <c r="D179" s="87" t="s">
         <v>9</v>
       </c>
@@ -4963,9 +4974,9 @@
       <c r="I179" s="87"/>
     </row>
     <row r="180" spans="1:9">
-      <c r="A180" s="89"/>
-      <c r="B180" s="89"/>
-      <c r="C180" s="92"/>
+      <c r="A180" s="96"/>
+      <c r="B180" s="96"/>
+      <c r="C180" s="99"/>
       <c r="D180" s="87" t="s">
         <v>82</v>
       </c>
@@ -4978,9 +4989,9 @@
       <c r="I180" s="87"/>
     </row>
     <row r="181" spans="1:9">
-      <c r="A181" s="89"/>
-      <c r="B181" s="89"/>
-      <c r="C181" s="92"/>
+      <c r="A181" s="96"/>
+      <c r="B181" s="96"/>
+      <c r="C181" s="99"/>
       <c r="D181" s="87" t="s">
         <v>11</v>
       </c>
@@ -4993,9 +5004,9 @@
       <c r="I181" s="87"/>
     </row>
     <row r="182" spans="1:9">
-      <c r="A182" s="89"/>
-      <c r="B182" s="89"/>
-      <c r="C182" s="92"/>
+      <c r="A182" s="96"/>
+      <c r="B182" s="96"/>
+      <c r="C182" s="99"/>
       <c r="D182" s="87" t="s">
         <v>104</v>
       </c>
@@ -5012,9 +5023,9 @@
       <c r="I182" s="87"/>
     </row>
     <row r="183" spans="1:9">
-      <c r="A183" s="89"/>
-      <c r="B183" s="89"/>
-      <c r="C183" s="92"/>
+      <c r="A183" s="96"/>
+      <c r="B183" s="96"/>
+      <c r="C183" s="99"/>
       <c r="D183" s="87" t="s">
         <v>12</v>
       </c>
@@ -5027,9 +5038,9 @@
       <c r="I183" s="87"/>
     </row>
     <row r="184" spans="1:9">
-      <c r="A184" s="89"/>
-      <c r="B184" s="89"/>
-      <c r="C184" s="92"/>
+      <c r="A184" s="96"/>
+      <c r="B184" s="96"/>
+      <c r="C184" s="99"/>
       <c r="D184" s="87" t="s">
         <v>13</v>
       </c>
@@ -5042,9 +5053,9 @@
       <c r="I184" s="87"/>
     </row>
     <row r="185" spans="1:9">
-      <c r="A185" s="89"/>
-      <c r="B185" s="89"/>
-      <c r="C185" s="92"/>
+      <c r="A185" s="96"/>
+      <c r="B185" s="96"/>
+      <c r="C185" s="99"/>
       <c r="D185" s="87" t="s">
         <v>113</v>
       </c>
@@ -5059,9 +5070,9 @@
       <c r="I185" s="87"/>
     </row>
     <row r="186" spans="1:9">
-      <c r="A186" s="89"/>
-      <c r="B186" s="89"/>
-      <c r="C186" s="92"/>
+      <c r="A186" s="96"/>
+      <c r="B186" s="96"/>
+      <c r="C186" s="99"/>
       <c r="D186" s="5" t="s">
         <v>112</v>
       </c>
@@ -5076,9 +5087,9 @@
       <c r="I186" s="87"/>
     </row>
     <row r="187" spans="1:9">
-      <c r="A187" s="89"/>
-      <c r="B187" s="89"/>
-      <c r="C187" s="92"/>
+      <c r="A187" s="96"/>
+      <c r="B187" s="96"/>
+      <c r="C187" s="99"/>
       <c r="D187" s="5" t="s">
         <v>114</v>
       </c>
@@ -5093,9 +5104,9 @@
       <c r="I187" s="87"/>
     </row>
     <row r="188" spans="1:9">
-      <c r="A188" s="90"/>
-      <c r="B188" s="90"/>
-      <c r="C188" s="92"/>
+      <c r="A188" s="97"/>
+      <c r="B188" s="97"/>
+      <c r="C188" s="99"/>
       <c r="D188" s="87"/>
       <c r="E188" s="87"/>
       <c r="F188" s="60"/>
@@ -5104,9 +5115,9 @@
       <c r="I188" s="87"/>
     </row>
     <row r="189" spans="1:9" ht="15" customHeight="1">
-      <c r="A189" s="88"/>
-      <c r="B189" s="88"/>
-      <c r="C189" s="91" t="s">
+      <c r="A189" s="95"/>
+      <c r="B189" s="95"/>
+      <c r="C189" s="98" t="s">
         <v>276</v>
       </c>
       <c r="D189" s="87" t="s">
@@ -5119,9 +5130,9 @@
       <c r="I189" s="87"/>
     </row>
     <row r="190" spans="1:9">
-      <c r="A190" s="89"/>
-      <c r="B190" s="89"/>
-      <c r="C190" s="92"/>
+      <c r="A190" s="96"/>
+      <c r="B190" s="96"/>
+      <c r="C190" s="99"/>
       <c r="D190" s="87" t="s">
         <v>9</v>
       </c>
@@ -5134,9 +5145,9 @@
       <c r="I190" s="87"/>
     </row>
     <row r="191" spans="1:9">
-      <c r="A191" s="89"/>
-      <c r="B191" s="89"/>
-      <c r="C191" s="92"/>
+      <c r="A191" s="96"/>
+      <c r="B191" s="96"/>
+      <c r="C191" s="99"/>
       <c r="D191" s="87" t="s">
         <v>82</v>
       </c>
@@ -5149,9 +5160,9 @@
       <c r="I191" s="87"/>
     </row>
     <row r="192" spans="1:9">
-      <c r="A192" s="89"/>
-      <c r="B192" s="89"/>
-      <c r="C192" s="92"/>
+      <c r="A192" s="96"/>
+      <c r="B192" s="96"/>
+      <c r="C192" s="99"/>
       <c r="D192" s="87" t="s">
         <v>11</v>
       </c>
@@ -5164,9 +5175,9 @@
       <c r="I192" s="87"/>
     </row>
     <row r="193" spans="1:9">
-      <c r="A193" s="89"/>
-      <c r="B193" s="89"/>
-      <c r="C193" s="92"/>
+      <c r="A193" s="96"/>
+      <c r="B193" s="96"/>
+      <c r="C193" s="99"/>
       <c r="D193" s="87" t="s">
         <v>104</v>
       </c>
@@ -5183,9 +5194,9 @@
       <c r="I193" s="87"/>
     </row>
     <row r="194" spans="1:9">
-      <c r="A194" s="89"/>
-      <c r="B194" s="89"/>
-      <c r="C194" s="92"/>
+      <c r="A194" s="96"/>
+      <c r="B194" s="96"/>
+      <c r="C194" s="99"/>
       <c r="D194" s="87" t="s">
         <v>12</v>
       </c>
@@ -5198,9 +5209,9 @@
       <c r="I194" s="87"/>
     </row>
     <row r="195" spans="1:9">
-      <c r="A195" s="89"/>
-      <c r="B195" s="89"/>
-      <c r="C195" s="92"/>
+      <c r="A195" s="96"/>
+      <c r="B195" s="96"/>
+      <c r="C195" s="99"/>
       <c r="D195" s="87" t="s">
         <v>13</v>
       </c>
@@ -5213,9 +5224,9 @@
       <c r="I195" s="87"/>
     </row>
     <row r="196" spans="1:9">
-      <c r="A196" s="89"/>
-      <c r="B196" s="89"/>
-      <c r="C196" s="92"/>
+      <c r="A196" s="96"/>
+      <c r="B196" s="96"/>
+      <c r="C196" s="99"/>
       <c r="D196" s="87" t="s">
         <v>113</v>
       </c>
@@ -5230,9 +5241,9 @@
       <c r="I196" s="87"/>
     </row>
     <row r="197" spans="1:9">
-      <c r="A197" s="89"/>
-      <c r="B197" s="89"/>
-      <c r="C197" s="92"/>
+      <c r="A197" s="96"/>
+      <c r="B197" s="96"/>
+      <c r="C197" s="99"/>
       <c r="D197" s="5" t="s">
         <v>112</v>
       </c>
@@ -5247,9 +5258,9 @@
       <c r="I197" s="87"/>
     </row>
     <row r="198" spans="1:9">
-      <c r="A198" s="89"/>
-      <c r="B198" s="89"/>
-      <c r="C198" s="92"/>
+      <c r="A198" s="96"/>
+      <c r="B198" s="96"/>
+      <c r="C198" s="99"/>
       <c r="D198" s="5" t="s">
         <v>114</v>
       </c>
@@ -5264,9 +5275,9 @@
       <c r="I198" s="87"/>
     </row>
     <row r="199" spans="1:9">
-      <c r="A199" s="90"/>
-      <c r="B199" s="90"/>
-      <c r="C199" s="92"/>
+      <c r="A199" s="97"/>
+      <c r="B199" s="97"/>
+      <c r="C199" s="99"/>
       <c r="D199" s="87"/>
       <c r="E199" s="87"/>
       <c r="F199" s="60"/>
@@ -5275,9 +5286,9 @@
       <c r="I199" s="87"/>
     </row>
     <row r="200" spans="1:9" ht="15" customHeight="1">
-      <c r="A200" s="88"/>
-      <c r="B200" s="88"/>
-      <c r="C200" s="91" t="s">
+      <c r="A200" s="95"/>
+      <c r="B200" s="95"/>
+      <c r="C200" s="98" t="s">
         <v>297</v>
       </c>
       <c r="D200" s="87" t="s">
@@ -5290,9 +5301,9 @@
       <c r="I200" s="87"/>
     </row>
     <row r="201" spans="1:9">
-      <c r="A201" s="89"/>
-      <c r="B201" s="89"/>
-      <c r="C201" s="92"/>
+      <c r="A201" s="96"/>
+      <c r="B201" s="96"/>
+      <c r="C201" s="99"/>
       <c r="D201" s="87" t="s">
         <v>9</v>
       </c>
@@ -5305,9 +5316,9 @@
       <c r="I201" s="87"/>
     </row>
     <row r="202" spans="1:9">
-      <c r="A202" s="89"/>
-      <c r="B202" s="89"/>
-      <c r="C202" s="92"/>
+      <c r="A202" s="96"/>
+      <c r="B202" s="96"/>
+      <c r="C202" s="99"/>
       <c r="D202" s="87" t="s">
         <v>82</v>
       </c>
@@ -5320,9 +5331,9 @@
       <c r="I202" s="87"/>
     </row>
     <row r="203" spans="1:9">
-      <c r="A203" s="89"/>
-      <c r="B203" s="89"/>
-      <c r="C203" s="92"/>
+      <c r="A203" s="96"/>
+      <c r="B203" s="96"/>
+      <c r="C203" s="99"/>
       <c r="D203" s="87" t="s">
         <v>11</v>
       </c>
@@ -5335,9 +5346,9 @@
       <c r="I203" s="87"/>
     </row>
     <row r="204" spans="1:9">
-      <c r="A204" s="89"/>
-      <c r="B204" s="89"/>
-      <c r="C204" s="92"/>
+      <c r="A204" s="96"/>
+      <c r="B204" s="96"/>
+      <c r="C204" s="99"/>
       <c r="D204" s="87" t="s">
         <v>104</v>
       </c>
@@ -5354,9 +5365,9 @@
       <c r="I204" s="87"/>
     </row>
     <row r="205" spans="1:9">
-      <c r="A205" s="89"/>
-      <c r="B205" s="89"/>
-      <c r="C205" s="92"/>
+      <c r="A205" s="96"/>
+      <c r="B205" s="96"/>
+      <c r="C205" s="99"/>
       <c r="D205" s="87" t="s">
         <v>12</v>
       </c>
@@ -5369,9 +5380,9 @@
       <c r="I205" s="87"/>
     </row>
     <row r="206" spans="1:9">
-      <c r="A206" s="89"/>
-      <c r="B206" s="89"/>
-      <c r="C206" s="92"/>
+      <c r="A206" s="96"/>
+      <c r="B206" s="96"/>
+      <c r="C206" s="99"/>
       <c r="D206" s="87" t="s">
         <v>13</v>
       </c>
@@ -5384,9 +5395,9 @@
       <c r="I206" s="87"/>
     </row>
     <row r="207" spans="1:9">
-      <c r="A207" s="89"/>
-      <c r="B207" s="89"/>
-      <c r="C207" s="92"/>
+      <c r="A207" s="96"/>
+      <c r="B207" s="96"/>
+      <c r="C207" s="99"/>
       <c r="D207" s="87" t="s">
         <v>113</v>
       </c>
@@ -5401,9 +5412,9 @@
       <c r="I207" s="87"/>
     </row>
     <row r="208" spans="1:9">
-      <c r="A208" s="89"/>
-      <c r="B208" s="89"/>
-      <c r="C208" s="92"/>
+      <c r="A208" s="96"/>
+      <c r="B208" s="96"/>
+      <c r="C208" s="99"/>
       <c r="D208" s="5" t="s">
         <v>112</v>
       </c>
@@ -5418,9 +5429,9 @@
       <c r="I208" s="87"/>
     </row>
     <row r="209" spans="1:9">
-      <c r="A209" s="89"/>
-      <c r="B209" s="89"/>
-      <c r="C209" s="92"/>
+      <c r="A209" s="96"/>
+      <c r="B209" s="96"/>
+      <c r="C209" s="99"/>
       <c r="D209" s="5" t="s">
         <v>114</v>
       </c>
@@ -5435,9 +5446,9 @@
       <c r="I209" s="87"/>
     </row>
     <row r="210" spans="1:9">
-      <c r="A210" s="90"/>
-      <c r="B210" s="90"/>
-      <c r="C210" s="92"/>
+      <c r="A210" s="97"/>
+      <c r="B210" s="97"/>
+      <c r="C210" s="99"/>
       <c r="D210" s="87"/>
       <c r="E210" s="87"/>
       <c r="F210" s="60"/>
@@ -5446,9 +5457,9 @@
       <c r="I210" s="87"/>
     </row>
     <row r="211" spans="1:9" ht="15" customHeight="1">
-      <c r="A211" s="88"/>
-      <c r="B211" s="88"/>
-      <c r="C211" s="91" t="s">
+      <c r="A211" s="95"/>
+      <c r="B211" s="95"/>
+      <c r="C211" s="98" t="s">
         <v>288</v>
       </c>
       <c r="D211" s="87" t="s">
@@ -5461,9 +5472,9 @@
       <c r="I211" s="87"/>
     </row>
     <row r="212" spans="1:9">
-      <c r="A212" s="89"/>
-      <c r="B212" s="89"/>
-      <c r="C212" s="92"/>
+      <c r="A212" s="96"/>
+      <c r="B212" s="96"/>
+      <c r="C212" s="99"/>
       <c r="D212" s="87" t="s">
         <v>9</v>
       </c>
@@ -5476,9 +5487,9 @@
       <c r="I212" s="87"/>
     </row>
     <row r="213" spans="1:9">
-      <c r="A213" s="89"/>
-      <c r="B213" s="89"/>
-      <c r="C213" s="92"/>
+      <c r="A213" s="96"/>
+      <c r="B213" s="96"/>
+      <c r="C213" s="99"/>
       <c r="D213" s="87" t="s">
         <v>82</v>
       </c>
@@ -5491,9 +5502,9 @@
       <c r="I213" s="87"/>
     </row>
     <row r="214" spans="1:9">
-      <c r="A214" s="89"/>
-      <c r="B214" s="89"/>
-      <c r="C214" s="92"/>
+      <c r="A214" s="96"/>
+      <c r="B214" s="96"/>
+      <c r="C214" s="99"/>
       <c r="D214" s="87" t="s">
         <v>11</v>
       </c>
@@ -5506,9 +5517,9 @@
       <c r="I214" s="87"/>
     </row>
     <row r="215" spans="1:9">
-      <c r="A215" s="89"/>
-      <c r="B215" s="89"/>
-      <c r="C215" s="92"/>
+      <c r="A215" s="96"/>
+      <c r="B215" s="96"/>
+      <c r="C215" s="99"/>
       <c r="D215" s="87" t="s">
         <v>104</v>
       </c>
@@ -5525,9 +5536,9 @@
       <c r="I215" s="87"/>
     </row>
     <row r="216" spans="1:9">
-      <c r="A216" s="89"/>
-      <c r="B216" s="89"/>
-      <c r="C216" s="92"/>
+      <c r="A216" s="96"/>
+      <c r="B216" s="96"/>
+      <c r="C216" s="99"/>
       <c r="D216" s="87" t="s">
         <v>12</v>
       </c>
@@ -5540,9 +5551,9 @@
       <c r="I216" s="87"/>
     </row>
     <row r="217" spans="1:9">
-      <c r="A217" s="89"/>
-      <c r="B217" s="89"/>
-      <c r="C217" s="92"/>
+      <c r="A217" s="96"/>
+      <c r="B217" s="96"/>
+      <c r="C217" s="99"/>
       <c r="D217" s="87" t="s">
         <v>13</v>
       </c>
@@ -5555,9 +5566,9 @@
       <c r="I217" s="87"/>
     </row>
     <row r="218" spans="1:9">
-      <c r="A218" s="89"/>
-      <c r="B218" s="89"/>
-      <c r="C218" s="92"/>
+      <c r="A218" s="96"/>
+      <c r="B218" s="96"/>
+      <c r="C218" s="99"/>
       <c r="D218" s="87" t="s">
         <v>113</v>
       </c>
@@ -5572,9 +5583,9 @@
       <c r="I218" s="87"/>
     </row>
     <row r="219" spans="1:9">
-      <c r="A219" s="89"/>
-      <c r="B219" s="89"/>
-      <c r="C219" s="92"/>
+      <c r="A219" s="96"/>
+      <c r="B219" s="96"/>
+      <c r="C219" s="99"/>
       <c r="D219" s="5" t="s">
         <v>112</v>
       </c>
@@ -5589,9 +5600,9 @@
       <c r="I219" s="87"/>
     </row>
     <row r="220" spans="1:9">
-      <c r="A220" s="89"/>
-      <c r="B220" s="89"/>
-      <c r="C220" s="92"/>
+      <c r="A220" s="96"/>
+      <c r="B220" s="96"/>
+      <c r="C220" s="99"/>
       <c r="D220" s="5" t="s">
         <v>114</v>
       </c>
@@ -5606,9 +5617,9 @@
       <c r="I220" s="87"/>
     </row>
     <row r="221" spans="1:9">
-      <c r="A221" s="90"/>
-      <c r="B221" s="90"/>
-      <c r="C221" s="92"/>
+      <c r="A221" s="97"/>
+      <c r="B221" s="97"/>
+      <c r="C221" s="99"/>
       <c r="D221" s="87"/>
       <c r="E221" s="87"/>
       <c r="F221" s="60"/>
@@ -5617,9 +5628,9 @@
       <c r="I221" s="87"/>
     </row>
     <row r="222" spans="1:9" ht="15" customHeight="1">
-      <c r="A222" s="88"/>
-      <c r="B222" s="88"/>
-      <c r="C222" s="91" t="s">
+      <c r="A222" s="95"/>
+      <c r="B222" s="95"/>
+      <c r="C222" s="98" t="s">
         <v>301</v>
       </c>
       <c r="D222" s="87" t="s">
@@ -5632,9 +5643,9 @@
       <c r="I222" s="87"/>
     </row>
     <row r="223" spans="1:9">
-      <c r="A223" s="89"/>
-      <c r="B223" s="89"/>
-      <c r="C223" s="92"/>
+      <c r="A223" s="96"/>
+      <c r="B223" s="96"/>
+      <c r="C223" s="99"/>
       <c r="D223" s="87" t="s">
         <v>9</v>
       </c>
@@ -5647,9 +5658,9 @@
       <c r="I223" s="87"/>
     </row>
     <row r="224" spans="1:9">
-      <c r="A224" s="89"/>
-      <c r="B224" s="89"/>
-      <c r="C224" s="92"/>
+      <c r="A224" s="96"/>
+      <c r="B224" s="96"/>
+      <c r="C224" s="99"/>
       <c r="D224" s="87" t="s">
         <v>82</v>
       </c>
@@ -5662,9 +5673,9 @@
       <c r="I224" s="87"/>
     </row>
     <row r="225" spans="1:9">
-      <c r="A225" s="89"/>
-      <c r="B225" s="89"/>
-      <c r="C225" s="92"/>
+      <c r="A225" s="96"/>
+      <c r="B225" s="96"/>
+      <c r="C225" s="99"/>
       <c r="D225" s="87" t="s">
         <v>11</v>
       </c>
@@ -5677,9 +5688,9 @@
       <c r="I225" s="87"/>
     </row>
     <row r="226" spans="1:9">
-      <c r="A226" s="89"/>
-      <c r="B226" s="89"/>
-      <c r="C226" s="92"/>
+      <c r="A226" s="96"/>
+      <c r="B226" s="96"/>
+      <c r="C226" s="99"/>
       <c r="D226" s="87" t="s">
         <v>104</v>
       </c>
@@ -5696,9 +5707,9 @@
       <c r="I226" s="87"/>
     </row>
     <row r="227" spans="1:9">
-      <c r="A227" s="89"/>
-      <c r="B227" s="89"/>
-      <c r="C227" s="92"/>
+      <c r="A227" s="96"/>
+      <c r="B227" s="96"/>
+      <c r="C227" s="99"/>
       <c r="D227" s="87" t="s">
         <v>12</v>
       </c>
@@ -5711,9 +5722,9 @@
       <c r="I227" s="87"/>
     </row>
     <row r="228" spans="1:9">
-      <c r="A228" s="89"/>
-      <c r="B228" s="89"/>
-      <c r="C228" s="92"/>
+      <c r="A228" s="96"/>
+      <c r="B228" s="96"/>
+      <c r="C228" s="99"/>
       <c r="D228" s="87" t="s">
         <v>13</v>
       </c>
@@ -5726,9 +5737,9 @@
       <c r="I228" s="87"/>
     </row>
     <row r="229" spans="1:9">
-      <c r="A229" s="89"/>
-      <c r="B229" s="89"/>
-      <c r="C229" s="92"/>
+      <c r="A229" s="96"/>
+      <c r="B229" s="96"/>
+      <c r="C229" s="99"/>
       <c r="D229" s="87" t="s">
         <v>113</v>
       </c>
@@ -5743,9 +5754,9 @@
       <c r="I229" s="87"/>
     </row>
     <row r="230" spans="1:9">
-      <c r="A230" s="89"/>
-      <c r="B230" s="89"/>
-      <c r="C230" s="92"/>
+      <c r="A230" s="96"/>
+      <c r="B230" s="96"/>
+      <c r="C230" s="99"/>
       <c r="D230" s="5" t="s">
         <v>112</v>
       </c>
@@ -5760,9 +5771,9 @@
       <c r="I230" s="87"/>
     </row>
     <row r="231" spans="1:9">
-      <c r="A231" s="89"/>
-      <c r="B231" s="89"/>
-      <c r="C231" s="92"/>
+      <c r="A231" s="96"/>
+      <c r="B231" s="96"/>
+      <c r="C231" s="99"/>
       <c r="D231" s="5" t="s">
         <v>114</v>
       </c>
@@ -5777,9 +5788,9 @@
       <c r="I231" s="87"/>
     </row>
     <row r="232" spans="1:9">
-      <c r="A232" s="90"/>
-      <c r="B232" s="90"/>
-      <c r="C232" s="92"/>
+      <c r="A232" s="97"/>
+      <c r="B232" s="97"/>
+      <c r="C232" s="99"/>
       <c r="D232" s="87"/>
       <c r="E232" s="87"/>
       <c r="F232" s="60"/>
@@ -5788,9 +5799,9 @@
       <c r="I232" s="87"/>
     </row>
     <row r="233" spans="1:9" ht="15" customHeight="1">
-      <c r="A233" s="88"/>
-      <c r="B233" s="88"/>
-      <c r="C233" s="91" t="s">
+      <c r="A233" s="95"/>
+      <c r="B233" s="95"/>
+      <c r="C233" s="98" t="s">
         <v>310</v>
       </c>
       <c r="D233" s="87" t="s">
@@ -5803,9 +5814,9 @@
       <c r="I233" s="87"/>
     </row>
     <row r="234" spans="1:9">
-      <c r="A234" s="89"/>
-      <c r="B234" s="89"/>
-      <c r="C234" s="92"/>
+      <c r="A234" s="96"/>
+      <c r="B234" s="96"/>
+      <c r="C234" s="99"/>
       <c r="D234" s="87" t="s">
         <v>9</v>
       </c>
@@ -5818,9 +5829,9 @@
       <c r="I234" s="87"/>
     </row>
     <row r="235" spans="1:9">
-      <c r="A235" s="89"/>
-      <c r="B235" s="89"/>
-      <c r="C235" s="92"/>
+      <c r="A235" s="96"/>
+      <c r="B235" s="96"/>
+      <c r="C235" s="99"/>
       <c r="D235" s="87" t="s">
         <v>82</v>
       </c>
@@ -5833,9 +5844,9 @@
       <c r="I235" s="87"/>
     </row>
     <row r="236" spans="1:9">
-      <c r="A236" s="89"/>
-      <c r="B236" s="89"/>
-      <c r="C236" s="92"/>
+      <c r="A236" s="96"/>
+      <c r="B236" s="96"/>
+      <c r="C236" s="99"/>
       <c r="D236" s="87" t="s">
         <v>11</v>
       </c>
@@ -5848,9 +5859,9 @@
       <c r="I236" s="87"/>
     </row>
     <row r="237" spans="1:9">
-      <c r="A237" s="89"/>
-      <c r="B237" s="89"/>
-      <c r="C237" s="92"/>
+      <c r="A237" s="96"/>
+      <c r="B237" s="96"/>
+      <c r="C237" s="99"/>
       <c r="D237" s="87" t="s">
         <v>104</v>
       </c>
@@ -5867,9 +5878,9 @@
       <c r="I237" s="87"/>
     </row>
     <row r="238" spans="1:9">
-      <c r="A238" s="89"/>
-      <c r="B238" s="89"/>
-      <c r="C238" s="92"/>
+      <c r="A238" s="96"/>
+      <c r="B238" s="96"/>
+      <c r="C238" s="99"/>
       <c r="D238" s="87" t="s">
         <v>12</v>
       </c>
@@ -5882,9 +5893,9 @@
       <c r="I238" s="87"/>
     </row>
     <row r="239" spans="1:9">
-      <c r="A239" s="89"/>
-      <c r="B239" s="89"/>
-      <c r="C239" s="92"/>
+      <c r="A239" s="96"/>
+      <c r="B239" s="96"/>
+      <c r="C239" s="99"/>
       <c r="D239" s="87" t="s">
         <v>13</v>
       </c>
@@ -5897,9 +5908,9 @@
       <c r="I239" s="87"/>
     </row>
     <row r="240" spans="1:9">
-      <c r="A240" s="89"/>
-      <c r="B240" s="89"/>
-      <c r="C240" s="92"/>
+      <c r="A240" s="96"/>
+      <c r="B240" s="96"/>
+      <c r="C240" s="99"/>
       <c r="D240" s="87" t="s">
         <v>113</v>
       </c>
@@ -5914,9 +5925,9 @@
       <c r="I240" s="87"/>
     </row>
     <row r="241" spans="1:9">
-      <c r="A241" s="89"/>
-      <c r="B241" s="89"/>
-      <c r="C241" s="92"/>
+      <c r="A241" s="96"/>
+      <c r="B241" s="96"/>
+      <c r="C241" s="99"/>
       <c r="D241" s="5" t="s">
         <v>112</v>
       </c>
@@ -5931,9 +5942,9 @@
       <c r="I241" s="87"/>
     </row>
     <row r="242" spans="1:9">
-      <c r="A242" s="89"/>
-      <c r="B242" s="89"/>
-      <c r="C242" s="92"/>
+      <c r="A242" s="96"/>
+      <c r="B242" s="96"/>
+      <c r="C242" s="99"/>
       <c r="D242" s="5" t="s">
         <v>114</v>
       </c>
@@ -5948,9 +5959,9 @@
       <c r="I242" s="87"/>
     </row>
     <row r="243" spans="1:9">
-      <c r="A243" s="90"/>
-      <c r="B243" s="90"/>
-      <c r="C243" s="92"/>
+      <c r="A243" s="97"/>
+      <c r="B243" s="97"/>
+      <c r="C243" s="99"/>
       <c r="D243" s="87"/>
       <c r="E243" s="87"/>
       <c r="F243" s="60"/>
@@ -5959,9 +5970,9 @@
       <c r="I243" s="87"/>
     </row>
     <row r="244" spans="1:9" ht="15" customHeight="1">
-      <c r="A244" s="88"/>
-      <c r="B244" s="88"/>
-      <c r="C244" s="91" t="s">
+      <c r="A244" s="95"/>
+      <c r="B244" s="95"/>
+      <c r="C244" s="98" t="s">
         <v>312</v>
       </c>
       <c r="D244" s="87" t="s">
@@ -5974,9 +5985,9 @@
       <c r="I244" s="87"/>
     </row>
     <row r="245" spans="1:9">
-      <c r="A245" s="89"/>
-      <c r="B245" s="89"/>
-      <c r="C245" s="92"/>
+      <c r="A245" s="96"/>
+      <c r="B245" s="96"/>
+      <c r="C245" s="99"/>
       <c r="D245" s="87" t="s">
         <v>9</v>
       </c>
@@ -5989,9 +6000,9 @@
       <c r="I245" s="87"/>
     </row>
     <row r="246" spans="1:9">
-      <c r="A246" s="89"/>
-      <c r="B246" s="89"/>
-      <c r="C246" s="92"/>
+      <c r="A246" s="96"/>
+      <c r="B246" s="96"/>
+      <c r="C246" s="99"/>
       <c r="D246" s="87" t="s">
         <v>82</v>
       </c>
@@ -6004,9 +6015,9 @@
       <c r="I246" s="87"/>
     </row>
     <row r="247" spans="1:9">
-      <c r="A247" s="89"/>
-      <c r="B247" s="89"/>
-      <c r="C247" s="92"/>
+      <c r="A247" s="96"/>
+      <c r="B247" s="96"/>
+      <c r="C247" s="99"/>
       <c r="D247" s="87" t="s">
         <v>11</v>
       </c>
@@ -6019,9 +6030,9 @@
       <c r="I247" s="87"/>
     </row>
     <row r="248" spans="1:9">
-      <c r="A248" s="89"/>
-      <c r="B248" s="89"/>
-      <c r="C248" s="92"/>
+      <c r="A248" s="96"/>
+      <c r="B248" s="96"/>
+      <c r="C248" s="99"/>
       <c r="D248" s="87" t="s">
         <v>104</v>
       </c>
@@ -6038,9 +6049,9 @@
       <c r="I248" s="87"/>
     </row>
     <row r="249" spans="1:9">
-      <c r="A249" s="89"/>
-      <c r="B249" s="89"/>
-      <c r="C249" s="92"/>
+      <c r="A249" s="96"/>
+      <c r="B249" s="96"/>
+      <c r="C249" s="99"/>
       <c r="D249" s="87" t="s">
         <v>12</v>
       </c>
@@ -6053,9 +6064,9 @@
       <c r="I249" s="87"/>
     </row>
     <row r="250" spans="1:9">
-      <c r="A250" s="89"/>
-      <c r="B250" s="89"/>
-      <c r="C250" s="92"/>
+      <c r="A250" s="96"/>
+      <c r="B250" s="96"/>
+      <c r="C250" s="99"/>
       <c r="D250" s="87" t="s">
         <v>13</v>
       </c>
@@ -6068,9 +6079,9 @@
       <c r="I250" s="87"/>
     </row>
     <row r="251" spans="1:9">
-      <c r="A251" s="89"/>
-      <c r="B251" s="89"/>
-      <c r="C251" s="92"/>
+      <c r="A251" s="96"/>
+      <c r="B251" s="96"/>
+      <c r="C251" s="99"/>
       <c r="D251" s="87" t="s">
         <v>113</v>
       </c>
@@ -6085,9 +6096,9 @@
       <c r="I251" s="87"/>
     </row>
     <row r="252" spans="1:9">
-      <c r="A252" s="89"/>
-      <c r="B252" s="89"/>
-      <c r="C252" s="92"/>
+      <c r="A252" s="96"/>
+      <c r="B252" s="96"/>
+      <c r="C252" s="99"/>
       <c r="D252" s="5" t="s">
         <v>112</v>
       </c>
@@ -6102,9 +6113,9 @@
       <c r="I252" s="87"/>
     </row>
     <row r="253" spans="1:9">
-      <c r="A253" s="89"/>
-      <c r="B253" s="89"/>
-      <c r="C253" s="92"/>
+      <c r="A253" s="96"/>
+      <c r="B253" s="96"/>
+      <c r="C253" s="99"/>
       <c r="D253" s="5" t="s">
         <v>114</v>
       </c>
@@ -6119,9 +6130,9 @@
       <c r="I253" s="87"/>
     </row>
     <row r="254" spans="1:9">
-      <c r="A254" s="90"/>
-      <c r="B254" s="90"/>
-      <c r="C254" s="92"/>
+      <c r="A254" s="97"/>
+      <c r="B254" s="97"/>
+      <c r="C254" s="99"/>
       <c r="D254" s="87"/>
       <c r="E254" s="87"/>
       <c r="F254" s="60"/>
@@ -6129,31 +6140,212 @@
       <c r="H254" s="87"/>
       <c r="I254" s="87"/>
     </row>
+    <row r="255" spans="1:9" ht="15" customHeight="1">
+      <c r="A255" s="95"/>
+      <c r="B255" s="95"/>
+      <c r="C255" s="98" t="s">
+        <v>314</v>
+      </c>
+      <c r="D255" s="87" t="s">
+        <v>8</v>
+      </c>
+      <c r="E255" s="87"/>
+      <c r="F255" s="60"/>
+      <c r="G255" s="87"/>
+      <c r="H255" s="87"/>
+      <c r="I255" s="87"/>
+    </row>
+    <row r="256" spans="1:9">
+      <c r="A256" s="96"/>
+      <c r="B256" s="96"/>
+      <c r="C256" s="99"/>
+      <c r="D256" s="87" t="s">
+        <v>9</v>
+      </c>
+      <c r="E256" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F256" s="68"/>
+      <c r="G256" s="87"/>
+      <c r="H256" s="87"/>
+      <c r="I256" s="87"/>
+    </row>
+    <row r="257" spans="1:9">
+      <c r="A257" s="96"/>
+      <c r="B257" s="96"/>
+      <c r="C257" s="99"/>
+      <c r="D257" s="87" t="s">
+        <v>82</v>
+      </c>
+      <c r="E257" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F257" s="68"/>
+      <c r="G257" s="87"/>
+      <c r="H257" s="87"/>
+      <c r="I257" s="87"/>
+    </row>
+    <row r="258" spans="1:9">
+      <c r="A258" s="96"/>
+      <c r="B258" s="96"/>
+      <c r="C258" s="99"/>
+      <c r="D258" s="87" t="s">
+        <v>11</v>
+      </c>
+      <c r="E258" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="F258" s="68"/>
+      <c r="G258" s="87"/>
+      <c r="H258" s="87"/>
+      <c r="I258" s="87"/>
+    </row>
+    <row r="259" spans="1:9">
+      <c r="A259" s="96"/>
+      <c r="B259" s="96"/>
+      <c r="C259" s="99"/>
+      <c r="D259" s="87" t="s">
+        <v>104</v>
+      </c>
+      <c r="E259" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="F259" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="G259" s="87" t="s">
+        <v>111</v>
+      </c>
+      <c r="H259" s="87"/>
+      <c r="I259" s="87"/>
+    </row>
+    <row r="260" spans="1:9">
+      <c r="A260" s="96"/>
+      <c r="B260" s="96"/>
+      <c r="C260" s="99"/>
+      <c r="D260" s="87" t="s">
+        <v>12</v>
+      </c>
+      <c r="E260" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="F260" s="60"/>
+      <c r="G260" s="87"/>
+      <c r="H260" s="87"/>
+      <c r="I260" s="87"/>
+    </row>
+    <row r="261" spans="1:9">
+      <c r="A261" s="96"/>
+      <c r="B261" s="96"/>
+      <c r="C261" s="99"/>
+      <c r="D261" s="87" t="s">
+        <v>13</v>
+      </c>
+      <c r="E261" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="F261" s="60"/>
+      <c r="G261" s="87"/>
+      <c r="H261" s="87"/>
+      <c r="I261" s="87"/>
+    </row>
+    <row r="262" spans="1:9">
+      <c r="A262" s="96"/>
+      <c r="B262" s="96"/>
+      <c r="C262" s="99"/>
+      <c r="D262" s="87" t="s">
+        <v>113</v>
+      </c>
+      <c r="E262" s="9"/>
+      <c r="F262" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="G262" s="87" t="s">
+        <v>115</v>
+      </c>
+      <c r="H262" s="87"/>
+      <c r="I262" s="87"/>
+    </row>
+    <row r="263" spans="1:9">
+      <c r="A263" s="96"/>
+      <c r="B263" s="96"/>
+      <c r="C263" s="99"/>
+      <c r="D263" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E263" s="9"/>
+      <c r="F263" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="G263" s="87" t="s">
+        <v>116</v>
+      </c>
+      <c r="H263" s="87"/>
+      <c r="I263" s="87"/>
+    </row>
+    <row r="264" spans="1:9">
+      <c r="A264" s="96"/>
+      <c r="B264" s="96"/>
+      <c r="C264" s="99"/>
+      <c r="D264" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E264" s="9"/>
+      <c r="F264" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="G264" s="87" t="s">
+        <v>116</v>
+      </c>
+      <c r="H264" s="87"/>
+      <c r="I264" s="87"/>
+    </row>
+    <row r="265" spans="1:9">
+      <c r="A265" s="97"/>
+      <c r="B265" s="97"/>
+      <c r="C265" s="99"/>
+      <c r="D265" s="87"/>
+      <c r="E265" s="87"/>
+      <c r="F265" s="60"/>
+      <c r="G265" s="87"/>
+      <c r="H265" s="87"/>
+      <c r="I265" s="87"/>
+    </row>
   </sheetData>
-  <mergeCells count="69">
-    <mergeCell ref="A233:A243"/>
-    <mergeCell ref="B233:B243"/>
-    <mergeCell ref="C233:C243"/>
-    <mergeCell ref="A244:A254"/>
-    <mergeCell ref="B244:B254"/>
-    <mergeCell ref="C244:C254"/>
-    <mergeCell ref="A222:A232"/>
-    <mergeCell ref="B222:B232"/>
-    <mergeCell ref="C222:C232"/>
-    <mergeCell ref="A211:A221"/>
-    <mergeCell ref="B211:B221"/>
-    <mergeCell ref="C211:C221"/>
-    <mergeCell ref="A90:A100"/>
-    <mergeCell ref="B90:B100"/>
-    <mergeCell ref="C90:C100"/>
-    <mergeCell ref="A101:A111"/>
-    <mergeCell ref="B101:B111"/>
-    <mergeCell ref="C101:C111"/>
-    <mergeCell ref="B112:B122"/>
-    <mergeCell ref="C112:C122"/>
-    <mergeCell ref="A123:A133"/>
-    <mergeCell ref="B123:B133"/>
-    <mergeCell ref="C123:C133"/>
+  <mergeCells count="72">
+    <mergeCell ref="A255:A265"/>
+    <mergeCell ref="B255:B265"/>
+    <mergeCell ref="C255:C265"/>
+    <mergeCell ref="A167:A177"/>
+    <mergeCell ref="B167:B177"/>
+    <mergeCell ref="C167:C177"/>
+    <mergeCell ref="A200:A210"/>
+    <mergeCell ref="B200:B210"/>
+    <mergeCell ref="C200:C210"/>
+    <mergeCell ref="A178:A188"/>
+    <mergeCell ref="B178:B188"/>
+    <mergeCell ref="C178:C188"/>
+    <mergeCell ref="A189:A199"/>
+    <mergeCell ref="B189:B199"/>
+    <mergeCell ref="C189:C199"/>
+    <mergeCell ref="A145:A155"/>
+    <mergeCell ref="B145:B155"/>
+    <mergeCell ref="C145:C155"/>
+    <mergeCell ref="A156:A166"/>
+    <mergeCell ref="B156:B166"/>
+    <mergeCell ref="C156:C166"/>
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="B2:B12"/>
+    <mergeCell ref="C2:C12"/>
+    <mergeCell ref="A13:A23"/>
+    <mergeCell ref="B13:B23"/>
+    <mergeCell ref="C13:C23"/>
+    <mergeCell ref="A24:A34"/>
+    <mergeCell ref="B24:B34"/>
+    <mergeCell ref="C24:C34"/>
+    <mergeCell ref="A35:A45"/>
+    <mergeCell ref="B35:B45"/>
+    <mergeCell ref="C35:C45"/>
     <mergeCell ref="A134:A144"/>
     <mergeCell ref="A79:A89"/>
     <mergeCell ref="B79:B89"/>
@@ -6170,36 +6362,29 @@
     <mergeCell ref="B134:B144"/>
     <mergeCell ref="C134:C144"/>
     <mergeCell ref="A112:A122"/>
-    <mergeCell ref="A24:A34"/>
-    <mergeCell ref="B24:B34"/>
-    <mergeCell ref="C24:C34"/>
-    <mergeCell ref="A35:A45"/>
-    <mergeCell ref="B35:B45"/>
-    <mergeCell ref="C35:C45"/>
-    <mergeCell ref="A2:A12"/>
-    <mergeCell ref="B2:B12"/>
-    <mergeCell ref="C2:C12"/>
-    <mergeCell ref="A13:A23"/>
-    <mergeCell ref="B13:B23"/>
-    <mergeCell ref="C13:C23"/>
-    <mergeCell ref="A145:A155"/>
-    <mergeCell ref="B145:B155"/>
-    <mergeCell ref="C145:C155"/>
-    <mergeCell ref="A156:A166"/>
-    <mergeCell ref="B156:B166"/>
-    <mergeCell ref="C156:C166"/>
-    <mergeCell ref="A167:A177"/>
-    <mergeCell ref="B167:B177"/>
-    <mergeCell ref="C167:C177"/>
-    <mergeCell ref="A200:A210"/>
-    <mergeCell ref="B200:B210"/>
-    <mergeCell ref="C200:C210"/>
-    <mergeCell ref="A178:A188"/>
-    <mergeCell ref="B178:B188"/>
-    <mergeCell ref="C178:C188"/>
-    <mergeCell ref="A189:A199"/>
-    <mergeCell ref="B189:B199"/>
-    <mergeCell ref="C189:C199"/>
+    <mergeCell ref="B112:B122"/>
+    <mergeCell ref="C112:C122"/>
+    <mergeCell ref="A123:A133"/>
+    <mergeCell ref="B123:B133"/>
+    <mergeCell ref="C123:C133"/>
+    <mergeCell ref="A90:A100"/>
+    <mergeCell ref="B90:B100"/>
+    <mergeCell ref="C90:C100"/>
+    <mergeCell ref="A101:A111"/>
+    <mergeCell ref="B101:B111"/>
+    <mergeCell ref="C101:C111"/>
+    <mergeCell ref="A222:A232"/>
+    <mergeCell ref="B222:B232"/>
+    <mergeCell ref="C222:C232"/>
+    <mergeCell ref="A211:A221"/>
+    <mergeCell ref="B211:B221"/>
+    <mergeCell ref="C211:C221"/>
+    <mergeCell ref="A233:A243"/>
+    <mergeCell ref="B233:B243"/>
+    <mergeCell ref="C233:C243"/>
+    <mergeCell ref="A244:A254"/>
+    <mergeCell ref="B244:B254"/>
+    <mergeCell ref="C244:C254"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F220" location="Test_53week_20!A1" display="Test_53week_20"/>
@@ -6432,6 +6617,16 @@
     <hyperlink ref="F251" location="Test_53week_23!A1" display="Test_53week_23"/>
     <hyperlink ref="F252" location="Test_53week_23!A1" display="Test_53week_23"/>
     <hyperlink ref="F253" location="Test_53week_23!A1" display="Test_53week_23"/>
+    <hyperlink ref="E257" r:id="rId47"/>
+    <hyperlink ref="E256" r:id="rId48"/>
+    <hyperlink ref="E258" location="Test_53week_24!A1" display="Test_53week_24"/>
+    <hyperlink ref="E259" location="Test_53week_24!A1" display="Test_53week_24"/>
+    <hyperlink ref="E260" location="Test_53week_24!A1" display="Test_53week_24"/>
+    <hyperlink ref="E261" location="Test_53week_24!A1" display="Test_53week_24"/>
+    <hyperlink ref="F259" location="Test_53week_24!A1" display="Test_53week_24"/>
+    <hyperlink ref="F262" location="Test_53week_24!A1" display="Test_53week_24"/>
+    <hyperlink ref="F263" location="Test_53week_24!A1" display="Test_53week_24"/>
+    <hyperlink ref="F264" location="Test_53week_24!A1" display="Test_53week_24"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18959,8 +19154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BJ54"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView topLeftCell="A27" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1"/>
@@ -19232,8 +19427,8 @@
       <c r="C19" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="D19" s="99"/>
-      <c r="E19" s="100"/>
+      <c r="D19" s="92"/>
+      <c r="E19" s="93"/>
       <c r="F19" s="35"/>
       <c r="G19" s="35"/>
       <c r="H19" s="35" t="s">
@@ -19270,8 +19465,8 @@
       <c r="C20" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="D20" s="100"/>
-      <c r="E20" s="100"/>
+      <c r="D20" s="93"/>
+      <c r="E20" s="93"/>
       <c r="F20" s="35"/>
       <c r="G20" s="35"/>
       <c r="H20" s="35" t="s">
@@ -19301,11 +19496,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="21" spans="1:21" outlineLevel="1">
+    <row r="21" spans="1:21" ht="30" outlineLevel="1">
       <c r="B21" s="35" t="s">
         <v>266</v>
       </c>
-      <c r="C21" s="98" t="s">
+      <c r="C21" s="91" t="s">
         <v>304</v>
       </c>
       <c r="D21" s="36">
@@ -19314,7 +19509,7 @@
       <c r="E21" s="35"/>
       <c r="F21" s="35"/>
       <c r="G21" s="35"/>
-      <c r="H21" s="98" t="s">
+      <c r="H21" s="91" t="s">
         <v>304</v>
       </c>
       <c r="I21" s="35"/>
@@ -19341,7 +19536,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="22" spans="1:21" outlineLevel="1">
+    <row r="22" spans="1:21" ht="30" outlineLevel="1">
       <c r="B22" s="35" t="s">
         <v>307</v>
       </c>
@@ -19893,28 +20088,28 @@
       <c r="B48" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="C48" s="96" t="s">
+      <c r="C48" s="89" t="s">
         <v>85</v>
       </c>
-      <c r="D48" s="97">
+      <c r="D48" s="90">
         <v>201951</v>
       </c>
-      <c r="E48" s="97">
+      <c r="E48" s="90">
         <v>201952</v>
       </c>
-      <c r="F48" s="97"/>
-      <c r="G48" s="97">
+      <c r="F48" s="90"/>
+      <c r="G48" s="90">
         <v>202001</v>
       </c>
-      <c r="H48" s="97">
+      <c r="H48" s="90">
         <v>202002</v>
       </c>
     </row>
     <row r="49" spans="2:8">
-      <c r="B49" s="95" t="s">
+      <c r="B49" s="88" t="s">
         <v>98</v>
       </c>
-      <c r="C49" s="98" t="s">
+      <c r="C49" s="91" t="s">
         <v>304</v>
       </c>
       <c r="D49" s="46"/>
@@ -19936,26 +20131,26 @@
       </c>
     </row>
     <row r="50" spans="2:8">
-      <c r="B50" s="95" t="s">
+      <c r="B50" s="88" t="s">
         <v>98</v>
       </c>
       <c r="C50" s="35" t="s">
         <v>305</v>
       </c>
-      <c r="D50" s="101">
+      <c r="D50" s="94">
         <f>D48-E48</f>
         <v>-1</v>
       </c>
-      <c r="E50" s="101">
+      <c r="E50" s="94">
         <f>E48-G48</f>
         <v>-49</v>
       </c>
-      <c r="F50" s="101"/>
-      <c r="G50" s="101">
-        <f t="shared" ref="E50:H50" si="1">G48-H48</f>
+      <c r="F50" s="94"/>
+      <c r="G50" s="94">
+        <f t="shared" ref="G50" si="1">G48-H48</f>
         <v>-1</v>
       </c>
-      <c r="H50" s="101"/>
+      <c r="H50" s="94"/>
     </row>
     <row r="54" spans="2:8">
       <c r="D54" s="2"/>
@@ -19975,7 +20170,7 @@
   <dimension ref="A1:BJ56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A33" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I51" sqref="I51"/>
+      <selection activeCell="I58" sqref="I58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1"/>
@@ -19985,7 +20180,7 @@
     <col min="3" max="3" width="31.28515625" style="31" customWidth="1"/>
     <col min="4" max="4" width="17.28515625" style="31" customWidth="1"/>
     <col min="5" max="5" width="11.85546875" style="31" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" style="31" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" style="31" customWidth="1"/>
     <col min="7" max="7" width="10.28515625" style="31" customWidth="1"/>
     <col min="8" max="8" width="18.140625" style="31" customWidth="1"/>
     <col min="9" max="9" width="14.28515625" style="31" customWidth="1"/>
@@ -20247,8 +20442,8 @@
       <c r="C19" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="D19" s="99"/>
-      <c r="E19" s="100"/>
+      <c r="D19" s="92"/>
+      <c r="E19" s="93"/>
       <c r="F19" s="35"/>
       <c r="G19" s="35"/>
       <c r="H19" s="35" t="s">
@@ -20285,8 +20480,8 @@
       <c r="C20" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="D20" s="100"/>
-      <c r="E20" s="100"/>
+      <c r="D20" s="93"/>
+      <c r="E20" s="93"/>
       <c r="F20" s="35"/>
       <c r="G20" s="35"/>
       <c r="H20" s="35" t="s">
@@ -20320,7 +20515,7 @@
       <c r="B21" s="35" t="s">
         <v>266</v>
       </c>
-      <c r="C21" s="98" t="s">
+      <c r="C21" s="91" t="s">
         <v>304</v>
       </c>
       <c r="D21" s="36">
@@ -20329,7 +20524,7 @@
       <c r="E21" s="35"/>
       <c r="F21" s="35"/>
       <c r="G21" s="35"/>
-      <c r="H21" s="98" t="s">
+      <c r="H21" s="91" t="s">
         <v>304</v>
       </c>
       <c r="I21" s="35"/>
@@ -20687,9 +20882,7 @@
       <c r="J38" s="46">
         <v>202052</v>
       </c>
-      <c r="K38" s="46">
-        <v>202053</v>
-      </c>
+      <c r="K38" s="46"/>
       <c r="L38" s="46">
         <v>202101</v>
       </c>
@@ -20774,9 +20967,7 @@
       <c r="J39" s="46">
         <v>202052</v>
       </c>
-      <c r="K39" s="46">
-        <v>202053</v>
-      </c>
+      <c r="K39" s="46"/>
       <c r="L39" s="46">
         <v>202101</v>
       </c>
@@ -20894,9 +21085,7 @@
       <c r="E47" s="46">
         <v>202052</v>
       </c>
-      <c r="F47" s="46">
-        <v>202053</v>
-      </c>
+      <c r="F47" s="46"/>
       <c r="G47" s="46">
         <v>202101</v>
       </c>
@@ -20908,65 +21097,67 @@
       <c r="B48" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="C48" s="96" t="s">
+      <c r="C48" s="89" t="s">
         <v>85</v>
       </c>
-      <c r="D48" s="97">
+      <c r="D48" s="90">
         <v>201951</v>
       </c>
-      <c r="E48" s="97">
+      <c r="E48" s="90">
         <v>201952</v>
       </c>
-      <c r="F48" s="97"/>
-      <c r="G48" s="97">
+      <c r="F48" s="90"/>
+      <c r="G48" s="90">
         <v>202001</v>
       </c>
-      <c r="H48" s="97">
+      <c r="H48" s="90">
         <v>202002</v>
       </c>
     </row>
     <row r="49" spans="1:8">
-      <c r="B49" s="95" t="s">
+      <c r="B49" s="88" t="s">
         <v>98</v>
       </c>
-      <c r="C49" s="98" t="s">
+      <c r="C49" s="91" t="s">
         <v>304</v>
       </c>
       <c r="D49" s="46"/>
       <c r="E49" s="35">
         <v>1</v>
       </c>
-      <c r="F49" s="35">
-        <v>1</v>
-      </c>
-      <c r="G49" s="35">
-        <v>48</v>
+      <c r="F49" s="94">
+        <f>F47-E47</f>
+        <v>-202052</v>
+      </c>
+      <c r="G49" s="94">
+        <f>G47-F47</f>
+        <v>202101</v>
       </c>
       <c r="H49" s="35">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:8">
-      <c r="B50" s="95" t="s">
+      <c r="B50" s="88" t="s">
         <v>98</v>
       </c>
       <c r="C50" s="35" t="s">
         <v>305</v>
       </c>
-      <c r="D50" s="101">
+      <c r="D50" s="94">
         <f>D48-E48</f>
         <v>-1</v>
       </c>
-      <c r="E50" s="101">
+      <c r="E50" s="94">
         <f>E48-G48</f>
         <v>-49</v>
       </c>
-      <c r="F50" s="101"/>
-      <c r="G50" s="101">
-        <f t="shared" ref="G50:J50" si="0">G48-H48</f>
+      <c r="F50" s="94"/>
+      <c r="G50" s="94">
+        <f t="shared" ref="G50" si="0">G48-H48</f>
         <v>-1</v>
       </c>
-      <c r="H50" s="101"/>
+      <c r="H50" s="94"/>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="34" t="s">
@@ -21000,65 +21191,65 @@
       <c r="B54" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="C54" s="96" t="s">
+      <c r="C54" s="89" t="s">
         <v>85</v>
       </c>
-      <c r="D54" s="97">
+      <c r="D54" s="90">
         <v>201951</v>
       </c>
-      <c r="E54" s="97">
+      <c r="E54" s="90">
         <v>201952</v>
       </c>
-      <c r="F54" s="97"/>
-      <c r="G54" s="97">
+      <c r="F54" s="90"/>
+      <c r="G54" s="90">
         <v>202001</v>
       </c>
-      <c r="H54" s="97">
+      <c r="H54" s="90">
         <v>202002</v>
       </c>
     </row>
     <row r="55" spans="1:8">
-      <c r="B55" s="95" t="s">
+      <c r="B55" s="88" t="s">
         <v>98</v>
       </c>
-      <c r="C55" s="98" t="s">
+      <c r="C55" s="91" t="s">
         <v>304</v>
       </c>
       <c r="D55" s="46"/>
       <c r="E55" s="35">
         <v>1</v>
       </c>
-      <c r="F55" s="35">
-        <v>1</v>
-      </c>
-      <c r="G55" s="35">
-        <v>48</v>
+      <c r="F55" s="94">
+        <v>-202052</v>
+      </c>
+      <c r="G55" s="94">
+        <v>-202101</v>
       </c>
       <c r="H55" s="35">
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8">
-      <c r="B56" s="95" t="s">
+      <c r="B56" s="88" t="s">
         <v>98</v>
       </c>
       <c r="C56" s="35" t="s">
         <v>305</v>
       </c>
-      <c r="D56" s="101">
+      <c r="D56" s="94">
         <f>D54-E54</f>
         <v>-1</v>
       </c>
-      <c r="E56" s="101">
+      <c r="E56" s="94">
         <f>E54-G54</f>
         <v>-49</v>
       </c>
-      <c r="F56" s="101"/>
-      <c r="G56" s="101">
-        <f t="shared" ref="G56:H56" si="1">G54-H54</f>
+      <c r="F56" s="94"/>
+      <c r="G56" s="94">
+        <f t="shared" ref="G56" si="1">G54-H54</f>
         <v>-1</v>
       </c>
-      <c r="H56" s="101"/>
+      <c r="H56" s="94"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21068,11 +21259,1105 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BJ55"/>
+  <sheetViews>
+    <sheetView topLeftCell="A35" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="22.7109375" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" style="31" customWidth="1"/>
+    <col min="3" max="3" width="31.28515625" style="31" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" style="31" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" style="31" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" style="31" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" style="31" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="31" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" style="31" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="31" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" style="31" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" style="31" customWidth="1"/>
+    <col min="15" max="17" width="10.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="9.140625" style="31" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="10.28515625" style="31" customWidth="1"/>
+    <col min="22" max="22" width="10.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.140625" style="31"/>
+    <col min="24" max="26" width="10.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.140625" style="31"/>
+    <col min="28" max="30" width="10.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="9.140625" style="31"/>
+    <col min="33" max="35" width="10.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="9.140625" style="31"/>
+    <col min="37" max="39" width="10.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="9.140625" style="31"/>
+    <col min="41" max="45" width="10.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="46" max="48" width="11.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="10.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="50" max="52" width="11.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="10.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="54" max="57" width="11.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="9.140625" style="31"/>
+    <col min="59" max="61" width="10.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="62" max="16384" width="9.140625" style="31"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="34" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" outlineLevel="1">
+      <c r="B2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" outlineLevel="1">
+      <c r="B3" s="35"/>
+      <c r="C3" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+    </row>
+    <row r="4" spans="1:5" outlineLevel="1">
+      <c r="B4" s="35"/>
+      <c r="C4" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="35"/>
+    </row>
+    <row r="5" spans="1:5" outlineLevel="1">
+      <c r="B5" s="35"/>
+      <c r="C5" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="36">
+        <v>5</v>
+      </c>
+      <c r="E5" s="35"/>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" outlineLevel="1">
+      <c r="B6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" outlineLevel="1">
+      <c r="B7" s="35"/>
+      <c r="C7" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="35"/>
+    </row>
+    <row r="8" spans="1:5" outlineLevel="1">
+      <c r="B8" s="35"/>
+      <c r="C8" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="64" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" outlineLevel="1">
+      <c r="B9" s="35"/>
+      <c r="C9" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+    </row>
+    <row r="10" spans="1:5" outlineLevel="1">
+      <c r="B10" s="35"/>
+      <c r="C10" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+    </row>
+    <row r="11" spans="1:5" outlineLevel="1">
+      <c r="B11" s="35"/>
+      <c r="C11" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+    </row>
+    <row r="12" spans="1:5" outlineLevel="1">
+      <c r="B12" s="35"/>
+      <c r="C12" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+    </row>
+    <row r="13" spans="1:5" outlineLevel="1">
+      <c r="B13" s="35"/>
+      <c r="C13" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+    </row>
+    <row r="14" spans="1:5" outlineLevel="1">
+      <c r="B14" s="35"/>
+      <c r="C14" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" outlineLevel="1">
+      <c r="B15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" outlineLevel="1">
+      <c r="B16" s="35"/>
+      <c r="C16" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="35"/>
+    </row>
+    <row r="17" spans="1:21">
+      <c r="A17" s="34" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="30" outlineLevel="1">
+      <c r="B18" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="41" t="s">
+        <v>308</v>
+      </c>
+      <c r="E18" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="G18" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="H18" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="I18" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="J18" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="K18" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="L18" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="M18" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="N18" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="O18" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="P18" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q18" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="R18" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="S18" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="T18" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="U18" s="35" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="30" outlineLevel="1">
+      <c r="B19" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" s="92"/>
+      <c r="E19" s="93"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="87">
+        <v>0</v>
+      </c>
+      <c r="L19" s="87">
+        <v>0</v>
+      </c>
+      <c r="M19" s="35"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="35"/>
+      <c r="P19" s="35"/>
+      <c r="Q19" s="35"/>
+      <c r="R19" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="S19" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="T19" s="35"/>
+      <c r="U19" s="35" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" ht="30" outlineLevel="1">
+      <c r="B20" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" s="93"/>
+      <c r="E20" s="93"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="87">
+        <v>0</v>
+      </c>
+      <c r="L20" s="87">
+        <v>0</v>
+      </c>
+      <c r="M20" s="35"/>
+      <c r="N20" s="35"/>
+      <c r="O20" s="35"/>
+      <c r="P20" s="35"/>
+      <c r="Q20" s="35"/>
+      <c r="R20" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="S20" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="T20" s="35"/>
+      <c r="U20" s="35" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" ht="30" outlineLevel="1">
+      <c r="B21" s="35" t="s">
+        <v>266</v>
+      </c>
+      <c r="C21" s="91" t="s">
+        <v>304</v>
+      </c>
+      <c r="D21" s="36">
+        <v>1</v>
+      </c>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="91" t="s">
+        <v>304</v>
+      </c>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="87">
+        <v>0</v>
+      </c>
+      <c r="L21" s="87">
+        <v>0</v>
+      </c>
+      <c r="M21" s="35"/>
+      <c r="N21" s="35"/>
+      <c r="O21" s="35"/>
+      <c r="P21" s="35"/>
+      <c r="Q21" s="35"/>
+      <c r="R21" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="S21" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="T21" s="35"/>
+      <c r="U21" s="35" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" ht="30" outlineLevel="1">
+      <c r="B22" s="35" t="s">
+        <v>307</v>
+      </c>
+      <c r="C22" s="35" t="s">
+        <v>305</v>
+      </c>
+      <c r="D22" s="36">
+        <v>2</v>
+      </c>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35" t="s">
+        <v>305</v>
+      </c>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="87">
+        <v>0</v>
+      </c>
+      <c r="L22" s="87">
+        <v>0</v>
+      </c>
+      <c r="M22" s="35"/>
+      <c r="N22" s="35"/>
+      <c r="O22" s="35"/>
+      <c r="P22" s="35"/>
+      <c r="Q22" s="35"/>
+      <c r="R22" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="S22" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="T22" s="35"/>
+      <c r="U22" s="35" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
+      <c r="A23" s="34" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" ht="15.75" outlineLevel="1">
+      <c r="B24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" outlineLevel="1">
+      <c r="B25" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+    </row>
+    <row r="26" spans="1:21" outlineLevel="1">
+      <c r="B26" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+    </row>
+    <row r="27" spans="1:21" outlineLevel="1">
+      <c r="B27" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+    </row>
+    <row r="28" spans="1:21" outlineLevel="1"/>
+    <row r="29" spans="1:21" ht="22.5" outlineLevel="1">
+      <c r="B29" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="J29" s="10"/>
+    </row>
+    <row r="30" spans="1:21" outlineLevel="1">
+      <c r="B30" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="D30" s="35">
+        <v>1</v>
+      </c>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="J30" s="35"/>
+    </row>
+    <row r="31" spans="1:21" outlineLevel="1">
+      <c r="B31" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="C31" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="D31" s="35">
+        <v>1</v>
+      </c>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="J31" s="35"/>
+    </row>
+    <row r="32" spans="1:21" outlineLevel="1">
+      <c r="B32" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="C32" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="D32" s="35">
+        <v>1</v>
+      </c>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="J32" s="35"/>
+    </row>
+    <row r="33" spans="1:62" outlineLevel="1">
+      <c r="B33" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="C33" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="D33" s="35">
+        <v>1</v>
+      </c>
+      <c r="E33" s="35"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="J33" s="35"/>
+    </row>
+    <row r="34" spans="1:62" outlineLevel="1">
+      <c r="B34" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="C34" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="D34" s="35">
+        <v>1</v>
+      </c>
+      <c r="E34" s="35"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="J34" s="35"/>
+    </row>
+    <row r="35" spans="1:62" outlineLevel="1">
+      <c r="B35" s="49"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="49"/>
+      <c r="I35" s="49"/>
+      <c r="J35" s="49"/>
+    </row>
+    <row r="36" spans="1:62">
+      <c r="A36" s="34" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="37" spans="1:62" s="2" customFormat="1">
+      <c r="B37" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="C37" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="D37" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="E37" s="45">
+        <v>43817</v>
+      </c>
+      <c r="F37" s="45">
+        <v>43824</v>
+      </c>
+      <c r="G37" s="45">
+        <v>43831</v>
+      </c>
+      <c r="H37" s="45">
+        <v>43838</v>
+      </c>
+      <c r="I37" s="45">
+        <v>43845</v>
+      </c>
+      <c r="J37" s="45">
+        <v>44181</v>
+      </c>
+      <c r="K37" s="45">
+        <v>44188</v>
+      </c>
+      <c r="L37" s="45">
+        <v>44195</v>
+      </c>
+      <c r="M37" s="45">
+        <v>44202</v>
+      </c>
+      <c r="N37" s="45">
+        <v>44209</v>
+      </c>
+      <c r="O37" s="45">
+        <v>44216</v>
+      </c>
+      <c r="P37" s="31"/>
+      <c r="Q37" s="31"/>
+      <c r="R37" s="31"/>
+      <c r="S37" s="31"/>
+      <c r="T37" s="31"/>
+      <c r="U37" s="31"/>
+      <c r="V37" s="31"/>
+      <c r="W37" s="31"/>
+      <c r="X37" s="31"/>
+      <c r="Y37" s="31"/>
+      <c r="Z37" s="31"/>
+      <c r="AA37" s="31"/>
+      <c r="AB37" s="31"/>
+      <c r="AC37" s="31"/>
+      <c r="AD37" s="31"/>
+      <c r="AE37" s="31"/>
+      <c r="AF37" s="31"/>
+      <c r="AG37" s="31"/>
+      <c r="AH37" s="31"/>
+      <c r="AI37" s="31"/>
+      <c r="AJ37" s="31"/>
+      <c r="AK37" s="31"/>
+      <c r="AL37" s="31"/>
+      <c r="AM37" s="31"/>
+      <c r="AN37" s="31"/>
+      <c r="AO37" s="31"/>
+      <c r="AP37" s="31"/>
+      <c r="AQ37" s="31"/>
+      <c r="AR37" s="31"/>
+      <c r="AS37" s="31"/>
+      <c r="AT37" s="31"/>
+      <c r="AU37" s="31"/>
+      <c r="AV37" s="31"/>
+      <c r="AW37" s="31"/>
+      <c r="AX37" s="31"/>
+      <c r="AY37" s="31"/>
+      <c r="AZ37" s="31"/>
+      <c r="BA37" s="31"/>
+      <c r="BB37" s="31"/>
+      <c r="BC37" s="31"/>
+      <c r="BD37" s="31"/>
+      <c r="BE37" s="31"/>
+      <c r="BF37" s="31"/>
+      <c r="BG37" s="31"/>
+      <c r="BH37" s="31"/>
+      <c r="BI37" s="31"/>
+      <c r="BJ37" s="31"/>
+    </row>
+    <row r="38" spans="1:62" s="2" customFormat="1">
+      <c r="B38" s="87" t="s">
+        <v>98</v>
+      </c>
+      <c r="C38" s="87" t="s">
+        <v>84</v>
+      </c>
+      <c r="D38" s="87">
+        <v>0</v>
+      </c>
+      <c r="E38" s="46">
+        <v>201951</v>
+      </c>
+      <c r="F38" s="46">
+        <v>201952</v>
+      </c>
+      <c r="G38" s="46">
+        <v>202001</v>
+      </c>
+      <c r="H38" s="46">
+        <v>202002</v>
+      </c>
+      <c r="I38" s="46">
+        <v>202003</v>
+      </c>
+      <c r="J38" s="46">
+        <v>202051</v>
+      </c>
+      <c r="K38" s="46">
+        <v>202052</v>
+      </c>
+      <c r="L38" s="46">
+        <v>202053</v>
+      </c>
+      <c r="M38" s="46">
+        <v>202101</v>
+      </c>
+      <c r="N38" s="46">
+        <v>202102</v>
+      </c>
+      <c r="O38" s="46">
+        <v>202103</v>
+      </c>
+      <c r="P38" s="31"/>
+      <c r="Q38" s="31"/>
+      <c r="R38" s="31"/>
+      <c r="S38" s="31"/>
+      <c r="T38" s="31"/>
+      <c r="U38" s="31"/>
+      <c r="V38" s="31"/>
+      <c r="W38" s="31"/>
+      <c r="X38" s="31"/>
+      <c r="Y38" s="31"/>
+      <c r="Z38" s="31"/>
+      <c r="AA38" s="31"/>
+      <c r="AB38" s="31"/>
+      <c r="AC38" s="31"/>
+      <c r="AD38" s="31"/>
+      <c r="AE38" s="31"/>
+      <c r="AF38" s="31"/>
+      <c r="AG38" s="31"/>
+      <c r="AH38" s="31"/>
+      <c r="AI38" s="31"/>
+      <c r="AJ38" s="31"/>
+      <c r="AK38" s="31"/>
+      <c r="AL38" s="31"/>
+      <c r="AM38" s="31"/>
+      <c r="AN38" s="31"/>
+      <c r="AO38" s="31"/>
+      <c r="AP38" s="31"/>
+      <c r="AQ38" s="31"/>
+      <c r="AR38" s="31"/>
+      <c r="AS38" s="31"/>
+      <c r="AT38" s="31"/>
+      <c r="AU38" s="31"/>
+      <c r="AV38" s="31"/>
+      <c r="AW38" s="31"/>
+      <c r="AX38" s="31"/>
+      <c r="AY38" s="31"/>
+      <c r="AZ38" s="31"/>
+      <c r="BA38" s="31"/>
+      <c r="BB38" s="31"/>
+      <c r="BC38" s="31"/>
+      <c r="BD38" s="31"/>
+      <c r="BE38" s="31"/>
+      <c r="BF38" s="31"/>
+      <c r="BG38" s="31"/>
+      <c r="BH38" s="31"/>
+      <c r="BI38" s="31"/>
+      <c r="BJ38" s="31"/>
+    </row>
+    <row r="39" spans="1:62">
+      <c r="B39" s="87" t="s">
+        <v>98</v>
+      </c>
+      <c r="C39" s="87" t="s">
+        <v>85</v>
+      </c>
+      <c r="D39" s="87">
+        <v>0</v>
+      </c>
+      <c r="E39" s="46">
+        <v>201951</v>
+      </c>
+      <c r="F39" s="46">
+        <v>201952</v>
+      </c>
+      <c r="G39" s="46">
+        <v>202001</v>
+      </c>
+      <c r="H39" s="46">
+        <v>202002</v>
+      </c>
+      <c r="I39" s="46">
+        <v>202003</v>
+      </c>
+      <c r="J39" s="46">
+        <v>202051</v>
+      </c>
+      <c r="K39" s="46">
+        <v>202052</v>
+      </c>
+      <c r="L39" s="46">
+        <v>202053</v>
+      </c>
+      <c r="M39" s="46">
+        <v>202101</v>
+      </c>
+      <c r="N39" s="46">
+        <v>202102</v>
+      </c>
+      <c r="O39" s="46">
+        <v>202103</v>
+      </c>
+    </row>
+    <row r="41" spans="1:62">
+      <c r="A41" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="P41" s="2"/>
+    </row>
+    <row r="42" spans="1:62">
+      <c r="B42" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="C42" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="E42" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="F42" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="G42" s="43" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:62">
+      <c r="B43" s="87">
+        <v>1</v>
+      </c>
+      <c r="C43" s="64" t="s">
+        <v>290</v>
+      </c>
+      <c r="D43" s="87">
+        <v>0</v>
+      </c>
+      <c r="E43" s="87">
+        <v>0</v>
+      </c>
+      <c r="F43" s="64" t="s">
+        <v>290</v>
+      </c>
+      <c r="G43" s="64">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:62">
+      <c r="B44" s="87">
+        <v>2</v>
+      </c>
+      <c r="C44" s="64" t="s">
+        <v>306</v>
+      </c>
+      <c r="D44" s="64">
+        <v>0</v>
+      </c>
+      <c r="E44" s="64">
+        <v>0</v>
+      </c>
+      <c r="F44" s="64" t="s">
+        <v>306</v>
+      </c>
+      <c r="G44" s="64">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:62">
+      <c r="B45" s="87"/>
+      <c r="C45" s="87"/>
+      <c r="D45" s="87"/>
+      <c r="E45" s="87"/>
+      <c r="F45" s="87"/>
+      <c r="G45" s="87"/>
+    </row>
+    <row r="46" spans="1:62">
+      <c r="B46" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="C46" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="D46" s="87" t="s">
+        <v>200</v>
+      </c>
+      <c r="E46" s="87" t="s">
+        <v>106</v>
+      </c>
+      <c r="F46" s="87" t="s">
+        <v>107</v>
+      </c>
+      <c r="G46" s="87" t="s">
+        <v>108</v>
+      </c>
+      <c r="H46" s="87" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="47" spans="1:62">
+      <c r="B47" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="C47" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="D47" s="46">
+        <v>202051</v>
+      </c>
+      <c r="E47" s="46">
+        <v>202052</v>
+      </c>
+      <c r="F47" s="46">
+        <v>202053</v>
+      </c>
+      <c r="G47" s="46">
+        <v>202101</v>
+      </c>
+      <c r="H47" s="46">
+        <v>202102</v>
+      </c>
+    </row>
+    <row r="48" spans="1:62">
+      <c r="B48" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="C48" s="89" t="s">
+        <v>85</v>
+      </c>
+      <c r="D48" s="90">
+        <v>201951</v>
+      </c>
+      <c r="E48" s="90">
+        <v>201952</v>
+      </c>
+      <c r="F48" s="90"/>
+      <c r="G48" s="90">
+        <v>202001</v>
+      </c>
+      <c r="H48" s="90">
+        <v>202002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="B49" s="88" t="s">
+        <v>98</v>
+      </c>
+      <c r="C49" s="91" t="s">
+        <v>304</v>
+      </c>
+      <c r="D49" s="46"/>
+      <c r="E49" s="35">
+        <v>1</v>
+      </c>
+      <c r="F49" s="35">
+        <v>1</v>
+      </c>
+      <c r="G49" s="35">
+        <v>48</v>
+      </c>
+      <c r="H49" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="B50" s="88" t="s">
+        <v>98</v>
+      </c>
+      <c r="C50" s="35" t="s">
+        <v>305</v>
+      </c>
+      <c r="D50" s="94">
+        <f>D48-E48</f>
+        <v>-1</v>
+      </c>
+      <c r="E50" s="94">
+        <f>E48-G48</f>
+        <v>-49</v>
+      </c>
+      <c r="F50" s="94"/>
+      <c r="G50" s="94">
+        <f t="shared" ref="G50" si="0">G48-H48</f>
+        <v>-1</v>
+      </c>
+      <c r="H50" s="94"/>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="34" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="B53" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="C53" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="D53" s="87" t="s">
+        <v>200</v>
+      </c>
+      <c r="E53" s="87" t="s">
+        <v>106</v>
+      </c>
+      <c r="F53" s="87" t="s">
+        <v>108</v>
+      </c>
+      <c r="G53" s="87" t="s">
+        <v>109</v>
+      </c>
+      <c r="H53" s="87" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="B54" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="C54" s="89" t="s">
+        <v>85</v>
+      </c>
+      <c r="D54" s="90">
+        <v>201951</v>
+      </c>
+      <c r="E54" s="90">
+        <v>201952</v>
+      </c>
+      <c r="F54" s="90">
+        <v>202001</v>
+      </c>
+      <c r="G54" s="90">
+        <v>202002</v>
+      </c>
+      <c r="H54" s="90">
+        <v>202003</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="B55" s="88" t="s">
+        <v>98</v>
+      </c>
+      <c r="C55" s="35" t="s">
+        <v>305</v>
+      </c>
+      <c r="D55" s="94">
+        <f>D54-E54</f>
+        <v>-1</v>
+      </c>
+      <c r="E55" s="94">
+        <f t="shared" ref="E55:H55" si="1">E54-F54</f>
+        <v>-49</v>
+      </c>
+      <c r="F55" s="94">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="G55" s="94">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="H55" s="94"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet22"/>
   <dimension ref="A1:BR45"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17:E19"/>
+      <selection activeCell="F13" sqref="F13:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -24455,12 +25740,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet23"/>
   <dimension ref="A1:R177"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A168" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D173" sqref="D173"/>
     </sheetView>
   </sheetViews>

--- a/53Week/TestCase_53rdWeek_V1.xlsx
+++ b/53Week/TestCase_53rdWeek_V1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="843" activeTab="24"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="843" activeTab="26"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -38,8 +38,9 @@
     <sheet name="Test_53week_22" sheetId="31" r:id="rId24"/>
     <sheet name="Test_53week_23" sheetId="32" r:id="rId25"/>
     <sheet name="Test_53week_24" sheetId="33" r:id="rId26"/>
-    <sheet name="Test Data" sheetId="7" r:id="rId27"/>
-    <sheet name="Analysis" sheetId="18" r:id="rId28"/>
+    <sheet name="Test_53week_25" sheetId="36" r:id="rId27"/>
+    <sheet name="Test Data" sheetId="7" r:id="rId28"/>
+    <sheet name="Analysis" sheetId="18" r:id="rId29"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4457" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4616" uniqueCount="324">
   <si>
     <t>ID</t>
   </si>
@@ -1095,6 +1096,30 @@
   </si>
   <si>
     <t>Test_53week_24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">% (C2 -C1) / C1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">% (C1 -C2) / C2 </t>
+  </si>
+  <si>
+    <t>C2 / C1</t>
+  </si>
+  <si>
+    <t>C1 / C2</t>
+  </si>
+  <si>
+    <t>% C2 / C1</t>
+  </si>
+  <si>
+    <t>Cumul to Date</t>
+  </si>
+  <si>
+    <t>Abs.Cumul to Date</t>
+  </si>
+  <si>
+    <t>Cumul to Date (Reset on blank value)</t>
   </si>
 </sst>
 </file>
@@ -2161,8 +2186,8 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:I265"/>
   <sheetViews>
-    <sheetView topLeftCell="A246" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M263" sqref="M263"/>
+    <sheetView topLeftCell="A244" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C255" sqref="C255:C265"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6313,39 +6338,28 @@
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="A255:A265"/>
-    <mergeCell ref="B255:B265"/>
-    <mergeCell ref="C255:C265"/>
-    <mergeCell ref="A167:A177"/>
-    <mergeCell ref="B167:B177"/>
-    <mergeCell ref="C167:C177"/>
-    <mergeCell ref="A200:A210"/>
-    <mergeCell ref="B200:B210"/>
-    <mergeCell ref="C200:C210"/>
-    <mergeCell ref="A178:A188"/>
-    <mergeCell ref="B178:B188"/>
-    <mergeCell ref="C178:C188"/>
-    <mergeCell ref="A189:A199"/>
-    <mergeCell ref="B189:B199"/>
-    <mergeCell ref="C189:C199"/>
-    <mergeCell ref="A145:A155"/>
-    <mergeCell ref="B145:B155"/>
-    <mergeCell ref="C145:C155"/>
-    <mergeCell ref="A156:A166"/>
-    <mergeCell ref="B156:B166"/>
-    <mergeCell ref="C156:C166"/>
-    <mergeCell ref="A2:A12"/>
-    <mergeCell ref="B2:B12"/>
-    <mergeCell ref="C2:C12"/>
-    <mergeCell ref="A13:A23"/>
-    <mergeCell ref="B13:B23"/>
-    <mergeCell ref="C13:C23"/>
-    <mergeCell ref="A24:A34"/>
-    <mergeCell ref="B24:B34"/>
-    <mergeCell ref="C24:C34"/>
-    <mergeCell ref="A35:A45"/>
-    <mergeCell ref="B35:B45"/>
-    <mergeCell ref="C35:C45"/>
+    <mergeCell ref="A233:A243"/>
+    <mergeCell ref="B233:B243"/>
+    <mergeCell ref="C233:C243"/>
+    <mergeCell ref="A244:A254"/>
+    <mergeCell ref="B244:B254"/>
+    <mergeCell ref="C244:C254"/>
+    <mergeCell ref="B222:B232"/>
+    <mergeCell ref="C222:C232"/>
+    <mergeCell ref="A211:A221"/>
+    <mergeCell ref="B211:B221"/>
+    <mergeCell ref="C211:C221"/>
+    <mergeCell ref="A90:A100"/>
+    <mergeCell ref="B90:B100"/>
+    <mergeCell ref="C90:C100"/>
+    <mergeCell ref="A101:A111"/>
+    <mergeCell ref="B101:B111"/>
+    <mergeCell ref="C101:C111"/>
+    <mergeCell ref="B112:B122"/>
+    <mergeCell ref="C112:C122"/>
+    <mergeCell ref="A123:A133"/>
+    <mergeCell ref="B123:B133"/>
+    <mergeCell ref="C123:C133"/>
     <mergeCell ref="A134:A144"/>
     <mergeCell ref="A79:A89"/>
     <mergeCell ref="B79:B89"/>
@@ -6362,29 +6376,40 @@
     <mergeCell ref="B134:B144"/>
     <mergeCell ref="C134:C144"/>
     <mergeCell ref="A112:A122"/>
-    <mergeCell ref="B112:B122"/>
-    <mergeCell ref="C112:C122"/>
-    <mergeCell ref="A123:A133"/>
-    <mergeCell ref="B123:B133"/>
-    <mergeCell ref="C123:C133"/>
-    <mergeCell ref="A90:A100"/>
-    <mergeCell ref="B90:B100"/>
-    <mergeCell ref="C90:C100"/>
-    <mergeCell ref="A101:A111"/>
-    <mergeCell ref="B101:B111"/>
-    <mergeCell ref="C101:C111"/>
+    <mergeCell ref="A24:A34"/>
+    <mergeCell ref="B24:B34"/>
+    <mergeCell ref="C24:C34"/>
+    <mergeCell ref="A35:A45"/>
+    <mergeCell ref="B35:B45"/>
+    <mergeCell ref="C35:C45"/>
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="B2:B12"/>
+    <mergeCell ref="C2:C12"/>
+    <mergeCell ref="A13:A23"/>
+    <mergeCell ref="B13:B23"/>
+    <mergeCell ref="C13:C23"/>
+    <mergeCell ref="A145:A155"/>
+    <mergeCell ref="B145:B155"/>
+    <mergeCell ref="C145:C155"/>
+    <mergeCell ref="A156:A166"/>
+    <mergeCell ref="B156:B166"/>
+    <mergeCell ref="C156:C166"/>
+    <mergeCell ref="A255:A265"/>
+    <mergeCell ref="B255:B265"/>
+    <mergeCell ref="C255:C265"/>
+    <mergeCell ref="A167:A177"/>
+    <mergeCell ref="B167:B177"/>
+    <mergeCell ref="C167:C177"/>
+    <mergeCell ref="A200:A210"/>
+    <mergeCell ref="B200:B210"/>
+    <mergeCell ref="C200:C210"/>
+    <mergeCell ref="A178:A188"/>
+    <mergeCell ref="B178:B188"/>
+    <mergeCell ref="C178:C188"/>
+    <mergeCell ref="A189:A199"/>
+    <mergeCell ref="B189:B199"/>
+    <mergeCell ref="C189:C199"/>
     <mergeCell ref="A222:A232"/>
-    <mergeCell ref="B222:B232"/>
-    <mergeCell ref="C222:C232"/>
-    <mergeCell ref="A211:A221"/>
-    <mergeCell ref="B211:B221"/>
-    <mergeCell ref="C211:C221"/>
-    <mergeCell ref="A233:A243"/>
-    <mergeCell ref="B233:B243"/>
-    <mergeCell ref="C233:C243"/>
-    <mergeCell ref="A244:A254"/>
-    <mergeCell ref="B244:B254"/>
-    <mergeCell ref="C244:C254"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F220" location="Test_53week_20!A1" display="Test_53week_20"/>
@@ -19154,8 +19179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BJ54"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView topLeftCell="C31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50:H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1"/>
@@ -19478,7 +19503,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="87">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M20" s="35"/>
       <c r="N20" s="35"/>
@@ -20015,13 +20040,13 @@
         <v>2</v>
       </c>
       <c r="C44" s="64" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="D44" s="64">
         <v>0</v>
       </c>
       <c r="E44" s="64">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F44" s="64" t="s">
         <v>306</v>
@@ -20137,20 +20162,20 @@
       <c r="C50" s="35" t="s">
         <v>305</v>
       </c>
-      <c r="D50" s="94">
+      <c r="D50" s="94"/>
+      <c r="E50" s="94">
         <f>D48-E48</f>
         <v>-1</v>
       </c>
-      <c r="E50" s="94">
+      <c r="F50" s="94"/>
+      <c r="G50" s="94">
         <f>E48-G48</f>
         <v>-49</v>
       </c>
-      <c r="F50" s="94"/>
-      <c r="G50" s="94">
-        <f t="shared" ref="G50" si="1">G48-H48</f>
+      <c r="H50" s="94">
+        <f t="shared" ref="F50:H50" si="1">G48-H48</f>
         <v>-1</v>
       </c>
-      <c r="H50" s="94"/>
     </row>
     <row r="54" spans="2:8">
       <c r="D54" s="2"/>
@@ -20167,10 +20192,10 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BJ56"/>
+  <dimension ref="A1:BJ57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I58" sqref="I58"/>
+    <sheetView topLeftCell="C39" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57:H57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1"/>
@@ -20493,7 +20518,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="87">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M20" s="35"/>
       <c r="N20" s="35"/>
@@ -21026,13 +21051,13 @@
         <v>2</v>
       </c>
       <c r="C44" s="64" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="D44" s="64">
         <v>0</v>
       </c>
       <c r="E44" s="64">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F44" s="64" t="s">
         <v>306</v>
@@ -21144,20 +21169,20 @@
       <c r="C50" s="35" t="s">
         <v>305</v>
       </c>
-      <c r="D50" s="94">
+      <c r="D50" s="94"/>
+      <c r="E50" s="94">
         <f>D48-E48</f>
         <v>-1</v>
       </c>
-      <c r="E50" s="94">
+      <c r="F50" s="94"/>
+      <c r="G50" s="94">
         <f>E48-G48</f>
         <v>-49</v>
       </c>
-      <c r="F50" s="94"/>
-      <c r="G50" s="94">
-        <f t="shared" ref="G50" si="0">G48-H48</f>
+      <c r="H50" s="94">
+        <f t="shared" ref="H50" si="0">G48-H48</f>
         <v>-1</v>
       </c>
-      <c r="H50" s="94"/>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="34" t="s">
@@ -21236,20 +21261,31 @@
       <c r="C56" s="35" t="s">
         <v>305</v>
       </c>
-      <c r="D56" s="94">
+      <c r="D56" s="94"/>
+      <c r="E56" s="94">
         <f>D54-E54</f>
         <v>-1</v>
       </c>
-      <c r="E56" s="94">
+      <c r="F56" s="94"/>
+      <c r="G56" s="94">
         <f>E54-G54</f>
         <v>-49</v>
       </c>
-      <c r="F56" s="94"/>
-      <c r="G56" s="94">
-        <f t="shared" ref="G56" si="1">G54-H54</f>
+      <c r="H56" s="94">
+        <f t="shared" ref="H56" si="1">G54-H54</f>
         <v>-1</v>
       </c>
-      <c r="H56" s="94"/>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="E57" s="31">
+        <v>-1</v>
+      </c>
+      <c r="G57" s="31">
+        <v>-49</v>
+      </c>
+      <c r="H57" s="31">
+        <v>-1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21261,8 +21297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BJ55"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView topLeftCell="C33" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1"/>
@@ -21585,7 +21621,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="87">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M20" s="35"/>
       <c r="N20" s="35"/>
@@ -22136,13 +22172,13 @@
         <v>2</v>
       </c>
       <c r="C44" s="64" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="D44" s="64">
         <v>0</v>
       </c>
       <c r="E44" s="64">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F44" s="64" t="s">
         <v>306</v>
@@ -22254,20 +22290,17 @@
       <c r="C50" s="35" t="s">
         <v>305</v>
       </c>
-      <c r="D50" s="94">
-        <f>D48-E48</f>
+      <c r="D50" s="94"/>
+      <c r="E50" s="35">
         <v>-1</v>
       </c>
-      <c r="E50" s="94">
-        <f>E48-G48</f>
+      <c r="F50" s="35"/>
+      <c r="G50" s="35">
         <v>-49</v>
       </c>
-      <c r="F50" s="94"/>
-      <c r="G50" s="94">
-        <f t="shared" ref="G50" si="0">G48-H48</f>
+      <c r="H50" s="35">
         <v>-1</v>
       </c>
-      <c r="H50" s="94"/>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="34" t="s">
@@ -22327,23 +22360,17 @@
       <c r="C55" s="35" t="s">
         <v>305</v>
       </c>
-      <c r="D55" s="94">
-        <f>D54-E54</f>
+      <c r="D55" s="94"/>
+      <c r="E55" s="35">
         <v>-1</v>
       </c>
-      <c r="E55" s="94">
-        <f t="shared" ref="E55:H55" si="1">E54-F54</f>
+      <c r="F55" s="35"/>
+      <c r="G55" s="35">
         <v>-49</v>
       </c>
-      <c r="F55" s="94">
-        <f t="shared" si="1"/>
+      <c r="H55" s="35">
         <v>-1</v>
       </c>
-      <c r="G55" s="94">
-        <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
-      <c r="H55" s="94"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22353,10 +22380,1148 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BJ60"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B35" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" style="31" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" style="31" customWidth="1"/>
+    <col min="3" max="3" width="31.28515625" style="31" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" style="31" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" style="31" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" style="31" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" style="31" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="31" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" style="31" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="31" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" style="31" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" style="31" customWidth="1"/>
+    <col min="15" max="17" width="10.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="9.140625" style="31" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="10.28515625" style="31" customWidth="1"/>
+    <col min="22" max="22" width="10.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.140625" style="31"/>
+    <col min="24" max="26" width="10.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.140625" style="31"/>
+    <col min="28" max="30" width="10.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="9.140625" style="31"/>
+    <col min="33" max="35" width="10.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="9.140625" style="31"/>
+    <col min="37" max="39" width="10.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="9.140625" style="31"/>
+    <col min="41" max="45" width="10.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="46" max="48" width="11.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="10.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="50" max="52" width="11.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="10.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="54" max="57" width="11.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="9.140625" style="31"/>
+    <col min="59" max="61" width="10.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="62" max="16384" width="9.140625" style="31"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="34" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" outlineLevel="1">
+      <c r="B2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" outlineLevel="1">
+      <c r="B3" s="35"/>
+      <c r="C3" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+    </row>
+    <row r="4" spans="1:5" outlineLevel="1">
+      <c r="B4" s="35"/>
+      <c r="C4" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="35"/>
+    </row>
+    <row r="5" spans="1:5" outlineLevel="1">
+      <c r="B5" s="35"/>
+      <c r="C5" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="36">
+        <v>5</v>
+      </c>
+      <c r="E5" s="35"/>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" outlineLevel="1">
+      <c r="B6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" outlineLevel="1">
+      <c r="B7" s="35"/>
+      <c r="C7" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="35"/>
+    </row>
+    <row r="8" spans="1:5" outlineLevel="1">
+      <c r="B8" s="35"/>
+      <c r="C8" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="64" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" outlineLevel="1">
+      <c r="B9" s="35"/>
+      <c r="C9" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+    </row>
+    <row r="10" spans="1:5" outlineLevel="1">
+      <c r="B10" s="35"/>
+      <c r="C10" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+    </row>
+    <row r="11" spans="1:5" outlineLevel="1">
+      <c r="B11" s="35"/>
+      <c r="C11" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+    </row>
+    <row r="12" spans="1:5" outlineLevel="1">
+      <c r="B12" s="35"/>
+      <c r="C12" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+    </row>
+    <row r="13" spans="1:5" outlineLevel="1">
+      <c r="B13" s="35"/>
+      <c r="C13" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+    </row>
+    <row r="14" spans="1:5" outlineLevel="1">
+      <c r="B14" s="35"/>
+      <c r="C14" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" outlineLevel="1">
+      <c r="B15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" outlineLevel="1">
+      <c r="B16" s="35"/>
+      <c r="C16" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="35"/>
+    </row>
+    <row r="17" spans="1:21">
+      <c r="A17" s="34" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="30" outlineLevel="1">
+      <c r="B18" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="41" t="s">
+        <v>308</v>
+      </c>
+      <c r="E18" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="G18" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="H18" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="I18" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="J18" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="K18" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="L18" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="M18" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="N18" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="O18" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="P18" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q18" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="R18" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="S18" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="T18" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="U18" s="35" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="30" outlineLevel="1">
+      <c r="B19" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" s="92"/>
+      <c r="E19" s="93"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="87">
+        <v>0</v>
+      </c>
+      <c r="L19" s="87">
+        <v>0</v>
+      </c>
+      <c r="M19" s="35"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="35"/>
+      <c r="P19" s="35"/>
+      <c r="Q19" s="35"/>
+      <c r="R19" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="S19" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="T19" s="35"/>
+      <c r="U19" s="35" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" ht="30" outlineLevel="1">
+      <c r="B20" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" s="93"/>
+      <c r="E20" s="93"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="87">
+        <v>0</v>
+      </c>
+      <c r="L20" s="87">
+        <v>-1</v>
+      </c>
+      <c r="M20" s="35"/>
+      <c r="N20" s="35"/>
+      <c r="O20" s="35"/>
+      <c r="P20" s="35"/>
+      <c r="Q20" s="35"/>
+      <c r="R20" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="S20" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="T20" s="35"/>
+      <c r="U20" s="35" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" ht="30" outlineLevel="1">
+      <c r="B21" s="35" t="s">
+        <v>266</v>
+      </c>
+      <c r="C21" s="91" t="s">
+        <v>304</v>
+      </c>
+      <c r="D21" s="36">
+        <v>1</v>
+      </c>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="91" t="s">
+        <v>304</v>
+      </c>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="87">
+        <v>0</v>
+      </c>
+      <c r="L21" s="87">
+        <v>0</v>
+      </c>
+      <c r="M21" s="35"/>
+      <c r="N21" s="35"/>
+      <c r="O21" s="35"/>
+      <c r="P21" s="35"/>
+      <c r="Q21" s="35"/>
+      <c r="R21" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="S21" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="T21" s="35"/>
+      <c r="U21" s="35" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" ht="30" outlineLevel="1">
+      <c r="B22" s="35" t="s">
+        <v>307</v>
+      </c>
+      <c r="C22" s="35" t="s">
+        <v>305</v>
+      </c>
+      <c r="D22" s="36">
+        <v>1</v>
+      </c>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35" t="s">
+        <v>305</v>
+      </c>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="87">
+        <v>0</v>
+      </c>
+      <c r="L22" s="87">
+        <v>0</v>
+      </c>
+      <c r="M22" s="35"/>
+      <c r="N22" s="35"/>
+      <c r="O22" s="35"/>
+      <c r="P22" s="35"/>
+      <c r="Q22" s="35"/>
+      <c r="R22" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="S22" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="T22" s="35"/>
+      <c r="U22" s="35" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
+      <c r="A23" s="34" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" ht="15.75" outlineLevel="1">
+      <c r="B24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" outlineLevel="1">
+      <c r="B25" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+    </row>
+    <row r="26" spans="1:21" outlineLevel="1">
+      <c r="B26" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+    </row>
+    <row r="27" spans="1:21" outlineLevel="1">
+      <c r="B27" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+    </row>
+    <row r="28" spans="1:21" outlineLevel="1"/>
+    <row r="29" spans="1:21" ht="22.5" outlineLevel="1">
+      <c r="B29" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="J29" s="10"/>
+    </row>
+    <row r="30" spans="1:21" outlineLevel="1">
+      <c r="B30" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="D30" s="35">
+        <v>1</v>
+      </c>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="J30" s="35"/>
+    </row>
+    <row r="31" spans="1:21" outlineLevel="1">
+      <c r="B31" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="C31" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="D31" s="35">
+        <v>1</v>
+      </c>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="J31" s="35"/>
+    </row>
+    <row r="32" spans="1:21" outlineLevel="1">
+      <c r="B32" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="C32" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="D32" s="35">
+        <v>1</v>
+      </c>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="J32" s="35"/>
+    </row>
+    <row r="33" spans="1:62" outlineLevel="1">
+      <c r="B33" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="C33" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="D33" s="35">
+        <v>1</v>
+      </c>
+      <c r="E33" s="35"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="J33" s="35"/>
+    </row>
+    <row r="34" spans="1:62" outlineLevel="1">
+      <c r="B34" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="C34" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="D34" s="35">
+        <v>1</v>
+      </c>
+      <c r="E34" s="35"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="J34" s="35"/>
+    </row>
+    <row r="35" spans="1:62" outlineLevel="1">
+      <c r="B35" s="49"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="49"/>
+      <c r="I35" s="49"/>
+      <c r="J35" s="49"/>
+    </row>
+    <row r="36" spans="1:62">
+      <c r="A36" s="34" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="37" spans="1:62" s="2" customFormat="1">
+      <c r="B37" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="C37" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="D37" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="E37" s="45">
+        <v>43817</v>
+      </c>
+      <c r="F37" s="45">
+        <v>43824</v>
+      </c>
+      <c r="G37" s="45">
+        <v>43831</v>
+      </c>
+      <c r="H37" s="45">
+        <v>43838</v>
+      </c>
+      <c r="I37" s="45">
+        <v>44181</v>
+      </c>
+      <c r="J37" s="45">
+        <v>44188</v>
+      </c>
+      <c r="K37" s="45">
+        <v>44195</v>
+      </c>
+      <c r="L37" s="45">
+        <v>44202</v>
+      </c>
+      <c r="M37" s="45">
+        <v>44209</v>
+      </c>
+      <c r="N37" s="31"/>
+      <c r="O37" s="31"/>
+      <c r="P37" s="31"/>
+      <c r="Q37" s="31"/>
+      <c r="R37" s="31"/>
+      <c r="S37" s="31"/>
+      <c r="T37" s="31"/>
+      <c r="U37" s="31"/>
+      <c r="V37" s="31"/>
+      <c r="W37" s="31"/>
+      <c r="X37" s="31"/>
+      <c r="Y37" s="31"/>
+      <c r="Z37" s="31"/>
+      <c r="AA37" s="31"/>
+      <c r="AB37" s="31"/>
+      <c r="AC37" s="31"/>
+      <c r="AD37" s="31"/>
+      <c r="AE37" s="31"/>
+      <c r="AF37" s="31"/>
+      <c r="AG37" s="31"/>
+      <c r="AH37" s="31"/>
+      <c r="AI37" s="31"/>
+      <c r="AJ37" s="31"/>
+      <c r="AK37" s="31"/>
+      <c r="AL37" s="31"/>
+      <c r="AM37" s="31"/>
+      <c r="AN37" s="31"/>
+      <c r="AO37" s="31"/>
+      <c r="AP37" s="31"/>
+      <c r="AQ37" s="31"/>
+      <c r="AR37" s="31"/>
+      <c r="AS37" s="31"/>
+      <c r="AT37" s="31"/>
+      <c r="AU37" s="31"/>
+      <c r="AV37" s="31"/>
+      <c r="AW37" s="31"/>
+      <c r="AX37" s="31"/>
+      <c r="AY37" s="31"/>
+      <c r="AZ37" s="31"/>
+      <c r="BA37" s="31"/>
+      <c r="BB37" s="31"/>
+      <c r="BC37" s="31"/>
+      <c r="BD37" s="31"/>
+      <c r="BE37" s="31"/>
+      <c r="BF37" s="31"/>
+      <c r="BG37" s="31"/>
+      <c r="BH37" s="31"/>
+      <c r="BI37" s="31"/>
+      <c r="BJ37" s="31"/>
+    </row>
+    <row r="38" spans="1:62" s="2" customFormat="1">
+      <c r="B38" s="87" t="s">
+        <v>98</v>
+      </c>
+      <c r="C38" s="87" t="s">
+        <v>84</v>
+      </c>
+      <c r="D38" s="87">
+        <v>0</v>
+      </c>
+      <c r="E38" s="46">
+        <v>201951</v>
+      </c>
+      <c r="F38" s="46">
+        <v>201952</v>
+      </c>
+      <c r="G38" s="46">
+        <v>202001</v>
+      </c>
+      <c r="H38" s="46">
+        <v>202002</v>
+      </c>
+      <c r="I38" s="46">
+        <v>202051</v>
+      </c>
+      <c r="J38" s="46">
+        <v>202052</v>
+      </c>
+      <c r="K38" s="46">
+        <v>202053</v>
+      </c>
+      <c r="L38" s="46">
+        <v>202101</v>
+      </c>
+      <c r="M38" s="46">
+        <v>202102</v>
+      </c>
+      <c r="N38" s="31"/>
+      <c r="O38" s="31"/>
+      <c r="P38" s="31"/>
+      <c r="Q38" s="31"/>
+      <c r="R38" s="31"/>
+      <c r="S38" s="31"/>
+      <c r="T38" s="31"/>
+      <c r="U38" s="31"/>
+      <c r="V38" s="31"/>
+      <c r="W38" s="31"/>
+      <c r="X38" s="31"/>
+      <c r="Y38" s="31"/>
+      <c r="Z38" s="31"/>
+      <c r="AA38" s="31"/>
+      <c r="AB38" s="31"/>
+      <c r="AC38" s="31"/>
+      <c r="AD38" s="31"/>
+      <c r="AE38" s="31"/>
+      <c r="AF38" s="31"/>
+      <c r="AG38" s="31"/>
+      <c r="AH38" s="31"/>
+      <c r="AI38" s="31"/>
+      <c r="AJ38" s="31"/>
+      <c r="AK38" s="31"/>
+      <c r="AL38" s="31"/>
+      <c r="AM38" s="31"/>
+      <c r="AN38" s="31"/>
+      <c r="AO38" s="31"/>
+      <c r="AP38" s="31"/>
+      <c r="AQ38" s="31"/>
+      <c r="AR38" s="31"/>
+      <c r="AS38" s="31"/>
+      <c r="AT38" s="31"/>
+      <c r="AU38" s="31"/>
+      <c r="AV38" s="31"/>
+      <c r="AW38" s="31"/>
+      <c r="AX38" s="31"/>
+      <c r="AY38" s="31"/>
+      <c r="AZ38" s="31"/>
+      <c r="BA38" s="31"/>
+      <c r="BB38" s="31"/>
+      <c r="BC38" s="31"/>
+      <c r="BD38" s="31"/>
+      <c r="BE38" s="31"/>
+      <c r="BF38" s="31"/>
+      <c r="BG38" s="31"/>
+      <c r="BH38" s="31"/>
+      <c r="BI38" s="31"/>
+      <c r="BJ38" s="31"/>
+    </row>
+    <row r="39" spans="1:62">
+      <c r="B39" s="87" t="s">
+        <v>98</v>
+      </c>
+      <c r="C39" s="87" t="s">
+        <v>85</v>
+      </c>
+      <c r="D39" s="87">
+        <v>0</v>
+      </c>
+      <c r="E39" s="46">
+        <v>201951</v>
+      </c>
+      <c r="F39" s="46">
+        <v>201952</v>
+      </c>
+      <c r="G39" s="46">
+        <v>202001</v>
+      </c>
+      <c r="H39" s="46">
+        <v>202002</v>
+      </c>
+      <c r="I39" s="46">
+        <v>202051</v>
+      </c>
+      <c r="J39" s="46">
+        <v>202052</v>
+      </c>
+      <c r="K39" s="46">
+        <v>202053</v>
+      </c>
+      <c r="L39" s="46">
+        <v>202101</v>
+      </c>
+      <c r="M39" s="46">
+        <v>202102</v>
+      </c>
+    </row>
+    <row r="41" spans="1:62">
+      <c r="A41" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="P41" s="2"/>
+    </row>
+    <row r="42" spans="1:62">
+      <c r="B42" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="C42" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="E42" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="F42" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="G42" s="43" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:62">
+      <c r="B43" s="87">
+        <v>1</v>
+      </c>
+      <c r="C43" s="64" t="s">
+        <v>290</v>
+      </c>
+      <c r="D43" s="87">
+        <v>0</v>
+      </c>
+      <c r="E43" s="87">
+        <v>0</v>
+      </c>
+      <c r="F43" s="64" t="s">
+        <v>290</v>
+      </c>
+      <c r="G43" s="64">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:62">
+      <c r="B44" s="87">
+        <v>2</v>
+      </c>
+      <c r="C44" s="64" t="s">
+        <v>290</v>
+      </c>
+      <c r="D44" s="64">
+        <v>0</v>
+      </c>
+      <c r="E44" s="64">
+        <v>-1</v>
+      </c>
+      <c r="F44" s="64" t="s">
+        <v>306</v>
+      </c>
+      <c r="G44" s="64">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:62">
+      <c r="B45" s="87"/>
+      <c r="C45" s="87"/>
+      <c r="D45" s="87"/>
+      <c r="E45" s="87"/>
+      <c r="F45" s="87"/>
+      <c r="G45" s="87"/>
+    </row>
+    <row r="46" spans="1:62">
+      <c r="B46" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="C46" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="D46" s="87" t="s">
+        <v>200</v>
+      </c>
+      <c r="E46" s="87" t="s">
+        <v>106</v>
+      </c>
+      <c r="F46" s="87" t="s">
+        <v>107</v>
+      </c>
+      <c r="G46" s="87" t="s">
+        <v>108</v>
+      </c>
+      <c r="H46" s="87" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="47" spans="1:62">
+      <c r="B47" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="C47" s="89" t="s">
+        <v>84</v>
+      </c>
+      <c r="D47" s="90">
+        <v>202051</v>
+      </c>
+      <c r="E47" s="90">
+        <v>202052</v>
+      </c>
+      <c r="F47" s="90">
+        <v>202053</v>
+      </c>
+      <c r="G47" s="90">
+        <v>202101</v>
+      </c>
+      <c r="H47" s="90">
+        <v>202102</v>
+      </c>
+    </row>
+    <row r="48" spans="1:62">
+      <c r="B48" s="88" t="s">
+        <v>98</v>
+      </c>
+      <c r="C48" s="91" t="s">
+        <v>85</v>
+      </c>
+      <c r="D48" s="46">
+        <v>201951</v>
+      </c>
+      <c r="E48" s="46">
+        <v>201952</v>
+      </c>
+      <c r="F48" s="46"/>
+      <c r="G48" s="46">
+        <v>202001</v>
+      </c>
+      <c r="H48" s="46">
+        <v>202002</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8">
+      <c r="B49" s="88" t="s">
+        <v>98</v>
+      </c>
+      <c r="C49" s="91" t="s">
+        <v>304</v>
+      </c>
+      <c r="D49" s="46"/>
+      <c r="E49" s="46">
+        <f>E47-D47</f>
+        <v>1</v>
+      </c>
+      <c r="F49" s="46">
+        <f t="shared" ref="F49:H49" si="0">F47-E47</f>
+        <v>1</v>
+      </c>
+      <c r="G49" s="46">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="H49" s="46">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8">
+      <c r="B50" s="88" t="s">
+        <v>98</v>
+      </c>
+      <c r="C50" s="35" t="s">
+        <v>305</v>
+      </c>
+      <c r="D50" s="94">
+        <f>D48-E48</f>
+        <v>-1</v>
+      </c>
+      <c r="E50" s="94">
+        <f>E48-G48</f>
+        <v>-49</v>
+      </c>
+      <c r="F50" s="94"/>
+      <c r="G50" s="94">
+        <f t="shared" ref="G50" si="1">G48-H48</f>
+        <v>-1</v>
+      </c>
+      <c r="H50" s="94"/>
+    </row>
+    <row r="51" spans="2:8">
+      <c r="B51" s="88" t="s">
+        <v>98</v>
+      </c>
+      <c r="C51" s="35" t="s">
+        <v>316</v>
+      </c>
+      <c r="D51" s="35"/>
+      <c r="E51" s="35"/>
+      <c r="F51" s="35"/>
+      <c r="G51" s="35"/>
+      <c r="H51" s="35"/>
+    </row>
+    <row r="52" spans="2:8">
+      <c r="B52" s="88" t="s">
+        <v>98</v>
+      </c>
+      <c r="C52" s="35" t="s">
+        <v>316</v>
+      </c>
+      <c r="D52" s="35"/>
+      <c r="E52" s="35"/>
+      <c r="F52" s="35"/>
+      <c r="G52" s="35"/>
+      <c r="H52" s="35"/>
+    </row>
+    <row r="53" spans="2:8">
+      <c r="B53" s="88" t="s">
+        <v>98</v>
+      </c>
+      <c r="C53" s="35" t="s">
+        <v>317</v>
+      </c>
+      <c r="D53" s="35"/>
+      <c r="E53" s="35"/>
+      <c r="F53" s="35"/>
+      <c r="G53" s="35"/>
+      <c r="H53" s="35"/>
+    </row>
+    <row r="54" spans="2:8">
+      <c r="B54" s="88" t="s">
+        <v>98</v>
+      </c>
+      <c r="C54" s="35" t="s">
+        <v>318</v>
+      </c>
+      <c r="D54" s="87"/>
+      <c r="E54" s="87"/>
+      <c r="F54" s="87"/>
+      <c r="G54" s="87"/>
+      <c r="H54" s="87"/>
+    </row>
+    <row r="55" spans="2:8">
+      <c r="B55" s="88" t="s">
+        <v>98</v>
+      </c>
+      <c r="C55" s="35" t="s">
+        <v>319</v>
+      </c>
+      <c r="D55" s="35"/>
+      <c r="E55" s="35"/>
+      <c r="F55" s="35"/>
+      <c r="G55" s="35"/>
+      <c r="H55" s="35"/>
+    </row>
+    <row r="56" spans="2:8">
+      <c r="B56" s="88" t="s">
+        <v>98</v>
+      </c>
+      <c r="C56" s="35" t="s">
+        <v>320</v>
+      </c>
+      <c r="D56" s="35"/>
+      <c r="E56" s="35"/>
+      <c r="F56" s="35"/>
+      <c r="G56" s="35"/>
+      <c r="H56" s="35"/>
+    </row>
+    <row r="57" spans="2:8">
+      <c r="B57" s="88" t="s">
+        <v>98</v>
+      </c>
+      <c r="C57" s="35" t="s">
+        <v>321</v>
+      </c>
+      <c r="D57" s="35"/>
+      <c r="E57" s="35"/>
+      <c r="F57" s="35"/>
+      <c r="G57" s="35"/>
+      <c r="H57" s="35"/>
+    </row>
+    <row r="58" spans="2:8">
+      <c r="B58" s="88" t="s">
+        <v>98</v>
+      </c>
+      <c r="C58" s="35" t="s">
+        <v>322</v>
+      </c>
+      <c r="D58" s="35"/>
+      <c r="E58" s="35"/>
+      <c r="F58" s="35"/>
+      <c r="G58" s="35"/>
+      <c r="H58" s="35"/>
+    </row>
+    <row r="59" spans="2:8" ht="30">
+      <c r="B59" s="88" t="s">
+        <v>98</v>
+      </c>
+      <c r="C59" s="35" t="s">
+        <v>323</v>
+      </c>
+      <c r="D59" s="35"/>
+      <c r="E59" s="35"/>
+      <c r="F59" s="35"/>
+      <c r="G59" s="35"/>
+      <c r="H59" s="35"/>
+    </row>
+    <row r="60" spans="2:8" ht="30">
+      <c r="B60" s="88" t="s">
+        <v>98</v>
+      </c>
+      <c r="C60" s="35" t="s">
+        <v>323</v>
+      </c>
+      <c r="D60" s="35"/>
+      <c r="E60" s="35"/>
+      <c r="F60" s="35"/>
+      <c r="G60" s="35"/>
+      <c r="H60" s="35"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet22"/>
   <dimension ref="A1:BR45"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F13" sqref="F13:F15"/>
     </sheetView>
   </sheetViews>
@@ -25740,7 +26905,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet23"/>
   <dimension ref="A1:R177"/>
